--- a/data/features.xlsx
+++ b/data/features.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John\Documents\Data Science\Data Science Projects\movies\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John\Documents\Data Science\Data Science Projects\mdb\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="features" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">features!$A$1:$J$54</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">features!$A$1:$K$48</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="123">
   <si>
     <t>title</t>
   </si>
@@ -92,9 +92,6 @@
     <t>best_actor_win</t>
   </si>
   <si>
-    <t>best_actress win</t>
-  </si>
-  <si>
     <t>best_dir_win</t>
   </si>
   <si>
@@ -182,9 +179,6 @@
     <t>3. Dates</t>
   </si>
   <si>
-    <t>studio_experience</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
@@ -197,54 +191,18 @@
     <t>cast_votes</t>
   </si>
   <si>
-    <t>studio_votes</t>
-  </si>
-  <si>
     <t>scores</t>
   </si>
   <si>
     <t>10 * IMDB Rating + critics score + audience_score</t>
   </si>
   <si>
-    <t>votes_imdb_rating</t>
-  </si>
-  <si>
-    <t>votes_critics_score</t>
-  </si>
-  <si>
-    <t>votes * critics_score</t>
-  </si>
-  <si>
-    <t>votes_audience_score</t>
-  </si>
-  <si>
-    <t>votes * audience_score</t>
-  </si>
-  <si>
-    <t>votes_scores</t>
-  </si>
-  <si>
-    <t>votes * scores</t>
-  </si>
-  <si>
     <t>5. Performance</t>
   </si>
   <si>
     <t>4. Experience</t>
   </si>
   <si>
-    <t>log(votes * imdb_rating)</t>
-  </si>
-  <si>
-    <t>log(votes * critics_score)</t>
-  </si>
-  <si>
-    <t>log(votes * audience_score)</t>
-  </si>
-  <si>
-    <t>log(votes * scores)</t>
-  </si>
-  <si>
     <t>6. Interaction Variables</t>
   </si>
   <si>
@@ -275,9 +233,6 @@
     <t>Link to Rotten Tomatoes page for the movie</t>
   </si>
   <si>
-    <t>Studio that produced the movie</t>
-  </si>
-  <si>
     <t>Director of the movie</t>
   </si>
   <si>
@@ -356,33 +311,15 @@
     <t>Total number of allocated IMDB votes for the cast of a film</t>
   </si>
   <si>
-    <t>Total number of films for studio in sample</t>
-  </si>
-  <si>
     <t>Total number of films in sample for a director</t>
   </si>
   <si>
-    <t>Votes * imdb_rating</t>
-  </si>
-  <si>
     <t>Box office revenue from BoxOfficeMojo.com</t>
   </si>
   <si>
     <t>imdb_num_votes_log</t>
   </si>
   <si>
-    <t>votes_imdb_rating_log</t>
-  </si>
-  <si>
-    <t>votes_critics_score_log</t>
-  </si>
-  <si>
-    <t>votes_audience_score_log</t>
-  </si>
-  <si>
-    <t>votes_scores_log</t>
-  </si>
-  <si>
     <t>box_office_log</t>
   </si>
   <si>
@@ -395,15 +332,6 @@
     <t>The sum across all cast members for a film, of the number of films in which each actor appeared</t>
   </si>
   <si>
-    <t>studio_votes_log</t>
-  </si>
-  <si>
-    <t>Log total IMDB votes for the studio for each film</t>
-  </si>
-  <si>
-    <t>Total IMDB votes for the studio for each film</t>
-  </si>
-  <si>
     <t>cast_votes_log</t>
   </si>
   <si>
@@ -414,14 +342,76 @@
   </si>
   <si>
     <t>Log(10 * IMDB Rating + critics score + audience_score)</t>
+  </si>
+  <si>
+    <t>best_actress_win</t>
+  </si>
+  <si>
+    <t>thtr_days</t>
+  </si>
+  <si>
+    <t>Number of days between theatre and dvd release</t>
+  </si>
+  <si>
+    <t>director_experience_log</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Log total number of films in sample for a director</t>
+  </si>
+  <si>
+    <t>cast_experience_log</t>
+  </si>
+  <si>
+    <t>Log of the sum across all cast members for a film, of the number of films in which each actor appeared</t>
+  </si>
+  <si>
+    <t>runtime_log</t>
+  </si>
+  <si>
+    <t>Log runtime of movie (in minutes)</t>
+  </si>
+  <si>
+    <t>thtr_days_log</t>
+  </si>
+  <si>
+    <t>Log number of days between theatre and dvd release</t>
+  </si>
+  <si>
+    <t>Rationale</t>
+  </si>
+  <si>
+    <t>No predictive value</t>
+  </si>
+  <si>
+    <t>Not predictive without other data</t>
+  </si>
+  <si>
+    <t>Redundant with critics_score</t>
+  </si>
+  <si>
+    <t>Redundant with audience_score</t>
+  </si>
+  <si>
+    <t>Not a variable that Paramount can change</t>
+  </si>
+  <si>
+    <t>Redundant with genre</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -449,8 +439,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -732,10 +723,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:J54"/>
+  <dimension ref="A1:K48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J54" sqref="J54"/>
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -745,260 +736,245 @@
     <col min="9" max="9" width="20.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>120</v>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" t="s">
         <v>42</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" t="s">
         <v>46</v>
       </c>
-      <c r="D1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" t="s">
-        <v>47</v>
-      </c>
       <c r="H1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" t="s">
         <v>32</v>
       </c>
-      <c r="J1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
+      <c r="K1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G2" t="s">
         <v>48</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I2" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="K2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G3" t="s">
         <v>48</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I3" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="J3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <f>A3+1</f>
-        <v>2</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="K3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>34</v>
       </c>
       <c r="C4" t="s">
         <v>34</v>
       </c>
-      <c r="D4" t="s">
-        <v>34</v>
-      </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G4" t="s">
         <v>48</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I4" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="J4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <f>A4+1</f>
-        <v>3</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="K4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G5" t="s">
         <v>48</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I5" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="J5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <f>A5+1</f>
-        <v>4</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="K5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>34</v>
       </c>
       <c r="C6" t="s">
         <v>34</v>
       </c>
-      <c r="D6" t="s">
-        <v>34</v>
-      </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G6" t="s">
         <v>48</v>
       </c>
       <c r="H6">
+        <v>7</v>
+      </c>
+      <c r="I6" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" t="s">
+        <v>73</v>
+      </c>
+      <c r="K6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7">
         <v>5</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8">
         <v>4</v>
       </c>
-      <c r="J6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <f>A6+1</f>
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H7">
-        <v>6</v>
-      </c>
-      <c r="I7" t="s">
-        <v>30</v>
-      </c>
-      <c r="J7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <f>A7+1</f>
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G8" t="s">
-        <v>48</v>
-      </c>
-      <c r="H8">
-        <v>7</v>
-      </c>
       <c r="I8" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="J8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <f>A8+1</f>
-        <v>7</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="K8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>34</v>
       </c>
@@ -1006,29 +982,28 @@
         <v>34</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G9" t="s">
         <v>49</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I9" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <f>A9+1</f>
-        <v>8</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="K9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>34</v>
       </c>
@@ -1036,459 +1011,469 @@
         <v>34</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G10" t="s">
         <v>49</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I10" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="J10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <f>A10+1</f>
-        <v>9</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="K10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G11" t="s">
         <v>49</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I11" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="J11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <f>A11+1</f>
-        <v>10</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="K11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H12">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I12" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="J12" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <f>A12+1</f>
-        <v>11</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="K12" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H13">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I13" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J13" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <f>A13+1</f>
-        <v>12</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="K13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G14" t="s">
         <v>49</v>
       </c>
       <c r="H14">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I14" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="J14" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <f>A14+1</f>
-        <v>13</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="K14" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="D15" t="s">
+        <v>34</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G15" t="s">
         <v>49</v>
       </c>
       <c r="H15">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="J15" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <f>A15+1</f>
-        <v>14</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="K15" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G16" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H16">
         <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="K16" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
+        <f>A16+1</f>
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D17" t="s">
         <v>34</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G17" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I17" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="J17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <f>A17+1</f>
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G18" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="H18">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="I18" t="s">
-        <v>7</v>
+        <v>105</v>
       </c>
       <c r="J18" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <f>A18+1</f>
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C19" t="s">
-        <v>35</v>
+        <v>33</v>
+      </c>
+      <c r="D19" t="s">
+        <v>34</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G19" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="H19">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I19" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="J19" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <f>A19+1</f>
         <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C20" t="s">
-        <v>35</v>
+        <v>33</v>
+      </c>
+      <c r="D20" t="s">
+        <v>34</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G20" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="H20">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I20" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="J20" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <f>A20+1</f>
         <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C21" t="s">
-        <v>35</v>
+        <v>33</v>
+      </c>
+      <c r="D21" t="s">
+        <v>34</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G21" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="H21">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I21" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="J21" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <f>A21+1</f>
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C22" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G22" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H22">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I22" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="J22" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="K22" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <f>A22+1</f>
         <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G23" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I23" t="s">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="J23" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <f>A23+1</f>
         <v>8</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F24" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G24" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I24" t="s">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="J24" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <f>A24+1</f>
         <v>9</v>
@@ -1497,100 +1482,95 @@
         <v>34</v>
       </c>
       <c r="C25" t="s">
-        <v>34</v>
-      </c>
-      <c r="D25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F25" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G25" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="H25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>53</v>
+        <v>5</v>
       </c>
       <c r="J25" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
         <f>A25+1</f>
         <v>10</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>36</v>
+      </c>
+      <c r="G26" t="s">
+        <v>49</v>
+      </c>
+      <c r="H26">
+        <v>3</v>
+      </c>
+      <c r="I26" t="s">
+        <v>7</v>
+      </c>
+      <c r="J26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" t="s">
         <v>44</v>
       </c>
-      <c r="F26" t="s">
-        <v>38</v>
-      </c>
-      <c r="G26" t="s">
-        <v>66</v>
-      </c>
-      <c r="H26">
-        <v>1</v>
-      </c>
-      <c r="I26" t="s">
-        <v>13</v>
-      </c>
-      <c r="J26" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <f>A26+1</f>
-        <v>11</v>
-      </c>
-      <c r="B27" t="s">
-        <v>34</v>
-      </c>
-      <c r="C27" t="s">
-        <v>34</v>
-      </c>
-      <c r="D27" t="s">
-        <v>34</v>
-      </c>
-      <c r="E27" t="s">
-        <v>45</v>
-      </c>
       <c r="F27" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G27" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="H27">
         <v>2</v>
       </c>
       <c r="I27" t="s">
-        <v>113</v>
+        <v>39</v>
       </c>
       <c r="J27" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
-        <f>A27+1</f>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B28" t="s">
         <v>34</v>
@@ -1599,166 +1579,169 @@
         <v>34</v>
       </c>
       <c r="D28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F28" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G28" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="H28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I28" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+      <c r="K28" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
         <f>A28+1</f>
+        <v>2</v>
+      </c>
+      <c r="B29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" t="s">
+        <v>34</v>
+      </c>
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>36</v>
+      </c>
+      <c r="G29" t="s">
+        <v>56</v>
+      </c>
+      <c r="H29">
         <v>13</v>
       </c>
-      <c r="B29" t="s">
-        <v>35</v>
-      </c>
-      <c r="C29" t="s">
-        <v>35</v>
-      </c>
-      <c r="E29" t="s">
-        <v>44</v>
-      </c>
-      <c r="F29" t="s">
-        <v>37</v>
-      </c>
-      <c r="G29" t="s">
-        <v>66</v>
-      </c>
-      <c r="H29">
-        <v>4</v>
-      </c>
       <c r="I29" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="J29" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <f>A29+1</f>
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B30" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C30" t="s">
-        <v>35</v>
+        <v>33</v>
+      </c>
+      <c r="D30" t="s">
+        <v>34</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F30" t="s">
         <v>37</v>
       </c>
       <c r="G30" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="H30">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I30" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J30" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <f>A30+1</f>
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C31" t="s">
         <v>34</v>
-      </c>
-      <c r="D31" t="s">
-        <v>35</v>
       </c>
       <c r="E31" t="s">
         <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G31" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="H31">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I31" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="J31" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <f>A31+1</f>
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C32" t="s">
         <v>34</v>
-      </c>
-      <c r="D32" t="s">
-        <v>35</v>
       </c>
       <c r="E32" t="s">
         <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G32" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="H32">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I32" t="s">
-        <v>17</v>
+        <v>97</v>
       </c>
       <c r="J32" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33">
-        <f>A32+1</f>
-        <v>17</v>
+        <f>A30+1</f>
+        <v>4</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D33" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E33" t="s">
         <v>44</v>
@@ -1767,31 +1750,31 @@
         <v>37</v>
       </c>
       <c r="G33" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="H33">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I33" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="J33" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34">
-        <f>A33+1</f>
-        <v>18</v>
+        <f>A32+1</f>
+        <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D34" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E34" t="s">
         <v>44</v>
@@ -1800,31 +1783,31 @@
         <v>37</v>
       </c>
       <c r="G34" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="H34">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="I34" t="s">
-        <v>19</v>
+        <v>110</v>
       </c>
       <c r="J34" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <f>A34+1</f>
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D35" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E35" t="s">
         <v>44</v>
@@ -1833,31 +1816,31 @@
         <v>37</v>
       </c>
       <c r="G35" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="H35">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I35" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="J35" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <f>A35+1</f>
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D36" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E36" t="s">
         <v>44</v>
@@ -1866,64 +1849,64 @@
         <v>37</v>
       </c>
       <c r="G36" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="H36">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I36" t="s">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="J36" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <f>A36+1</f>
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D37" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F37" t="s">
         <v>37</v>
       </c>
       <c r="G37" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="H37">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="I37" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="J37" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38">
-        <f>A37+1</f>
-        <v>22</v>
+        <f>A36+1</f>
+        <v>9</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C38" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D38" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E38" t="s">
         <v>44</v>
@@ -1932,527 +1915,341 @@
         <v>37</v>
       </c>
       <c r="G38" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="H38">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="I38" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="J38" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
     </row>
     <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39">
-        <f>A38+1</f>
-        <v>23</v>
+        <f>A37+1</f>
+        <v>10</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G39" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="H39">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="I39" t="s">
-        <v>56</v>
+        <v>108</v>
       </c>
       <c r="J39" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
     </row>
     <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40">
-        <f>A39+1</f>
-        <v>24</v>
+        <f>A37+1</f>
+        <v>10</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C40" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D40" t="s">
         <v>34</v>
       </c>
       <c r="E40" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F40" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G40" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="H40">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="I40" t="s">
-        <v>122</v>
+        <v>13</v>
       </c>
       <c r="J40" t="s">
-        <v>123</v>
+        <v>81</v>
       </c>
     </row>
     <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <f>A40+1</f>
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G41" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="H41">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="I41" t="s">
-        <v>55</v>
+        <v>96</v>
       </c>
       <c r="J41" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42">
         <f>A41+1</f>
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C42" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D42" t="s">
         <v>34</v>
       </c>
       <c r="E42" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F42" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G42" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="H42">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="I42" t="s">
-        <v>125</v>
+        <v>12</v>
       </c>
       <c r="J42" t="s">
-        <v>126</v>
+        <v>80</v>
       </c>
     </row>
     <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43">
-        <f>A42+1</f>
-        <v>27</v>
+        <f>A41+1</f>
+        <v>12</v>
       </c>
       <c r="B43" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C43" t="s">
         <v>34</v>
       </c>
       <c r="E43" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F43" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G43" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I43" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="J43" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44">
-        <f>A43+1</f>
-        <v>28</v>
+        <f>A42+1</f>
+        <v>13</v>
       </c>
       <c r="B44" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C44" t="s">
         <v>34</v>
       </c>
       <c r="E44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G44" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I44" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="J44" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
     </row>
     <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45">
         <f>A44+1</f>
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="B45" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C45" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G45" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="H45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I45" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="J45" t="s">
-        <v>111</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46">
         <f>A45+1</f>
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="B46" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C46" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G46" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="H46">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I46" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="J46" t="s">
-        <v>68</v>
+        <v>104</v>
       </c>
     </row>
     <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <f>A46+1</f>
-        <v>31</v>
-      </c>
       <c r="B47" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C47" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G47" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="H47">
         <v>5</v>
       </c>
       <c r="I47" t="s">
-        <v>60</v>
+        <v>106</v>
       </c>
       <c r="J47" t="s">
-        <v>61</v>
+        <v>107</v>
       </c>
     </row>
     <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <f>A47+1</f>
-        <v>32</v>
-      </c>
       <c r="B48" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C48" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G48" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="H48">
         <v>6</v>
       </c>
       <c r="I48" t="s">
+        <v>114</v>
+      </c>
+      <c r="J48" t="s">
         <v>115</v>
       </c>
-      <c r="J48" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <f>A48+1</f>
-        <v>33</v>
-      </c>
-      <c r="B49" t="s">
-        <v>34</v>
-      </c>
-      <c r="C49" t="s">
-        <v>34</v>
-      </c>
-      <c r="E49" t="s">
-        <v>45</v>
-      </c>
-      <c r="F49" t="s">
-        <v>38</v>
-      </c>
-      <c r="G49" t="s">
-        <v>72</v>
-      </c>
-      <c r="H49">
-        <v>7</v>
-      </c>
-      <c r="I49" t="s">
-        <v>62</v>
-      </c>
-      <c r="J49" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <f>A49+1</f>
-        <v>34</v>
-      </c>
-      <c r="B50" t="s">
-        <v>34</v>
-      </c>
-      <c r="C50" t="s">
-        <v>34</v>
-      </c>
-      <c r="E50" t="s">
-        <v>45</v>
-      </c>
-      <c r="F50" t="s">
-        <v>38</v>
-      </c>
-      <c r="G50" t="s">
-        <v>72</v>
-      </c>
-      <c r="H50">
-        <v>8</v>
-      </c>
-      <c r="I50" t="s">
-        <v>116</v>
-      </c>
-      <c r="J50" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <f>A50+1</f>
-        <v>35</v>
-      </c>
-      <c r="B51" t="s">
-        <v>34</v>
-      </c>
-      <c r="C51" t="s">
-        <v>34</v>
-      </c>
-      <c r="E51" t="s">
-        <v>45</v>
-      </c>
-      <c r="F51" t="s">
-        <v>38</v>
-      </c>
-      <c r="G51" t="s">
-        <v>72</v>
-      </c>
-      <c r="H51">
-        <v>9</v>
-      </c>
-      <c r="I51" t="s">
-        <v>64</v>
-      </c>
-      <c r="J51" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <f>A51+1</f>
-        <v>36</v>
-      </c>
-      <c r="B52" t="s">
-        <v>34</v>
-      </c>
-      <c r="C52" t="s">
-        <v>34</v>
-      </c>
-      <c r="E52" t="s">
-        <v>45</v>
-      </c>
-      <c r="F52" t="s">
-        <v>38</v>
-      </c>
-      <c r="G52" t="s">
-        <v>72</v>
-      </c>
-      <c r="H52">
-        <v>10</v>
-      </c>
-      <c r="I52" t="s">
-        <v>117</v>
-      </c>
-      <c r="J52" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <f>A52+1</f>
-        <v>37</v>
-      </c>
-      <c r="B53" t="s">
-        <v>34</v>
-      </c>
-      <c r="C53" t="s">
-        <v>34</v>
-      </c>
-      <c r="E53" t="s">
-        <v>44</v>
-      </c>
-      <c r="F53" t="s">
-        <v>38</v>
-      </c>
-      <c r="G53" t="s">
-        <v>73</v>
-      </c>
-      <c r="H53">
-        <v>1</v>
-      </c>
-      <c r="I53" t="s">
-        <v>74</v>
-      </c>
-      <c r="J53" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <f>A53+1</f>
-        <v>38</v>
-      </c>
-      <c r="B54" t="s">
-        <v>34</v>
-      </c>
-      <c r="C54" t="s">
-        <v>34</v>
-      </c>
-      <c r="E54" t="s">
-        <v>44</v>
-      </c>
-      <c r="F54" t="s">
-        <v>38</v>
-      </c>
-      <c r="G54" t="s">
-        <v>73</v>
-      </c>
-      <c r="H54">
-        <v>2</v>
-      </c>
-      <c r="I54" t="s">
-        <v>118</v>
-      </c>
-      <c r="J54" t="s">
-        <v>119</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J54">
+  <autoFilter ref="A1:K48">
     <filterColumn colId="1">
       <filters>
         <filter val="yes"/>
       </filters>
     </filterColumn>
-    <filterColumn colId="4">
+    <filterColumn colId="5">
       <filters>
-        <filter val="IMDB/RT/BO"/>
+        <filter val="Categorical"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState ref="A2:J54">
-    <sortCondition ref="G2:G54"/>
-    <sortCondition ref="H2:H54"/>
+  <sortState ref="A2:K48">
+    <sortCondition ref="B2:B48"/>
+    <sortCondition ref="F2:F48"/>
+    <sortCondition ref="I2:I48"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/features.xlsx
+++ b/data/features.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="132">
   <si>
     <t>title</t>
   </si>
@@ -396,6 +396,33 @@
   </si>
   <si>
     <t>Redundant with genre</t>
+  </si>
+  <si>
+    <t>Redundant with box office success.</t>
+  </si>
+  <si>
+    <t>The studio that produced the film</t>
+  </si>
+  <si>
+    <t>Redundant with cast_votes_log</t>
+  </si>
+  <si>
+    <t>Redundant with director_experience_log</t>
+  </si>
+  <si>
+    <t>Redundant</t>
+  </si>
+  <si>
+    <t>Not in data set</t>
+  </si>
+  <si>
+    <t>Redundant with imdb_num_votes_log</t>
+  </si>
+  <si>
+    <t>Response variable</t>
+  </si>
+  <si>
+    <t>Redundant with cast_experience_log</t>
   </si>
 </sst>
 </file>
@@ -726,7 +753,7 @@
   <dimension ref="A1:K48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+      <selection activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -778,6 +805,9 @@
       <c r="C2" t="s">
         <v>34</v>
       </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
       <c r="E2" t="s">
         <v>43</v>
       </c>
@@ -807,6 +837,9 @@
       <c r="C3" t="s">
         <v>34</v>
       </c>
+      <c r="D3" t="s">
+        <v>34</v>
+      </c>
       <c r="E3" t="s">
         <v>43</v>
       </c>
@@ -836,6 +869,9 @@
       <c r="C4" t="s">
         <v>34</v>
       </c>
+      <c r="D4" t="s">
+        <v>34</v>
+      </c>
       <c r="E4" t="s">
         <v>43</v>
       </c>
@@ -865,6 +901,9 @@
       <c r="C5" t="s">
         <v>34</v>
       </c>
+      <c r="D5" t="s">
+        <v>34</v>
+      </c>
       <c r="E5" t="s">
         <v>43</v>
       </c>
@@ -894,6 +933,9 @@
       <c r="C6" t="s">
         <v>34</v>
       </c>
+      <c r="D6" t="s">
+        <v>34</v>
+      </c>
       <c r="E6" t="s">
         <v>43</v>
       </c>
@@ -923,6 +965,9 @@
       <c r="C7" t="s">
         <v>34</v>
       </c>
+      <c r="D7" t="s">
+        <v>34</v>
+      </c>
       <c r="E7" t="s">
         <v>43</v>
       </c>
@@ -952,6 +997,9 @@
       <c r="C8" t="s">
         <v>34</v>
       </c>
+      <c r="D8" t="s">
+        <v>34</v>
+      </c>
       <c r="E8" t="s">
         <v>43</v>
       </c>
@@ -981,6 +1029,9 @@
       <c r="C9" t="s">
         <v>34</v>
       </c>
+      <c r="D9" t="s">
+        <v>34</v>
+      </c>
       <c r="E9" t="s">
         <v>43</v>
       </c>
@@ -1010,6 +1061,9 @@
       <c r="C10" t="s">
         <v>34</v>
       </c>
+      <c r="D10" t="s">
+        <v>34</v>
+      </c>
       <c r="E10" t="s">
         <v>43</v>
       </c>
@@ -1039,6 +1093,9 @@
       <c r="C11" t="s">
         <v>34</v>
       </c>
+      <c r="D11" t="s">
+        <v>34</v>
+      </c>
       <c r="E11" t="s">
         <v>43</v>
       </c>
@@ -1068,6 +1125,9 @@
       <c r="C12" t="s">
         <v>34</v>
       </c>
+      <c r="D12" t="s">
+        <v>34</v>
+      </c>
       <c r="E12" t="s">
         <v>43</v>
       </c>
@@ -1097,6 +1157,9 @@
       <c r="C13" t="s">
         <v>34</v>
       </c>
+      <c r="D13" t="s">
+        <v>34</v>
+      </c>
       <c r="E13" t="s">
         <v>43</v>
       </c>
@@ -1126,6 +1189,9 @@
       <c r="C14" t="s">
         <v>34</v>
       </c>
+      <c r="D14" t="s">
+        <v>34</v>
+      </c>
       <c r="E14" t="s">
         <v>43</v>
       </c>
@@ -1185,6 +1251,9 @@
         <v>34</v>
       </c>
       <c r="C16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" t="s">
         <v>34</v>
       </c>
       <c r="E16" t="s">
@@ -1221,7 +1290,7 @@
         <v>33</v>
       </c>
       <c r="D17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E17" t="s">
         <v>43</v>
@@ -1254,7 +1323,7 @@
         <v>33</v>
       </c>
       <c r="D18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E18" t="s">
         <v>43</v>
@@ -1287,7 +1356,7 @@
         <v>33</v>
       </c>
       <c r="D19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E19" t="s">
         <v>43</v>
@@ -1320,7 +1389,7 @@
         <v>33</v>
       </c>
       <c r="D20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E20" t="s">
         <v>43</v>
@@ -1353,7 +1422,7 @@
         <v>33</v>
       </c>
       <c r="D21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E21" t="s">
         <v>43</v>
@@ -1385,6 +1454,9 @@
       <c r="C22" t="s">
         <v>33</v>
       </c>
+      <c r="D22" t="s">
+        <v>34</v>
+      </c>
       <c r="E22" t="s">
         <v>43</v>
       </c>
@@ -1484,6 +1556,9 @@
       <c r="C25" t="s">
         <v>33</v>
       </c>
+      <c r="D25" t="s">
+        <v>34</v>
+      </c>
       <c r="E25" t="s">
         <v>43</v>
       </c>
@@ -1500,6 +1575,9 @@
         <v>5</v>
       </c>
       <c r="J25" t="s">
+        <v>124</v>
+      </c>
+      <c r="K25" t="s">
         <v>121</v>
       </c>
     </row>
@@ -1515,7 +1593,7 @@
         <v>33</v>
       </c>
       <c r="D26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E26" t="s">
         <v>43</v>
@@ -1568,7 +1646,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1</v>
       </c>
@@ -1603,13 +1681,13 @@
         <v>122</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <f>A28+1</f>
         <v>2</v>
       </c>
       <c r="B29" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C29" t="s">
         <v>33</v>
@@ -1635,8 +1713,11 @@
       <c r="J29" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K29" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
         <f>A29+1</f>
         <v>3</v>
@@ -1648,7 +1729,7 @@
         <v>33</v>
       </c>
       <c r="D30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E30" t="s">
         <v>43</v>
@@ -1680,6 +1761,9 @@
       <c r="C31" t="s">
         <v>34</v>
       </c>
+      <c r="D31" t="s">
+        <v>34</v>
+      </c>
       <c r="E31" t="s">
         <v>44</v>
       </c>
@@ -1697,6 +1781,9 @@
       </c>
       <c r="J31" t="s">
         <v>95</v>
+      </c>
+      <c r="K31" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -1710,6 +1797,9 @@
       <c r="C32" t="s">
         <v>34</v>
       </c>
+      <c r="D32" t="s">
+        <v>34</v>
+      </c>
       <c r="E32" t="s">
         <v>44</v>
       </c>
@@ -1728,8 +1818,11 @@
       <c r="J32" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K32" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <f>A30+1</f>
         <v>4</v>
@@ -1741,7 +1834,7 @@
         <v>33</v>
       </c>
       <c r="D33" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E33" t="s">
         <v>44</v>
@@ -1761,8 +1854,11 @@
       <c r="J33" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K33" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34">
         <f>A32+1</f>
         <v>6</v>
@@ -1795,7 +1891,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <f>A34+1</f>
         <v>7</v>
@@ -1807,7 +1903,7 @@
         <v>33</v>
       </c>
       <c r="D35" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E35" t="s">
         <v>44</v>
@@ -1827,8 +1923,11 @@
       <c r="J35" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K35" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36">
         <f>A35+1</f>
         <v>8</v>
@@ -1861,7 +1960,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37">
         <f>A36+1</f>
         <v>9</v>
@@ -1873,7 +1972,7 @@
         <v>33</v>
       </c>
       <c r="D37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E37" t="s">
         <v>43</v>
@@ -1894,7 +1993,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <f>A36+1</f>
         <v>9</v>
@@ -1906,7 +2005,7 @@
         <v>33</v>
       </c>
       <c r="D38" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E38" t="s">
         <v>44</v>
@@ -1926,8 +2025,11 @@
       <c r="J38" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K38" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39">
         <f>A37+1</f>
         <v>10</v>
@@ -1960,7 +2062,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40">
         <f>A37+1</f>
         <v>10</v>
@@ -1992,8 +2094,11 @@
       <c r="J40" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K40" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <f>A40+1</f>
         <v>11</v>
@@ -2005,7 +2110,7 @@
         <v>33</v>
       </c>
       <c r="D41" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E41" t="s">
         <v>44</v>
@@ -2025,8 +2130,11 @@
       <c r="J41" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K41" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42">
         <f>A41+1</f>
         <v>12</v>
@@ -2038,7 +2146,7 @@
         <v>33</v>
       </c>
       <c r="D42" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E42" t="s">
         <v>43</v>
@@ -2059,7 +2167,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43">
         <f>A41+1</f>
         <v>12</v>
@@ -2070,6 +2178,9 @@
       <c r="C43" t="s">
         <v>34</v>
       </c>
+      <c r="D43" t="s">
+        <v>34</v>
+      </c>
       <c r="E43" t="s">
         <v>43</v>
       </c>
@@ -2088,8 +2199,11 @@
       <c r="J43" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K43" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44">
         <f>A42+1</f>
         <v>13</v>
@@ -2100,6 +2214,9 @@
       <c r="C44" t="s">
         <v>34</v>
       </c>
+      <c r="D44" t="s">
+        <v>33</v>
+      </c>
       <c r="E44" t="s">
         <v>44</v>
       </c>
@@ -2119,7 +2236,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45">
         <f>A44+1</f>
         <v>14</v>
@@ -2130,6 +2247,9 @@
       <c r="C45" t="s">
         <v>33</v>
       </c>
+      <c r="D45" t="s">
+        <v>33</v>
+      </c>
       <c r="E45" t="s">
         <v>44</v>
       </c>
@@ -2149,7 +2269,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46">
         <f>A45+1</f>
         <v>15</v>
@@ -2160,6 +2280,9 @@
       <c r="C46" t="s">
         <v>33</v>
       </c>
+      <c r="D46" t="s">
+        <v>34</v>
+      </c>
       <c r="E46" t="s">
         <v>44</v>
       </c>
@@ -2178,13 +2301,19 @@
       <c r="J46" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K46" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>33</v>
       </c>
       <c r="C47" t="s">
         <v>33</v>
+      </c>
+      <c r="D47" t="s">
+        <v>34</v>
       </c>
       <c r="E47" t="s">
         <v>44</v>
@@ -2204,12 +2333,18 @@
       <c r="J47" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K47" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>33</v>
       </c>
       <c r="C48" t="s">
+        <v>33</v>
+      </c>
+      <c r="D48" t="s">
         <v>33</v>
       </c>
       <c r="E48" t="s">
@@ -2233,14 +2368,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:K48">
-    <filterColumn colId="1">
+    <filterColumn colId="3">
       <filters>
         <filter val="yes"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="5">
-      <filters>
-        <filter val="Categorical"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/data/features.xlsx
+++ b/data/features.xlsx
@@ -15,7 +15,7 @@
     <sheet name="features" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">features!$A$1:$K$48</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">features!$A$1:$K$52</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="140">
   <si>
     <t>title</t>
   </si>
@@ -194,9 +194,6 @@
     <t>scores</t>
   </si>
   <si>
-    <t>10 * IMDB Rating + critics score + audience_score</t>
-  </si>
-  <si>
     <t>5. Performance</t>
   </si>
   <si>
@@ -209,9 +206,6 @@
     <t>7. Box Office</t>
   </si>
   <si>
-    <t>box_office</t>
-  </si>
-  <si>
     <t>Title of movie</t>
   </si>
   <si>
@@ -308,21 +302,12 @@
     <t>Log number of IMDB votes</t>
   </si>
   <si>
-    <t>Total number of allocated IMDB votes for the cast of a film</t>
-  </si>
-  <si>
     <t>Total number of films in sample for a director</t>
   </si>
   <si>
-    <t>Box office revenue from BoxOfficeMojo.com</t>
-  </si>
-  <si>
     <t>imdb_num_votes_log</t>
   </si>
   <si>
-    <t>box_office_log</t>
-  </si>
-  <si>
     <t>Log of Box office revenue from BoxOfficeMojo.com</t>
   </si>
   <si>
@@ -335,24 +320,15 @@
     <t>cast_votes_log</t>
   </si>
   <si>
-    <t>Log of the total number of allocated IMDB votes for the cast of a film</t>
-  </si>
-  <si>
     <t>scores_log</t>
   </si>
   <si>
-    <t>Log(10 * IMDB Rating + critics score + audience_score)</t>
-  </si>
-  <si>
     <t>best_actress_win</t>
   </si>
   <si>
     <t>thtr_days</t>
   </si>
   <si>
-    <t>Number of days between theatre and dvd release</t>
-  </si>
-  <si>
     <t>director_experience_log</t>
   </si>
   <si>
@@ -374,9 +350,6 @@
     <t>thtr_days_log</t>
   </si>
   <si>
-    <t>Log number of days between theatre and dvd release</t>
-  </si>
-  <si>
     <t>Rationale</t>
   </si>
   <si>
@@ -386,43 +359,94 @@
     <t>Not predictive without other data</t>
   </si>
   <si>
-    <t>Redundant with critics_score</t>
-  </si>
-  <si>
-    <t>Redundant with audience_score</t>
-  </si>
-  <si>
-    <t>Not a variable that Paramount can change</t>
-  </si>
-  <si>
-    <t>Redundant with genre</t>
-  </si>
-  <si>
-    <t>Redundant with box office success.</t>
-  </si>
-  <si>
     <t>The studio that produced the film</t>
   </si>
   <si>
-    <t>Redundant with cast_votes_log</t>
-  </si>
-  <si>
-    <t>Redundant with director_experience_log</t>
-  </si>
-  <si>
-    <t>Redundant</t>
-  </si>
-  <si>
     <t>Not in data set</t>
   </si>
   <si>
-    <t>Redundant with imdb_num_votes_log</t>
-  </si>
-  <si>
-    <t>Response variable</t>
-  </si>
-  <si>
-    <t>Redundant with cast_experience_log</t>
+    <t>Average of 10 * IMDB Rating and audience_score</t>
+  </si>
+  <si>
+    <t>Log of thtr_days</t>
+  </si>
+  <si>
+    <t>votes_per_day</t>
+  </si>
+  <si>
+    <t>Log of scores</t>
+  </si>
+  <si>
+    <t>votes_per_day_log</t>
+  </si>
+  <si>
+    <t>Log of votes_per_day</t>
+  </si>
+  <si>
+    <t>daily_box_office</t>
+  </si>
+  <si>
+    <t>daily_box_office_log</t>
+  </si>
+  <si>
+    <t>Daily box office revenue from BoxOfficeMojo.com</t>
+  </si>
+  <si>
+    <t>Total number of allocated IMDB votes per day for the cast of a film</t>
+  </si>
+  <si>
+    <t>votes_per_day_scores</t>
+  </si>
+  <si>
+    <t>votes_per_day_scores_log</t>
+  </si>
+  <si>
+    <t>Highly correlated with cast_esperience_log</t>
+  </si>
+  <si>
+    <t>Highly correlated with cast_votes_log</t>
+  </si>
+  <si>
+    <t>Highly correlated with director_experience_log</t>
+  </si>
+  <si>
+    <t>Highly correlated with imdb_num_votes_log</t>
+  </si>
+  <si>
+    <t>Highly correlated with runtime_log</t>
+  </si>
+  <si>
+    <t>Highly correlated with votes_per_day_scores_log</t>
+  </si>
+  <si>
+    <t>Highly correlated with thtr_days</t>
+  </si>
+  <si>
+    <t>Highly correlated with audience_score</t>
+  </si>
+  <si>
+    <t>Highly correlated with critics_score</t>
+  </si>
+  <si>
+    <t>Highly correlated with genre</t>
+  </si>
+  <si>
+    <t>Not a predictor, but a potential response</t>
+  </si>
+  <si>
+    <t>Log of cast_votes</t>
+  </si>
+  <si>
+    <t>The product of the number of IMDB votes per day and scores</t>
+  </si>
+  <si>
+    <t>Log of votes_per_day_scores</t>
+  </si>
+  <si>
+    <t>Number of days from theatre release date to January 1, 2016</t>
+  </si>
+  <si>
+    <t>The number of IMDB Votes / thtr_days</t>
   </si>
 </sst>
 </file>
@@ -466,9 +490,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -750,10 +777,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:K48"/>
+  <dimension ref="A1:K52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I48" sqref="I48"/>
+      <selection activeCell="J52" sqref="J52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -761,11 +788,13 @@
     <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.85546875" customWidth="1"/>
     <col min="9" max="9" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="168.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="45.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B1" t="s">
         <v>41</v>
@@ -795,7 +824,7 @@
         <v>32</v>
       </c>
       <c r="K1" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -824,10 +853,10 @@
         <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K2" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -856,10 +885,10 @@
         <v>25</v>
       </c>
       <c r="J3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K3" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -888,10 +917,10 @@
         <v>26</v>
       </c>
       <c r="J4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K4" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -920,10 +949,10 @@
         <v>27</v>
       </c>
       <c r="J5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K5" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -952,10 +981,10 @@
         <v>28</v>
       </c>
       <c r="J6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K6" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -975,7 +1004,7 @@
         <v>36</v>
       </c>
       <c r="G7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H7">
         <v>5</v>
@@ -984,10 +1013,10 @@
         <v>16</v>
       </c>
       <c r="J7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K7" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -1007,7 +1036,7 @@
         <v>36</v>
       </c>
       <c r="G8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H8">
         <v>4</v>
@@ -1016,18 +1045,22 @@
         <v>14</v>
       </c>
       <c r="J8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K8" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f>A8+1</f>
+        <v>1</v>
+      </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D9" t="s">
         <v>34</v>
@@ -1039,19 +1072,19 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H9">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I9" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="J9" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="K9" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -1074,16 +1107,16 @@
         <v>49</v>
       </c>
       <c r="H10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K10" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -1106,16 +1139,16 @@
         <v>49</v>
       </c>
       <c r="H11">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K11" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -1135,19 +1168,19 @@
         <v>36</v>
       </c>
       <c r="G12" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H12">
         <v>7</v>
       </c>
       <c r="I12" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="J12" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="K12" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -1170,16 +1203,16 @@
         <v>47</v>
       </c>
       <c r="H13">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J13" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="K13" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -1199,27 +1232,31 @@
         <v>36</v>
       </c>
       <c r="G14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H14">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I14" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="J14" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="K14" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f>A14+1</f>
+        <v>1</v>
+      </c>
       <c r="B15" t="s">
         <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D15" t="s">
         <v>34</v>
@@ -1231,19 +1268,19 @@
         <v>36</v>
       </c>
       <c r="G15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H15">
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J15" t="s">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="K15" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -1263,158 +1300,161 @@
         <v>36</v>
       </c>
       <c r="G16" t="s">
+        <v>49</v>
+      </c>
+      <c r="H16">
+        <v>4</v>
+      </c>
+      <c r="I16" t="s">
+        <v>8</v>
+      </c>
+      <c r="J16" t="s">
+        <v>74</v>
+      </c>
+      <c r="K16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s">
+        <v>49</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17" t="s">
+        <v>6</v>
+      </c>
+      <c r="J17" t="s">
+        <v>72</v>
+      </c>
+      <c r="K17" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>36</v>
+      </c>
+      <c r="G18" t="s">
         <v>47</v>
       </c>
-      <c r="H16">
+      <c r="H18">
         <v>1</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I18" t="s">
         <v>0</v>
       </c>
-      <c r="J16" t="s">
-        <v>61</v>
-      </c>
-      <c r="K16" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <f>A16+1</f>
+      <c r="J18" t="s">
+        <v>59</v>
+      </c>
+      <c r="K18" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>1</v>
       </c>
-      <c r="B17" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" t="s">
-        <v>43</v>
-      </c>
-      <c r="F17" t="s">
-        <v>36</v>
-      </c>
-      <c r="G17" t="s">
-        <v>56</v>
-      </c>
-      <c r="H17">
-        <v>10</v>
-      </c>
-      <c r="I17" t="s">
-        <v>20</v>
-      </c>
-      <c r="J17" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <f>A17+1</f>
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" t="s">
+        <v>47</v>
+      </c>
+      <c r="H19">
         <v>2</v>
       </c>
-      <c r="B18" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" t="s">
-        <v>33</v>
-      </c>
-      <c r="E18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F18" t="s">
-        <v>36</v>
-      </c>
-      <c r="G18" t="s">
-        <v>56</v>
-      </c>
-      <c r="H18">
-        <v>11</v>
-      </c>
-      <c r="I18" t="s">
-        <v>105</v>
-      </c>
-      <c r="J18" t="s">
+      <c r="I19" t="s">
+        <v>1</v>
+      </c>
+      <c r="J19" t="s">
+        <v>60</v>
+      </c>
+      <c r="K19" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f t="shared" ref="A20:A26" si="0">A19+1</f>
+        <v>2</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>36</v>
+      </c>
+      <c r="G20" t="s">
+        <v>55</v>
+      </c>
+      <c r="H20">
+        <v>13</v>
+      </c>
+      <c r="I20" t="s">
+        <v>22</v>
+      </c>
+      <c r="J20" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <f>A18+1</f>
+      <c r="K20" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B19" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" t="s">
-        <v>33</v>
-      </c>
-      <c r="E19" t="s">
-        <v>43</v>
-      </c>
-      <c r="F19" t="s">
-        <v>36</v>
-      </c>
-      <c r="G19" t="s">
-        <v>56</v>
-      </c>
-      <c r="H19">
-        <v>12</v>
-      </c>
-      <c r="I19" t="s">
-        <v>21</v>
-      </c>
-      <c r="J19" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <f>A19+1</f>
-        <v>4</v>
-      </c>
-      <c r="B20" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20" t="s">
-        <v>43</v>
-      </c>
-      <c r="F20" t="s">
-        <v>36</v>
-      </c>
-      <c r="G20" t="s">
-        <v>56</v>
-      </c>
-      <c r="H20">
-        <v>8</v>
-      </c>
-      <c r="I20" t="s">
-        <v>18</v>
-      </c>
-      <c r="J20" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <f>A20+1</f>
-        <v>5</v>
-      </c>
       <c r="B21" t="s">
         <v>33</v>
       </c>
@@ -1422,101 +1462,101 @@
         <v>33</v>
       </c>
       <c r="D21" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E21" t="s">
         <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H21">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I21" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J21" t="s">
-        <v>87</v>
+        <v>83</v>
+      </c>
+      <c r="K21" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22">
-        <f>A21+1</f>
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>36</v>
+      </c>
+      <c r="G22" t="s">
+        <v>55</v>
+      </c>
+      <c r="H22">
+        <v>10</v>
+      </c>
+      <c r="I22" t="s">
+        <v>20</v>
+      </c>
+      <c r="J22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>36</v>
+      </c>
+      <c r="G23" t="s">
+        <v>55</v>
+      </c>
+      <c r="H23">
+        <v>11</v>
+      </c>
+      <c r="I23" t="s">
+        <v>98</v>
+      </c>
+      <c r="J23" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B22" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" t="s">
-        <v>34</v>
-      </c>
-      <c r="E22" t="s">
-        <v>43</v>
-      </c>
-      <c r="F22" t="s">
-        <v>36</v>
-      </c>
-      <c r="G22" t="s">
-        <v>48</v>
-      </c>
-      <c r="H22">
-        <v>2</v>
-      </c>
-      <c r="I22" t="s">
-        <v>23</v>
-      </c>
-      <c r="J22" t="s">
-        <v>68</v>
-      </c>
-      <c r="K22" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <f>A22+1</f>
-        <v>7</v>
-      </c>
-      <c r="B23" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23" t="s">
-        <v>33</v>
-      </c>
-      <c r="D23" t="s">
-        <v>33</v>
-      </c>
-      <c r="E23" t="s">
-        <v>43</v>
-      </c>
-      <c r="F23" t="s">
-        <v>36</v>
-      </c>
-      <c r="G23" t="s">
-        <v>47</v>
-      </c>
-      <c r="H23">
-        <v>3</v>
-      </c>
-      <c r="I23" t="s">
-        <v>2</v>
-      </c>
-      <c r="J23" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <f>A23+1</f>
-        <v>8</v>
-      </c>
       <c r="B24" t="s">
         <v>33</v>
       </c>
@@ -1533,90 +1573,88 @@
         <v>36</v>
       </c>
       <c r="G24" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="H24">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="I24" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="J24" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25">
-        <f>A24+1</f>
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>36</v>
+      </c>
+      <c r="G25" t="s">
+        <v>55</v>
+      </c>
+      <c r="H25">
+        <v>8</v>
+      </c>
+      <c r="I25" t="s">
+        <v>18</v>
+      </c>
+      <c r="J25" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>36</v>
+      </c>
+      <c r="G26" t="s">
+        <v>55</v>
+      </c>
+      <c r="H26">
         <v>9</v>
       </c>
-      <c r="B25" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" t="s">
-        <v>33</v>
-      </c>
-      <c r="D25" t="s">
-        <v>34</v>
-      </c>
-      <c r="E25" t="s">
-        <v>43</v>
-      </c>
-      <c r="F25" t="s">
-        <v>36</v>
-      </c>
-      <c r="G25" t="s">
-        <v>48</v>
-      </c>
-      <c r="H25">
-        <v>1</v>
-      </c>
-      <c r="I25" t="s">
-        <v>5</v>
-      </c>
-      <c r="J25" t="s">
-        <v>124</v>
-      </c>
-      <c r="K25" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <f>A25+1</f>
-        <v>10</v>
-      </c>
-      <c r="B26" t="s">
-        <v>33</v>
-      </c>
-      <c r="C26" t="s">
-        <v>33</v>
-      </c>
-      <c r="D26" t="s">
-        <v>33</v>
-      </c>
-      <c r="E26" t="s">
-        <v>43</v>
-      </c>
-      <c r="F26" t="s">
-        <v>36</v>
-      </c>
-      <c r="G26" t="s">
-        <v>49</v>
-      </c>
-      <c r="H26">
-        <v>3</v>
-      </c>
       <c r="I26" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="J26" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>1</v>
+        <f>A24+1</f>
+        <v>7</v>
       </c>
       <c r="B27" t="s">
         <v>33</v>
@@ -1625,102 +1663,103 @@
         <v>33</v>
       </c>
       <c r="D27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E27" t="s">
         <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G27" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I27" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="J27" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+      <c r="K27" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>1</v>
+        <f>A26+1</f>
+        <v>9</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G28" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I28" t="s">
-        <v>1</v>
+        <v>102</v>
       </c>
       <c r="J28" t="s">
-        <v>62</v>
-      </c>
-      <c r="K28" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
         <f>A28+1</f>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C29" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D29" t="s">
         <v>34</v>
       </c>
       <c r="E29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H29">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I29" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="J29" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="K29" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
         <f>A29+1</f>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B30" t="s">
         <v>33</v>
@@ -1732,64 +1771,61 @@
         <v>33</v>
       </c>
       <c r="E30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
         <v>37</v>
       </c>
       <c r="G30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H30">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="I30" t="s">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="J30" t="s">
-        <v>85</v>
+        <v>135</v>
       </c>
     </row>
     <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <f>A30+1</f>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B31" t="s">
         <v>33</v>
       </c>
       <c r="C31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F31" t="s">
         <v>37</v>
       </c>
       <c r="G31" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I31" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="J31" t="s">
-        <v>95</v>
-      </c>
-      <c r="K31" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32">
         <f>A31+1</f>
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B32" t="s">
         <v>33</v>
@@ -1807,25 +1843,25 @@
         <v>37</v>
       </c>
       <c r="G32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="J32" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="K32" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33">
-        <f>A30+1</f>
-        <v>4</v>
+        <f>A32+1</f>
+        <v>14</v>
       </c>
       <c r="B33" t="s">
         <v>33</v>
@@ -1843,34 +1879,34 @@
         <v>37</v>
       </c>
       <c r="G33" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I33" t="s">
-        <v>51</v>
+        <v>119</v>
       </c>
       <c r="J33" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="K33" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34">
         <f>A32+1</f>
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B34" t="s">
         <v>33</v>
       </c>
       <c r="C34" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D34" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E34" t="s">
         <v>44</v>
@@ -1879,22 +1915,25 @@
         <v>37</v>
       </c>
       <c r="G34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H34">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I34" t="s">
-        <v>110</v>
+        <v>52</v>
       </c>
       <c r="J34" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+      <c r="K34" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35">
-        <f>A34+1</f>
-        <v>7</v>
+        <f>A33+1</f>
+        <v>15</v>
       </c>
       <c r="B35" t="s">
         <v>33</v>
@@ -1903,7 +1942,7 @@
         <v>33</v>
       </c>
       <c r="D35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E35" t="s">
         <v>44</v>
@@ -1915,22 +1954,19 @@
         <v>56</v>
       </c>
       <c r="H35">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="I35" t="s">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="J35" t="s">
-        <v>93</v>
-      </c>
-      <c r="K35" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <f>A35+1</f>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B36" t="s">
         <v>33</v>
@@ -1942,37 +1978,37 @@
         <v>33</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G36" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="H36">
+        <v>3</v>
+      </c>
+      <c r="I36" t="s">
+        <v>2</v>
+      </c>
+      <c r="J36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <f>A34+1</f>
         <v>15</v>
       </c>
-      <c r="I36" t="s">
-        <v>101</v>
-      </c>
-      <c r="J36" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <f>A36+1</f>
-        <v>9</v>
-      </c>
       <c r="B37" t="s">
         <v>33</v>
       </c>
       <c r="C37" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D37" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E37" t="s">
         <v>43</v>
@@ -1981,22 +2017,25 @@
         <v>37</v>
       </c>
       <c r="G37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H37">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I37" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J37" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="K37" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38">
-        <f>A36+1</f>
-        <v>9</v>
+        <f>A37+1</f>
+        <v>16</v>
       </c>
       <c r="B38" t="s">
         <v>33</v>
@@ -2005,7 +2044,7 @@
         <v>33</v>
       </c>
       <c r="D38" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E38" t="s">
         <v>44</v>
@@ -2014,25 +2053,22 @@
         <v>37</v>
       </c>
       <c r="G38" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I38" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="J38" t="s">
-        <v>94</v>
-      </c>
-      <c r="K38" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39">
-        <f>A37+1</f>
-        <v>10</v>
+        <f>A38+1</f>
+        <v>17</v>
       </c>
       <c r="B39" t="s">
         <v>33</v>
@@ -2044,28 +2080,28 @@
         <v>33</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F39" t="s">
         <v>37</v>
       </c>
       <c r="G39" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I39" t="s">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="J39" t="s">
-        <v>109</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40">
-        <f>A37+1</f>
-        <v>10</v>
+        <f>A39+1</f>
+        <v>18</v>
       </c>
       <c r="B40" t="s">
         <v>33</v>
@@ -2074,34 +2110,31 @@
         <v>33</v>
       </c>
       <c r="D40" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E40" t="s">
         <v>43</v>
       </c>
       <c r="F40" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G40" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I40" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="J40" t="s">
-        <v>81</v>
-      </c>
-      <c r="K40" t="s">
-        <v>129</v>
+        <v>63</v>
       </c>
     </row>
     <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41">
-        <f>A40+1</f>
-        <v>11</v>
+        <f>A39+1</f>
+        <v>18</v>
       </c>
       <c r="B41" t="s">
         <v>33</v>
@@ -2113,31 +2146,31 @@
         <v>34</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F41" t="s">
         <v>37</v>
       </c>
       <c r="G41" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I41" t="s">
-        <v>96</v>
+        <v>3</v>
       </c>
       <c r="J41" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="K41" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42">
-        <f>A41+1</f>
-        <v>12</v>
+        <f>A40+1</f>
+        <v>19</v>
       </c>
       <c r="B42" t="s">
         <v>33</v>
@@ -2149,73 +2182,73 @@
         <v>33</v>
       </c>
       <c r="E42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
         <v>37</v>
       </c>
       <c r="G42" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="H42">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I42" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="J42" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43">
         <f>A41+1</f>
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B43" t="s">
         <v>33</v>
       </c>
-      <c r="C43" t="s">
-        <v>34</v>
+      <c r="C43" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="D43" t="s">
         <v>34</v>
       </c>
       <c r="E43" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
         <v>37</v>
       </c>
       <c r="G43" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="H43">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I43" t="s">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="J43" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="K43" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44">
         <f>A42+1</f>
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B44" t="s">
         <v>33</v>
       </c>
       <c r="C44" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D44" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E44" t="s">
         <v>44</v>
@@ -2224,31 +2257,34 @@
         <v>37</v>
       </c>
       <c r="G44" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="H44">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I44" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="J44" t="s">
-        <v>113</v>
+        <v>115</v>
+      </c>
+      <c r="K44" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45">
-        <f>A44+1</f>
-        <v>14</v>
+        <f>A41+1</f>
+        <v>19</v>
       </c>
       <c r="B45" t="s">
         <v>33</v>
       </c>
       <c r="C45" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D45" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E45" t="s">
         <v>44</v>
@@ -2257,22 +2293,25 @@
         <v>37</v>
       </c>
       <c r="G45" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I45" t="s">
-        <v>54</v>
+        <v>122</v>
       </c>
       <c r="J45" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+      <c r="K45" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46">
-        <f>A45+1</f>
-        <v>15</v>
+        <f>A42+1</f>
+        <v>20</v>
       </c>
       <c r="B46" t="s">
         <v>33</v>
@@ -2281,7 +2320,7 @@
         <v>33</v>
       </c>
       <c r="D46" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E46" t="s">
         <v>44</v>
@@ -2290,22 +2329,19 @@
         <v>37</v>
       </c>
       <c r="G46" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I46" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="J46" t="s">
-        <v>104</v>
-      </c>
-      <c r="K46" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>33</v>
       </c>
@@ -2328,13 +2364,10 @@
         <v>5</v>
       </c>
       <c r="I47" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="J47" t="s">
-        <v>107</v>
-      </c>
-      <c r="K47" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -2345,7 +2378,7 @@
         <v>33</v>
       </c>
       <c r="D48" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E48" t="s">
         <v>44</v>
@@ -2360,24 +2393,163 @@
         <v>6</v>
       </c>
       <c r="I48" t="s">
+        <v>106</v>
+      </c>
+      <c r="J48" t="s">
+        <v>113</v>
+      </c>
+      <c r="K48" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <f>A48+1</f>
+        <v>1</v>
+      </c>
+      <c r="B49" t="s">
+        <v>33</v>
+      </c>
+      <c r="C49" t="s">
+        <v>33</v>
+      </c>
+      <c r="D49" t="s">
+        <v>33</v>
+      </c>
+      <c r="E49" t="s">
+        <v>43</v>
+      </c>
+      <c r="F49" t="s">
+        <v>36</v>
+      </c>
+      <c r="G49" t="s">
+        <v>49</v>
+      </c>
+      <c r="H49">
+        <v>3</v>
+      </c>
+      <c r="I49" t="s">
+        <v>7</v>
+      </c>
+      <c r="J49" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>1</v>
+      </c>
+      <c r="B50" t="s">
+        <v>33</v>
+      </c>
+      <c r="C50" t="s">
+        <v>33</v>
+      </c>
+      <c r="D50" t="s">
+        <v>33</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>36</v>
+      </c>
+      <c r="G50" t="s">
+        <v>49</v>
+      </c>
+      <c r="H50">
+        <v>2</v>
+      </c>
+      <c r="I50" t="s">
+        <v>39</v>
+      </c>
+      <c r="J50" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <f>A47+1</f>
+        <v>1</v>
+      </c>
+      <c r="B51" t="s">
+        <v>33</v>
+      </c>
+      <c r="C51" t="s">
+        <v>34</v>
+      </c>
+      <c r="D51" t="s">
+        <v>34</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>37</v>
+      </c>
+      <c r="G51" t="s">
+        <v>57</v>
+      </c>
+      <c r="H51">
+        <v>3</v>
+      </c>
+      <c r="I51" t="s">
         <v>114</v>
       </c>
-      <c r="J48" t="s">
-        <v>115</v>
+      <c r="J51" t="s">
+        <v>139</v>
+      </c>
+      <c r="K51" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <f>A48+1</f>
+        <v>1</v>
+      </c>
+      <c r="B52" t="s">
+        <v>33</v>
+      </c>
+      <c r="C52" t="s">
+        <v>33</v>
+      </c>
+      <c r="D52" t="s">
+        <v>34</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>37</v>
+      </c>
+      <c r="G52" t="s">
+        <v>57</v>
+      </c>
+      <c r="H52">
+        <v>4</v>
+      </c>
+      <c r="I52" t="s">
+        <v>116</v>
+      </c>
+      <c r="J52" t="s">
+        <v>117</v>
+      </c>
+      <c r="K52" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K48">
-    <filterColumn colId="3">
+  <autoFilter ref="A1:K52">
+    <filterColumn colId="4">
       <filters>
-        <filter val="yes"/>
+        <filter val="Derived"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState ref="A2:K48">
-    <sortCondition ref="B2:B48"/>
-    <sortCondition ref="F2:F48"/>
-    <sortCondition ref="I2:I48"/>
+  <sortState ref="A2:K52">
+    <sortCondition ref="B2:B52"/>
+    <sortCondition ref="I2:I52"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/data/features.xlsx
+++ b/data/features.xlsx
@@ -332,9 +332,6 @@
     <t>director_experience_log</t>
   </si>
   <si>
-    <t xml:space="preserve"> Log total number of films in sample for a director</t>
-  </si>
-  <si>
     <t>cast_experience_log</t>
   </si>
   <si>
@@ -437,16 +434,19 @@
     <t>Log of cast_votes</t>
   </si>
   <si>
-    <t>The product of the number of IMDB votes per day and scores</t>
-  </si>
-  <si>
-    <t>Log of votes_per_day_scores</t>
-  </si>
-  <si>
     <t>Number of days from theatre release date to January 1, 2016</t>
   </si>
   <si>
     <t>The number of IMDB Votes / thtr_days</t>
+  </si>
+  <si>
+    <t>Log number of IMDB votes per day * the average of  10 x audience rating plus the IMDB rating</t>
+  </si>
+  <si>
+    <t>Number of IMDB votes per day * the average of  10 x audience rating plus the IMDB rating</t>
+  </si>
+  <si>
+    <t>Log of the total number of films directed by the film's director</t>
   </si>
 </sst>
 </file>
@@ -780,7 +780,7 @@
   <dimension ref="A1:K52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J52" sqref="J52"/>
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -824,7 +824,7 @@
         <v>32</v>
       </c>
       <c r="K1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -856,7 +856,7 @@
         <v>67</v>
       </c>
       <c r="K2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -888,7 +888,7 @@
         <v>68</v>
       </c>
       <c r="K3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -920,7 +920,7 @@
         <v>69</v>
       </c>
       <c r="K4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -952,7 +952,7 @@
         <v>70</v>
       </c>
       <c r="K5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -984,7 +984,7 @@
         <v>71</v>
       </c>
       <c r="K6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -1016,7 +1016,7 @@
         <v>82</v>
       </c>
       <c r="K7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -1048,7 +1048,7 @@
         <v>80</v>
       </c>
       <c r="K8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -1084,7 +1084,7 @@
         <v>66</v>
       </c>
       <c r="K9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -1116,7 +1116,7 @@
         <v>77</v>
       </c>
       <c r="K10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -1148,7 +1148,7 @@
         <v>76</v>
       </c>
       <c r="K11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -1180,7 +1180,7 @@
         <v>75</v>
       </c>
       <c r="K12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -1212,7 +1212,7 @@
         <v>64</v>
       </c>
       <c r="K13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -1244,7 +1244,7 @@
         <v>65</v>
       </c>
       <c r="K14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -1277,10 +1277,10 @@
         <v>5</v>
       </c>
       <c r="J15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -1312,7 +1312,7 @@
         <v>74</v>
       </c>
       <c r="K16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -1344,7 +1344,7 @@
         <v>72</v>
       </c>
       <c r="K17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -1376,7 +1376,7 @@
         <v>59</v>
       </c>
       <c r="K18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -1411,7 +1411,7 @@
         <v>60</v>
       </c>
       <c r="K19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -1447,7 +1447,7 @@
         <v>89</v>
       </c>
       <c r="K20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -1483,10 +1483,10 @@
         <v>83</v>
       </c>
       <c r="K21" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1519,7 +1519,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1552,7 +1552,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1585,7 +1585,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1618,7 +1618,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1651,7 +1651,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <f>A24+1</f>
         <v>7</v>
@@ -1684,7 +1684,7 @@
         <v>95</v>
       </c>
       <c r="K27" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -1714,13 +1714,13 @@
         <v>4</v>
       </c>
       <c r="I28" t="s">
+        <v>101</v>
+      </c>
+      <c r="J28" t="s">
         <v>102</v>
       </c>
-      <c r="J28" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <f>A28+1</f>
         <v>10</v>
@@ -1750,10 +1750,10 @@
         <v>53</v>
       </c>
       <c r="J29" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K29" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -1786,10 +1786,10 @@
         <v>96</v>
       </c>
       <c r="J30" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31">
         <f>A30+1</f>
         <v>12</v>
@@ -1822,7 +1822,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <f>A31+1</f>
         <v>13</v>
@@ -1849,16 +1849,16 @@
         <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J32" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K32" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <f>A32+1</f>
         <v>14</v>
@@ -1885,16 +1885,16 @@
         <v>2</v>
       </c>
       <c r="I33" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J33" t="s">
         <v>93</v>
       </c>
       <c r="K33" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <f>A32+1</f>
         <v>14</v>
@@ -1927,7 +1927,7 @@
         <v>91</v>
       </c>
       <c r="K34" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -1960,10 +1960,10 @@
         <v>100</v>
       </c>
       <c r="J35" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36">
         <f>A35+1</f>
         <v>16</v>
@@ -2029,7 +2029,7 @@
         <v>79</v>
       </c>
       <c r="K37" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -2065,7 +2065,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39">
         <f>A38+1</f>
         <v>17</v>
@@ -2098,7 +2098,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40">
         <f>A39+1</f>
         <v>18</v>
@@ -2164,7 +2164,7 @@
         <v>62</v>
       </c>
       <c r="K41" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -2194,13 +2194,13 @@
         <v>5</v>
       </c>
       <c r="I42" t="s">
+        <v>103</v>
+      </c>
+      <c r="J42" t="s">
         <v>104</v>
       </c>
-      <c r="J42" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43">
         <f>A41+1</f>
         <v>19</v>
@@ -2230,13 +2230,13 @@
         <v>54</v>
       </c>
       <c r="J43" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K43" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44">
         <f>A42+1</f>
         <v>20</v>
@@ -2266,13 +2266,13 @@
         <v>97</v>
       </c>
       <c r="J44" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K44" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45">
         <f>A41+1</f>
         <v>19</v>
@@ -2299,13 +2299,13 @@
         <v>5</v>
       </c>
       <c r="I45" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J45" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K45" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -2335,13 +2335,13 @@
         <v>6</v>
       </c>
       <c r="I46" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J46" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>33</v>
       </c>
@@ -2367,10 +2367,10 @@
         <v>99</v>
       </c>
       <c r="J47" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>33</v>
       </c>
@@ -2393,16 +2393,16 @@
         <v>6</v>
       </c>
       <c r="I48" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J48" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K48" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49">
         <f>A48+1</f>
         <v>1</v>
@@ -2446,7 +2446,7 @@
         <v>33</v>
       </c>
       <c r="D50" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E50" t="s">
         <v>44</v>
@@ -2467,7 +2467,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51">
         <f>A47+1</f>
         <v>1</v>
@@ -2494,16 +2494,16 @@
         <v>3</v>
       </c>
       <c r="I51" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J51" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="K51" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52">
         <f>A48+1</f>
         <v>1</v>
@@ -2530,20 +2530,20 @@
         <v>4</v>
       </c>
       <c r="I52" t="s">
+        <v>115</v>
+      </c>
+      <c r="J52" t="s">
         <v>116</v>
       </c>
-      <c r="J52" t="s">
-        <v>117</v>
-      </c>
       <c r="K52" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:K52">
-    <filterColumn colId="4">
+    <filterColumn colId="3">
       <filters>
-        <filter val="Derived"/>
+        <filter val="yes"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/data/features.xlsx
+++ b/data/features.xlsx
@@ -15,7 +15,7 @@
     <sheet name="features" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">features!$A$1:$L$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">features!$A$1:$M$48</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="136">
   <si>
     <t>title</t>
   </si>
@@ -146,12 +146,6 @@
     <t>Source</t>
   </si>
   <si>
-    <t>thtr_rel_season</t>
-  </si>
-  <si>
-    <t>Season the movie was released in theaters</t>
-  </si>
-  <si>
     <t>uni</t>
   </si>
   <si>
@@ -432,6 +426,15 @@
   </si>
   <si>
     <t>Too few levels per studio</t>
+  </si>
+  <si>
+    <t>Context</t>
+  </si>
+  <si>
+    <t>Explanatory</t>
+  </si>
+  <si>
+    <t>Response</t>
   </si>
 </sst>
 </file>
@@ -758,36 +761,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L49"/>
+  <dimension ref="A1:M48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K36" sqref="K36"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="6" max="6" width="9.140625" customWidth="1"/>
-    <col min="7" max="8" width="10.85546875" customWidth="1"/>
-    <col min="10" max="10" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="69.140625" customWidth="1"/>
-    <col min="12" max="12" width="45.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="10.85546875" customWidth="1"/>
+    <col min="11" max="11" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="69.140625" customWidth="1"/>
+    <col min="13" max="13" width="45.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E1" t="s">
         <v>129</v>
-      </c>
-      <c r="D1" t="s">
-        <v>130</v>
-      </c>
-      <c r="E1" t="s">
-        <v>131</v>
       </c>
       <c r="F1" t="s">
         <v>38</v>
@@ -796,22 +799,25 @@
         <v>35</v>
       </c>
       <c r="H1" t="s">
-        <v>44</v>
+        <v>133</v>
       </c>
       <c r="I1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K1" t="s">
         <v>31</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>32</v>
       </c>
-      <c r="L1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>34</v>
       </c>
@@ -825,28 +831,31 @@
         <v>34</v>
       </c>
       <c r="F2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G2" t="s">
         <v>36</v>
       </c>
       <c r="H2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I2">
+        <v>134</v>
+      </c>
+      <c r="I2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2">
         <v>1</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>0</v>
       </c>
-      <c r="K2" t="s">
-        <v>55</v>
-      </c>
       <c r="L2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="M2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -863,28 +872,31 @@
         <v>34</v>
       </c>
       <c r="F3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G3" t="s">
         <v>36</v>
       </c>
       <c r="H3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I3">
+        <v>134</v>
+      </c>
+      <c r="I3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3">
         <v>2</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>1</v>
       </c>
-      <c r="K3" t="s">
-        <v>56</v>
-      </c>
       <c r="L3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="M3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <f>A3+1</f>
         <v>2</v>
@@ -902,25 +914,28 @@
         <v>33</v>
       </c>
       <c r="F4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G4" t="s">
         <v>36</v>
       </c>
       <c r="H4" t="s">
-        <v>45</v>
-      </c>
-      <c r="I4">
+        <v>134</v>
+      </c>
+      <c r="I4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4">
         <v>3</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>2</v>
       </c>
-      <c r="K4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <f>A3+1</f>
         <v>2</v>
@@ -938,28 +953,31 @@
         <v>34</v>
       </c>
       <c r="F5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G5" t="s">
         <v>37</v>
       </c>
       <c r="H5" t="s">
-        <v>45</v>
-      </c>
-      <c r="I5">
+        <v>134</v>
+      </c>
+      <c r="I5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5">
         <v>4</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>3</v>
       </c>
-      <c r="K5" t="s">
-        <v>58</v>
-      </c>
       <c r="L5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="M5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <f>A4+1</f>
         <v>3</v>
@@ -977,25 +995,28 @@
         <v>33</v>
       </c>
       <c r="F6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G6" t="s">
         <v>37</v>
       </c>
       <c r="H6" t="s">
-        <v>45</v>
-      </c>
-      <c r="I6">
+        <v>134</v>
+      </c>
+      <c r="I6" t="s">
+        <v>43</v>
+      </c>
+      <c r="J6">
         <v>5</v>
       </c>
-      <c r="J6" t="s">
-        <v>98</v>
-      </c>
       <c r="K6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+      <c r="L6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <f>A6+1</f>
         <v>4</v>
@@ -1013,95 +1034,104 @@
         <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G7" t="s">
         <v>36</v>
       </c>
       <c r="H7" t="s">
-        <v>45</v>
-      </c>
-      <c r="I7">
+        <v>134</v>
+      </c>
+      <c r="I7" t="s">
+        <v>43</v>
+      </c>
+      <c r="J7">
         <v>6</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>4</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" t="s">
+        <v>134</v>
+      </c>
+      <c r="I8" t="s">
+        <v>43</v>
+      </c>
+      <c r="J8">
+        <v>7</v>
+      </c>
+      <c r="K8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" t="s">
+        <v>134</v>
+      </c>
+      <c r="I9" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9">
+        <v>8</v>
+      </c>
+      <c r="K9" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" t="s">
-        <v>36</v>
-      </c>
-      <c r="H8" t="s">
-        <v>45</v>
-      </c>
-      <c r="I8">
-        <v>7</v>
-      </c>
-      <c r="J8" t="s">
-        <v>29</v>
-      </c>
-      <c r="K8" t="s">
-        <v>60</v>
-      </c>
-      <c r="L8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" t="s">
-        <v>42</v>
-      </c>
-      <c r="G9" t="s">
-        <v>36</v>
-      </c>
-      <c r="H9" t="s">
-        <v>45</v>
-      </c>
-      <c r="I9">
-        <v>8</v>
-      </c>
-      <c r="J9" t="s">
-        <v>30</v>
-      </c>
-      <c r="K9" t="s">
-        <v>61</v>
-      </c>
-      <c r="L9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <f>A9+1</f>
         <v>1</v>
@@ -1119,28 +1149,31 @@
         <v>34</v>
       </c>
       <c r="F10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G10" t="s">
         <v>36</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
-      </c>
-      <c r="I10">
+        <v>134</v>
+      </c>
+      <c r="I10" t="s">
+        <v>44</v>
+      </c>
+      <c r="J10">
         <v>1</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>5</v>
       </c>
-      <c r="K10" t="s">
-        <v>104</v>
-      </c>
       <c r="L10" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+      <c r="M10" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <f>A10+1</f>
         <v>2</v>
@@ -1158,551 +1191,603 @@
         <v>34</v>
       </c>
       <c r="F11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G11" t="s">
         <v>36</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
-      </c>
-      <c r="I11">
+        <v>134</v>
+      </c>
+      <c r="I11" t="s">
+        <v>44</v>
+      </c>
+      <c r="J11">
         <v>2</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>23</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
+        <v>60</v>
+      </c>
+      <c r="M11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" t="s">
+        <v>134</v>
+      </c>
+      <c r="I12" t="s">
+        <v>44</v>
+      </c>
+      <c r="J12">
+        <v>3</v>
+      </c>
+      <c r="K12" t="s">
+        <v>24</v>
+      </c>
+      <c r="L12" t="s">
+        <v>61</v>
+      </c>
+      <c r="M12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" t="s">
+        <v>134</v>
+      </c>
+      <c r="I13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J13">
+        <v>4</v>
+      </c>
+      <c r="K13" t="s">
+        <v>25</v>
+      </c>
+      <c r="L13" t="s">
         <v>62</v>
       </c>
-      <c r="L11" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" t="s">
-        <v>42</v>
-      </c>
-      <c r="G12" t="s">
-        <v>36</v>
-      </c>
-      <c r="H12" t="s">
-        <v>46</v>
-      </c>
-      <c r="I12">
+      <c r="M13" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" t="s">
+        <v>36</v>
+      </c>
+      <c r="H14" t="s">
+        <v>134</v>
+      </c>
+      <c r="I14" t="s">
+        <v>44</v>
+      </c>
+      <c r="J14">
+        <v>5</v>
+      </c>
+      <c r="K14" t="s">
+        <v>26</v>
+      </c>
+      <c r="L14" t="s">
+        <v>63</v>
+      </c>
+      <c r="M14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" t="s">
+        <v>134</v>
+      </c>
+      <c r="I15" t="s">
+        <v>44</v>
+      </c>
+      <c r="J15">
+        <v>6</v>
+      </c>
+      <c r="K15" t="s">
+        <v>27</v>
+      </c>
+      <c r="L15" t="s">
+        <v>64</v>
+      </c>
+      <c r="M15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" t="s">
+        <v>36</v>
+      </c>
+      <c r="H16" t="s">
+        <v>134</v>
+      </c>
+      <c r="I16" t="s">
+        <v>44</v>
+      </c>
+      <c r="J16">
+        <v>7</v>
+      </c>
+      <c r="K16" t="s">
+        <v>28</v>
+      </c>
+      <c r="L16" t="s">
+        <v>65</v>
+      </c>
+      <c r="M16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" t="s">
+        <v>40</v>
+      </c>
+      <c r="G17" t="s">
+        <v>36</v>
+      </c>
+      <c r="H17" t="s">
+        <v>134</v>
+      </c>
+      <c r="I17" t="s">
+        <v>45</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17" t="s">
+        <v>130</v>
+      </c>
+      <c r="L17" t="s">
+        <v>131</v>
+      </c>
+      <c r="M17" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
+        <v>40</v>
+      </c>
+      <c r="G18" t="s">
+        <v>36</v>
+      </c>
+      <c r="H18" t="s">
+        <v>134</v>
+      </c>
+      <c r="I18" t="s">
+        <v>45</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18" t="s">
+        <v>6</v>
+      </c>
+      <c r="L18" t="s">
+        <v>66</v>
+      </c>
+      <c r="M18" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" t="e">
+        <f>#REF!+1</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" t="s">
+        <v>36</v>
+      </c>
+      <c r="H19" t="s">
+        <v>134</v>
+      </c>
+      <c r="I19" t="s">
+        <v>45</v>
+      </c>
+      <c r="J19">
         <v>3</v>
       </c>
-      <c r="J12" t="s">
-        <v>24</v>
-      </c>
-      <c r="K12" t="s">
-        <v>63</v>
-      </c>
-      <c r="L12" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F13" t="s">
-        <v>42</v>
-      </c>
-      <c r="G13" t="s">
-        <v>36</v>
-      </c>
-      <c r="H13" t="s">
-        <v>46</v>
-      </c>
-      <c r="I13">
+      <c r="K19" t="s">
+        <v>7</v>
+      </c>
+      <c r="L19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" t="s">
+        <v>40</v>
+      </c>
+      <c r="G20" t="s">
+        <v>36</v>
+      </c>
+      <c r="H20" t="s">
+        <v>134</v>
+      </c>
+      <c r="I20" t="s">
+        <v>45</v>
+      </c>
+      <c r="J20">
         <v>4</v>
       </c>
-      <c r="J13" t="s">
-        <v>25</v>
-      </c>
-      <c r="K13" t="s">
-        <v>64</v>
-      </c>
-      <c r="L13" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" t="s">
-        <v>34</v>
-      </c>
-      <c r="F14" t="s">
-        <v>42</v>
-      </c>
-      <c r="G14" t="s">
-        <v>36</v>
-      </c>
-      <c r="H14" t="s">
-        <v>46</v>
-      </c>
-      <c r="I14">
+      <c r="K20" t="s">
+        <v>8</v>
+      </c>
+      <c r="L20" t="s">
+        <v>68</v>
+      </c>
+      <c r="M20" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" t="s">
+        <v>34</v>
+      </c>
+      <c r="F21" t="s">
+        <v>41</v>
+      </c>
+      <c r="G21" t="s">
+        <v>37</v>
+      </c>
+      <c r="H21" t="s">
+        <v>134</v>
+      </c>
+      <c r="I21" t="s">
+        <v>45</v>
+      </c>
+      <c r="J21">
         <v>5</v>
       </c>
-      <c r="J14" t="s">
-        <v>26</v>
-      </c>
-      <c r="K14" t="s">
-        <v>65</v>
-      </c>
-      <c r="L14" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F15" t="s">
-        <v>42</v>
-      </c>
-      <c r="G15" t="s">
-        <v>36</v>
-      </c>
-      <c r="H15" t="s">
-        <v>46</v>
-      </c>
-      <c r="I15">
-        <v>6</v>
-      </c>
-      <c r="J15" t="s">
-        <v>27</v>
-      </c>
-      <c r="K15" t="s">
-        <v>66</v>
-      </c>
-      <c r="L15" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" t="s">
-        <v>34</v>
-      </c>
-      <c r="F16" t="s">
-        <v>42</v>
-      </c>
-      <c r="G16" t="s">
-        <v>36</v>
-      </c>
-      <c r="H16" t="s">
-        <v>46</v>
-      </c>
-      <c r="I16">
-        <v>7</v>
-      </c>
-      <c r="J16" t="s">
-        <v>28</v>
-      </c>
-      <c r="K16" t="s">
-        <v>67</v>
-      </c>
-      <c r="L16" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" t="s">
-        <v>34</v>
-      </c>
-      <c r="F17" t="s">
-        <v>42</v>
-      </c>
-      <c r="G17" t="s">
-        <v>36</v>
-      </c>
-      <c r="H17" t="s">
-        <v>47</v>
-      </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
-      <c r="J17" t="s">
-        <v>132</v>
-      </c>
-      <c r="K17" t="s">
-        <v>133</v>
-      </c>
-      <c r="L17" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" t="s">
-        <v>34</v>
-      </c>
-      <c r="F18" t="s">
-        <v>42</v>
-      </c>
-      <c r="G18" t="s">
-        <v>36</v>
-      </c>
-      <c r="H18" t="s">
-        <v>47</v>
-      </c>
-      <c r="I18">
-        <v>1</v>
-      </c>
-      <c r="J18" t="s">
-        <v>6</v>
-      </c>
-      <c r="K18" t="s">
-        <v>68</v>
-      </c>
-      <c r="L18" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>1</v>
-      </c>
-      <c r="B19" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" t="s">
-        <v>33</v>
-      </c>
-      <c r="E19" t="s">
-        <v>33</v>
-      </c>
-      <c r="F19" t="s">
-        <v>43</v>
-      </c>
-      <c r="G19" t="s">
-        <v>36</v>
-      </c>
-      <c r="H19" t="s">
-        <v>47</v>
-      </c>
-      <c r="I19">
-        <v>2</v>
-      </c>
-      <c r="J19" t="s">
-        <v>39</v>
-      </c>
-      <c r="K19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <f>A19+1</f>
-        <v>2</v>
-      </c>
-      <c r="B20" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20" t="s">
-        <v>33</v>
-      </c>
-      <c r="F20" t="s">
-        <v>42</v>
-      </c>
-      <c r="G20" t="s">
-        <v>36</v>
-      </c>
-      <c r="H20" t="s">
-        <v>47</v>
-      </c>
-      <c r="I20">
-        <v>3</v>
-      </c>
-      <c r="J20" t="s">
-        <v>7</v>
-      </c>
-      <c r="K20" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21" t="s">
-        <v>34</v>
-      </c>
-      <c r="E21" t="s">
-        <v>34</v>
-      </c>
-      <c r="F21" t="s">
-        <v>42</v>
-      </c>
-      <c r="G21" t="s">
-        <v>36</v>
-      </c>
-      <c r="H21" t="s">
-        <v>47</v>
-      </c>
-      <c r="I21">
-        <v>4</v>
-      </c>
-      <c r="J21" t="s">
-        <v>8</v>
-      </c>
       <c r="K21" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="L21" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>33</v>
       </c>
       <c r="C22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F22" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G22" t="s">
         <v>37</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
-      </c>
-      <c r="I22">
-        <v>5</v>
-      </c>
-      <c r="J22" t="s">
-        <v>94</v>
+        <v>134</v>
+      </c>
+      <c r="I22" t="s">
+        <v>45</v>
+      </c>
+      <c r="J22">
+        <v>6</v>
       </c>
       <c r="K22" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+      <c r="L22" t="s">
+        <v>104</v>
+      </c>
+      <c r="M22" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E23" t="s">
         <v>34</v>
       </c>
       <c r="F23" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G23" t="s">
+        <v>36</v>
+      </c>
+      <c r="H23" t="s">
+        <v>134</v>
+      </c>
+      <c r="I23" t="s">
+        <v>45</v>
+      </c>
+      <c r="J23">
+        <v>7</v>
+      </c>
+      <c r="K23" t="s">
+        <v>9</v>
+      </c>
+      <c r="L23" t="s">
+        <v>69</v>
+      </c>
+      <c r="M23" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" t="s">
+        <v>34</v>
+      </c>
+      <c r="F24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G24" t="s">
+        <v>36</v>
+      </c>
+      <c r="H24" t="s">
+        <v>134</v>
+      </c>
+      <c r="I24" t="s">
+        <v>45</v>
+      </c>
+      <c r="J24">
+        <v>8</v>
+      </c>
+      <c r="K24" t="s">
+        <v>10</v>
+      </c>
+      <c r="L24" t="s">
+        <v>70</v>
+      </c>
+      <c r="M24" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" t="s">
+        <v>34</v>
+      </c>
+      <c r="F25" t="s">
+        <v>40</v>
+      </c>
+      <c r="G25" t="s">
+        <v>36</v>
+      </c>
+      <c r="H25" t="s">
+        <v>134</v>
+      </c>
+      <c r="I25" t="s">
+        <v>45</v>
+      </c>
+      <c r="J25">
+        <v>9</v>
+      </c>
+      <c r="K25" t="s">
+        <v>11</v>
+      </c>
+      <c r="L25" t="s">
+        <v>71</v>
+      </c>
+      <c r="M25" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f>A24+1</f>
+        <v>1</v>
+      </c>
+      <c r="B26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26" t="s">
+        <v>34</v>
+      </c>
+      <c r="F26" t="s">
+        <v>41</v>
+      </c>
+      <c r="G26" t="s">
         <v>37</v>
       </c>
-      <c r="H23" t="s">
-        <v>47</v>
-      </c>
-      <c r="I23">
-        <v>6</v>
-      </c>
-      <c r="J23" t="s">
-        <v>100</v>
-      </c>
-      <c r="K23" t="s">
-        <v>106</v>
-      </c>
-      <c r="L23" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>34</v>
-      </c>
-      <c r="C24" t="s">
-        <v>34</v>
-      </c>
-      <c r="D24" t="s">
-        <v>34</v>
-      </c>
-      <c r="E24" t="s">
-        <v>34</v>
-      </c>
-      <c r="F24" t="s">
-        <v>42</v>
-      </c>
-      <c r="G24" t="s">
-        <v>36</v>
-      </c>
-      <c r="H24" t="s">
-        <v>47</v>
-      </c>
-      <c r="I24">
-        <v>7</v>
-      </c>
-      <c r="J24" t="s">
-        <v>9</v>
-      </c>
-      <c r="K24" t="s">
-        <v>71</v>
-      </c>
-      <c r="L24" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" t="s">
-        <v>34</v>
-      </c>
-      <c r="D25" t="s">
-        <v>34</v>
-      </c>
-      <c r="E25" t="s">
-        <v>34</v>
-      </c>
-      <c r="F25" t="s">
-        <v>42</v>
-      </c>
-      <c r="G25" t="s">
-        <v>36</v>
-      </c>
-      <c r="H25" t="s">
-        <v>47</v>
-      </c>
-      <c r="I25">
-        <v>8</v>
-      </c>
-      <c r="J25" t="s">
-        <v>10</v>
-      </c>
-      <c r="K25" t="s">
-        <v>72</v>
-      </c>
-      <c r="L25" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D26" t="s">
-        <v>34</v>
-      </c>
-      <c r="E26" t="s">
-        <v>34</v>
-      </c>
-      <c r="F26" t="s">
-        <v>42</v>
-      </c>
-      <c r="G26" t="s">
-        <v>36</v>
-      </c>
       <c r="H26" t="s">
-        <v>47</v>
-      </c>
-      <c r="I26">
-        <v>9</v>
-      </c>
-      <c r="J26" t="s">
-        <v>11</v>
+        <v>134</v>
+      </c>
+      <c r="I26" t="s">
+        <v>51</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
       </c>
       <c r="K26" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="L26" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="M26" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27">
         <f>A25+1</f>
         <v>1</v>
@@ -1717,35 +1802,35 @@
         <v>33</v>
       </c>
       <c r="E27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F27" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G27" t="s">
         <v>37</v>
       </c>
       <c r="H27" t="s">
-        <v>53</v>
-      </c>
-      <c r="I27">
+        <v>134</v>
+      </c>
+      <c r="I27" t="s">
+        <v>51</v>
+      </c>
+      <c r="J27">
+        <v>2</v>
+      </c>
+      <c r="K27" t="s">
+        <v>93</v>
+      </c>
+      <c r="L27" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f>A25+1</f>
         <v>1</v>
       </c>
-      <c r="J27" t="s">
-        <v>50</v>
-      </c>
-      <c r="K27" t="s">
-        <v>87</v>
-      </c>
-      <c r="L27" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <f>A26+1</f>
-        <v>1</v>
-      </c>
       <c r="B28" t="s">
         <v>33</v>
       </c>
@@ -1756,32 +1841,38 @@
         <v>33</v>
       </c>
       <c r="E28" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F28" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G28" t="s">
         <v>37</v>
       </c>
       <c r="H28" t="s">
-        <v>53</v>
-      </c>
-      <c r="I28">
+        <v>134</v>
+      </c>
+      <c r="I28" t="s">
+        <v>51</v>
+      </c>
+      <c r="J28">
+        <v>3</v>
+      </c>
+      <c r="K28" t="s">
+        <v>47</v>
+      </c>
+      <c r="L28" t="s">
+        <v>89</v>
+      </c>
+      <c r="M28" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f>A27+1</f>
         <v>2</v>
       </c>
-      <c r="J28" t="s">
-        <v>95</v>
-      </c>
-      <c r="K28" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <f>A26+1</f>
-        <v>1</v>
-      </c>
       <c r="B29" t="s">
         <v>33</v>
       </c>
@@ -1792,33 +1883,33 @@
         <v>33</v>
       </c>
       <c r="E29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F29" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G29" t="s">
         <v>37</v>
       </c>
       <c r="H29" t="s">
-        <v>53</v>
-      </c>
-      <c r="I29">
-        <v>3</v>
-      </c>
-      <c r="J29" t="s">
-        <v>49</v>
+        <v>134</v>
+      </c>
+      <c r="I29" t="s">
+        <v>51</v>
+      </c>
+      <c r="J29">
+        <v>4</v>
       </c>
       <c r="K29" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="L29" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30">
-        <f>A28+1</f>
+        <f>A27+1</f>
         <v>2</v>
       </c>
       <c r="B30" t="s">
@@ -1828,34 +1919,40 @@
         <v>33</v>
       </c>
       <c r="D30" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E30" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F30" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G30" t="s">
         <v>37</v>
       </c>
       <c r="H30" t="s">
-        <v>53</v>
-      </c>
-      <c r="I30">
-        <v>4</v>
-      </c>
-      <c r="J30" t="s">
-        <v>96</v>
+        <v>134</v>
+      </c>
+      <c r="I30" t="s">
+        <v>50</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
       </c>
       <c r="K30" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="L30" t="s">
+        <v>73</v>
+      </c>
+      <c r="M30" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31">
-        <f>A28+1</f>
-        <v>2</v>
+        <f>A30+1</f>
+        <v>3</v>
       </c>
       <c r="B31" t="s">
         <v>33</v>
@@ -1864,37 +1961,37 @@
         <v>33</v>
       </c>
       <c r="D31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G31" t="s">
         <v>37</v>
       </c>
       <c r="H31" t="s">
-        <v>52</v>
-      </c>
-      <c r="I31">
-        <v>1</v>
-      </c>
-      <c r="J31" t="s">
-        <v>13</v>
+        <v>135</v>
+      </c>
+      <c r="I31" t="s">
+        <v>50</v>
+      </c>
+      <c r="J31">
+        <v>2</v>
       </c>
       <c r="K31" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="L31" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32">
         <f>A31+1</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B32" t="s">
         <v>33</v>
@@ -1906,138 +2003,150 @@
         <v>33</v>
       </c>
       <c r="E32" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F32" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G32" t="s">
         <v>37</v>
       </c>
       <c r="H32" t="s">
-        <v>52</v>
-      </c>
-      <c r="I32">
+        <v>134</v>
+      </c>
+      <c r="I32" t="s">
+        <v>50</v>
+      </c>
+      <c r="J32">
+        <v>3</v>
+      </c>
+      <c r="K32" t="s">
+        <v>12</v>
+      </c>
+      <c r="L32" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33" t="s">
+        <v>33</v>
+      </c>
+      <c r="E33" t="s">
+        <v>34</v>
+      </c>
+      <c r="F33" t="s">
+        <v>40</v>
+      </c>
+      <c r="G33" t="s">
+        <v>36</v>
+      </c>
+      <c r="H33" t="s">
+        <v>134</v>
+      </c>
+      <c r="I33" t="s">
+        <v>50</v>
+      </c>
+      <c r="J33">
+        <v>4</v>
+      </c>
+      <c r="K33" t="s">
+        <v>14</v>
+      </c>
+      <c r="L33" t="s">
+        <v>74</v>
+      </c>
+      <c r="M33" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34" t="s">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>34</v>
+      </c>
+      <c r="F34" t="s">
+        <v>40</v>
+      </c>
+      <c r="G34" t="s">
+        <v>36</v>
+      </c>
+      <c r="H34" t="s">
+        <v>134</v>
+      </c>
+      <c r="I34" t="s">
+        <v>50</v>
+      </c>
+      <c r="J34">
+        <v>5</v>
+      </c>
+      <c r="K34" t="s">
+        <v>16</v>
+      </c>
+      <c r="L34" t="s">
+        <v>76</v>
+      </c>
+      <c r="M34" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <f t="shared" ref="A35:A44" si="0">A34+1</f>
+        <v>1</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" t="s">
+        <v>33</v>
+      </c>
+      <c r="D35" t="s">
+        <v>33</v>
+      </c>
+      <c r="E35" t="s">
+        <v>33</v>
+      </c>
+      <c r="F35" t="s">
+        <v>40</v>
+      </c>
+      <c r="G35" t="s">
+        <v>37</v>
+      </c>
+      <c r="H35" t="s">
+        <v>134</v>
+      </c>
+      <c r="I35" t="s">
+        <v>50</v>
+      </c>
+      <c r="J35">
+        <v>6</v>
+      </c>
+      <c r="K35" t="s">
+        <v>15</v>
+      </c>
+      <c r="L35" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J32" t="s">
-        <v>88</v>
-      </c>
-      <c r="K32" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <f>A32+1</f>
-        <v>4</v>
-      </c>
-      <c r="B33" t="s">
-        <v>33</v>
-      </c>
-      <c r="C33" t="s">
-        <v>33</v>
-      </c>
-      <c r="D33" t="s">
-        <v>33</v>
-      </c>
-      <c r="E33" t="s">
-        <v>34</v>
-      </c>
-      <c r="F33" t="s">
-        <v>42</v>
-      </c>
-      <c r="G33" t="s">
-        <v>37</v>
-      </c>
-      <c r="H33" t="s">
-        <v>52</v>
-      </c>
-      <c r="I33">
-        <v>3</v>
-      </c>
-      <c r="J33" t="s">
-        <v>12</v>
-      </c>
-      <c r="K33" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>34</v>
-      </c>
-      <c r="C34" t="s">
-        <v>33</v>
-      </c>
-      <c r="D34" t="s">
-        <v>33</v>
-      </c>
-      <c r="E34" t="s">
-        <v>34</v>
-      </c>
-      <c r="F34" t="s">
-        <v>42</v>
-      </c>
-      <c r="G34" t="s">
-        <v>36</v>
-      </c>
-      <c r="H34" t="s">
-        <v>52</v>
-      </c>
-      <c r="I34">
-        <v>4</v>
-      </c>
-      <c r="J34" t="s">
-        <v>14</v>
-      </c>
-      <c r="K34" t="s">
-        <v>76</v>
-      </c>
-      <c r="L34" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>34</v>
-      </c>
-      <c r="C35" t="s">
-        <v>33</v>
-      </c>
-      <c r="D35" t="s">
-        <v>33</v>
-      </c>
-      <c r="E35" t="s">
-        <v>34</v>
-      </c>
-      <c r="F35" t="s">
-        <v>42</v>
-      </c>
-      <c r="G35" t="s">
-        <v>36</v>
-      </c>
-      <c r="H35" t="s">
-        <v>52</v>
-      </c>
-      <c r="I35">
-        <v>5</v>
-      </c>
-      <c r="J35" t="s">
-        <v>16</v>
-      </c>
-      <c r="K35" t="s">
-        <v>78</v>
-      </c>
-      <c r="L35" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <f t="shared" ref="A36:A45" si="0">A35+1</f>
-        <v>1</v>
-      </c>
       <c r="B36" t="s">
         <v>33</v>
       </c>
@@ -2048,31 +2157,37 @@
         <v>33</v>
       </c>
       <c r="E36" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F36" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G36" t="s">
         <v>37</v>
       </c>
       <c r="H36" t="s">
-        <v>52</v>
-      </c>
-      <c r="I36">
-        <v>6</v>
-      </c>
-      <c r="J36" t="s">
-        <v>15</v>
+        <v>134</v>
+      </c>
+      <c r="I36" t="s">
+        <v>50</v>
+      </c>
+      <c r="J36">
+        <v>7</v>
       </c>
       <c r="K36" t="s">
+        <v>17</v>
+      </c>
+      <c r="L36" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M36" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B37" t="s">
         <v>33</v>
@@ -2084,34 +2199,34 @@
         <v>33</v>
       </c>
       <c r="E37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F37" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H37" t="s">
-        <v>52</v>
-      </c>
-      <c r="I37">
-        <v>7</v>
-      </c>
-      <c r="J37" t="s">
-        <v>17</v>
+        <v>134</v>
+      </c>
+      <c r="I37" t="s">
+        <v>50</v>
+      </c>
+      <c r="J37">
+        <v>8</v>
       </c>
       <c r="K37" t="s">
-        <v>79</v>
+        <v>18</v>
       </c>
       <c r="L37" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B38" t="s">
         <v>33</v>
@@ -2126,28 +2241,31 @@
         <v>33</v>
       </c>
       <c r="F38" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G38" t="s">
         <v>36</v>
       </c>
       <c r="H38" t="s">
-        <v>52</v>
-      </c>
-      <c r="I38">
-        <v>8</v>
-      </c>
-      <c r="J38" t="s">
-        <v>18</v>
+        <v>134</v>
+      </c>
+      <c r="I38" t="s">
+        <v>50</v>
+      </c>
+      <c r="J38">
+        <v>9</v>
       </c>
       <c r="K38" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="L38" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B39" t="s">
         <v>33</v>
@@ -2162,28 +2280,31 @@
         <v>33</v>
       </c>
       <c r="F39" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G39" t="s">
         <v>36</v>
       </c>
       <c r="H39" t="s">
-        <v>52</v>
-      </c>
-      <c r="I39">
-        <v>9</v>
-      </c>
-      <c r="J39" t="s">
-        <v>19</v>
+        <v>134</v>
+      </c>
+      <c r="I39" t="s">
+        <v>50</v>
+      </c>
+      <c r="J39">
+        <v>10</v>
       </c>
       <c r="K39" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="L39" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B40" t="s">
         <v>33</v>
@@ -2198,28 +2319,31 @@
         <v>33</v>
       </c>
       <c r="F40" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G40" t="s">
         <v>36</v>
       </c>
       <c r="H40" t="s">
-        <v>52</v>
-      </c>
-      <c r="I40">
-        <v>10</v>
-      </c>
-      <c r="J40" t="s">
-        <v>20</v>
+        <v>134</v>
+      </c>
+      <c r="I40" t="s">
+        <v>50</v>
+      </c>
+      <c r="J40">
+        <v>11</v>
       </c>
       <c r="K40" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+      <c r="L40" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B41" t="s">
         <v>33</v>
@@ -2234,31 +2358,34 @@
         <v>33</v>
       </c>
       <c r="F41" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G41" t="s">
         <v>36</v>
       </c>
       <c r="H41" t="s">
-        <v>52</v>
-      </c>
-      <c r="I41">
-        <v>11</v>
-      </c>
-      <c r="J41" t="s">
-        <v>93</v>
+        <v>134</v>
+      </c>
+      <c r="I41" t="s">
+        <v>50</v>
+      </c>
+      <c r="J41">
+        <v>12</v>
       </c>
       <c r="K41" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="L41" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B42" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C42" t="s">
         <v>33</v>
@@ -2267,34 +2394,40 @@
         <v>33</v>
       </c>
       <c r="E42" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F42" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G42" t="s">
         <v>36</v>
       </c>
       <c r="H42" t="s">
-        <v>52</v>
-      </c>
-      <c r="I42">
-        <v>12</v>
-      </c>
-      <c r="J42" t="s">
-        <v>21</v>
+        <v>134</v>
+      </c>
+      <c r="I42" t="s">
+        <v>50</v>
+      </c>
+      <c r="J42">
+        <v>13</v>
       </c>
       <c r="K42" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="L42" t="s">
+        <v>83</v>
+      </c>
+      <c r="M42" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B43" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C43" t="s">
         <v>33</v>
@@ -2306,31 +2439,34 @@
         <v>34</v>
       </c>
       <c r="F43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G43" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H43" t="s">
-        <v>52</v>
-      </c>
-      <c r="I43">
-        <v>13</v>
-      </c>
-      <c r="J43" t="s">
-        <v>22</v>
+        <v>134</v>
+      </c>
+      <c r="I43" t="s">
+        <v>50</v>
+      </c>
+      <c r="J43">
+        <v>14</v>
       </c>
       <c r="K43" t="s">
-        <v>85</v>
+        <v>49</v>
       </c>
       <c r="L43" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+      <c r="M43" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B44" t="s">
         <v>33</v>
@@ -2342,33 +2478,33 @@
         <v>33</v>
       </c>
       <c r="E44" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F44" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G44" t="s">
         <v>37</v>
       </c>
       <c r="H44" t="s">
-        <v>52</v>
-      </c>
-      <c r="I44">
-        <v>14</v>
-      </c>
-      <c r="J44" t="s">
-        <v>51</v>
+        <v>134</v>
+      </c>
+      <c r="I44" t="s">
+        <v>50</v>
+      </c>
+      <c r="J44">
+        <v>15</v>
       </c>
       <c r="K44" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="L44" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45">
-        <f t="shared" si="0"/>
+        <f>A43+1</f>
         <v>10</v>
       </c>
       <c r="B45" t="s">
@@ -2378,34 +2514,40 @@
         <v>33</v>
       </c>
       <c r="D45" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E45" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F45" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G45" t="s">
         <v>37</v>
       </c>
       <c r="H45" t="s">
-        <v>52</v>
-      </c>
-      <c r="I45">
-        <v>15</v>
-      </c>
-      <c r="J45" t="s">
-        <v>92</v>
+        <v>134</v>
+      </c>
+      <c r="I45" t="s">
+        <v>50</v>
+      </c>
+      <c r="J45">
+        <v>3</v>
       </c>
       <c r="K45" t="s">
+        <v>105</v>
+      </c>
+      <c r="L45" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M45" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46">
         <f>A44+1</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B46" t="s">
         <v>33</v>
@@ -2420,37 +2562,40 @@
         <v>34</v>
       </c>
       <c r="F46" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G46" t="s">
         <v>37</v>
       </c>
       <c r="H46" t="s">
-        <v>52</v>
-      </c>
-      <c r="I46">
-        <v>3</v>
-      </c>
-      <c r="J46" t="s">
+        <v>134</v>
+      </c>
+      <c r="I46" t="s">
+        <v>50</v>
+      </c>
+      <c r="J46">
+        <v>4</v>
+      </c>
+      <c r="K46" t="s">
+        <v>106</v>
+      </c>
+      <c r="L46" t="s">
         <v>107</v>
       </c>
-      <c r="K46" t="s">
-        <v>127</v>
-      </c>
-      <c r="L46" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <f>A45+1</f>
-        <v>11</v>
+      <c r="M46" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" t="e">
+        <f>#REF!+1</f>
+        <v>#REF!</v>
       </c>
       <c r="B47" t="s">
         <v>33</v>
       </c>
       <c r="C47" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D47" t="s">
         <v>34</v>
@@ -2459,110 +2604,77 @@
         <v>34</v>
       </c>
       <c r="F47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G47" t="s">
         <v>37</v>
       </c>
       <c r="H47" t="s">
+        <v>134</v>
+      </c>
+      <c r="I47" t="s">
         <v>52</v>
       </c>
-      <c r="I47">
-        <v>4</v>
-      </c>
-      <c r="J47" t="s">
+      <c r="J47">
+        <v>1</v>
+      </c>
+      <c r="K47" t="s">
         <v>108</v>
       </c>
-      <c r="K47" t="s">
-        <v>109</v>
-      </c>
       <c r="L47" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+      <c r="M47" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="e">
-        <f>#REF!+1</f>
+        <f>A47+1</f>
         <v>#REF!</v>
       </c>
       <c r="B48" t="s">
         <v>33</v>
       </c>
       <c r="C48" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D48" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E48" t="s">
         <v>34</v>
       </c>
       <c r="F48" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G48" t="s">
         <v>37</v>
       </c>
       <c r="H48" t="s">
-        <v>54</v>
-      </c>
-      <c r="I48">
-        <v>1</v>
-      </c>
-      <c r="J48" t="s">
-        <v>110</v>
+        <v>135</v>
+      </c>
+      <c r="I48" t="s">
+        <v>52</v>
+      </c>
+      <c r="J48">
+        <v>2</v>
       </c>
       <c r="K48" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="L48" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" t="e">
-        <f>A48+1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B49" t="s">
-        <v>33</v>
-      </c>
-      <c r="C49" t="s">
-        <v>33</v>
-      </c>
-      <c r="D49" t="s">
-        <v>33</v>
-      </c>
-      <c r="E49" t="s">
-        <v>34</v>
-      </c>
-      <c r="F49" t="s">
-        <v>43</v>
-      </c>
-      <c r="G49" t="s">
-        <v>37</v>
-      </c>
-      <c r="H49" t="s">
-        <v>54</v>
-      </c>
-      <c r="I49">
-        <v>2</v>
-      </c>
-      <c r="J49" t="s">
-        <v>111</v>
-      </c>
-      <c r="K49" t="s">
-        <v>89</v>
-      </c>
-      <c r="L49" t="s">
-        <v>105</v>
+        <v>87</v>
+      </c>
+      <c r="M48" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L49"/>
-  <sortState ref="A2:L52">
+  <autoFilter ref="A1:M48"/>
+  <sortState ref="A2:M52">
     <sortCondition ref="B2:B52"/>
-    <sortCondition ref="J2:J52"/>
+    <sortCondition ref="K2:K52"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/data/features.xlsx
+++ b/data/features.xlsx
@@ -764,7 +764,7 @@
   <dimension ref="A1:M48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2671,7 +2671,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M48"/>
   <sortState ref="A2:M52">
     <sortCondition ref="B2:B52"/>
     <sortCondition ref="K2:K52"/>

--- a/data/features.xlsx
+++ b/data/features.xlsx
@@ -15,7 +15,7 @@
     <sheet name="features" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">features!$A$1:$M$48</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">features!$A$1:$M$50</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="141">
   <si>
     <t>title</t>
   </si>
@@ -435,6 +435,21 @@
   </si>
   <si>
     <t>Response</t>
+  </si>
+  <si>
+    <t>cast_scores</t>
+  </si>
+  <si>
+    <t>Highly correlated with cast_scores_log</t>
+  </si>
+  <si>
+    <t>cast_scores_log</t>
+  </si>
+  <si>
+    <t>Log of cast_scores</t>
+  </si>
+  <si>
+    <t>Total number of allocated audience and IMDB scores per day for the cast of a film</t>
   </si>
 </sst>
 </file>
@@ -761,10 +776,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M48"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:M50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -817,7 +833,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>34</v>
       </c>
@@ -855,7 +871,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -935,7 +951,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <f>A3+1</f>
         <v>2</v>
@@ -1055,7 +1071,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>34</v>
       </c>
@@ -1093,7 +1109,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>34</v>
       </c>
@@ -1131,7 +1147,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <f>A9+1</f>
         <v>1</v>
@@ -1173,7 +1189,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <f>A10+1</f>
         <v>2</v>
@@ -1215,7 +1231,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>34</v>
       </c>
@@ -1253,7 +1269,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>34</v>
       </c>
@@ -1291,7 +1307,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>34</v>
       </c>
@@ -1329,7 +1345,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>34</v>
       </c>
@@ -1367,7 +1383,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>34</v>
       </c>
@@ -1405,7 +1421,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>34</v>
       </c>
@@ -1443,7 +1459,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>34</v>
       </c>
@@ -1520,7 +1536,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>34</v>
       </c>
@@ -1558,7 +1574,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>33</v>
       </c>
@@ -1593,7 +1609,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>33</v>
       </c>
@@ -1631,7 +1647,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>34</v>
       </c>
@@ -1669,7 +1685,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>34</v>
       </c>
@@ -1707,7 +1723,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>34</v>
       </c>
@@ -1745,7 +1761,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <f>A24+1</f>
         <v>1</v>
@@ -1826,7 +1842,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <f>A25+1</f>
         <v>1</v>
@@ -1883,7 +1899,7 @@
         <v>33</v>
       </c>
       <c r="E29" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F29" t="s">
         <v>41</v>
@@ -1907,7 +1923,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <f>A27+1</f>
         <v>2</v>
@@ -1964,7 +1980,7 @@
         <v>33</v>
       </c>
       <c r="E31" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F31" t="s">
         <v>41</v>
@@ -1973,7 +1989,7 @@
         <v>37</v>
       </c>
       <c r="H31" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I31" t="s">
         <v>50</v>
@@ -1988,7 +2004,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <f>A31+1</f>
         <v>4</v>
@@ -2027,7 +2043,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>34</v>
       </c>
@@ -2065,7 +2081,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>34</v>
       </c>
@@ -2142,7 +2158,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -2379,7 +2395,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2421,7 +2437,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2502,7 +2518,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45">
         <f>A43+1</f>
         <v>10</v>
@@ -2586,7 +2602,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="e">
         <f>#REF!+1</f>
         <v>#REF!</v>
@@ -2628,7 +2644,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="e">
         <f>A47+1</f>
         <v>#REF!</v>
@@ -2670,7 +2686,95 @@
         <v>103</v>
       </c>
     </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" t="e">
+        <f t="shared" ref="A49:A50" si="1">A48+1</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B49" t="s">
+        <v>33</v>
+      </c>
+      <c r="C49" t="s">
+        <v>33</v>
+      </c>
+      <c r="D49" t="s">
+        <v>33</v>
+      </c>
+      <c r="E49" t="s">
+        <v>33</v>
+      </c>
+      <c r="F49" t="s">
+        <v>41</v>
+      </c>
+      <c r="G49" t="s">
+        <v>37</v>
+      </c>
+      <c r="H49" t="s">
+        <v>134</v>
+      </c>
+      <c r="I49" t="s">
+        <v>50</v>
+      </c>
+      <c r="J49">
+        <v>14</v>
+      </c>
+      <c r="K49" t="s">
+        <v>136</v>
+      </c>
+      <c r="L49" t="s">
+        <v>140</v>
+      </c>
+      <c r="M49" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A50" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
+      </c>
+      <c r="B50" t="s">
+        <v>33</v>
+      </c>
+      <c r="C50" t="s">
+        <v>33</v>
+      </c>
+      <c r="D50" t="s">
+        <v>33</v>
+      </c>
+      <c r="E50" t="s">
+        <v>34</v>
+      </c>
+      <c r="F50" t="s">
+        <v>41</v>
+      </c>
+      <c r="G50" t="s">
+        <v>37</v>
+      </c>
+      <c r="H50" t="s">
+        <v>134</v>
+      </c>
+      <c r="I50" t="s">
+        <v>50</v>
+      </c>
+      <c r="J50">
+        <v>15</v>
+      </c>
+      <c r="K50" t="s">
+        <v>138</v>
+      </c>
+      <c r="L50" t="s">
+        <v>139</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:M50">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="yes"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState ref="A2:M52">
     <sortCondition ref="B2:B52"/>
     <sortCondition ref="K2:K52"/>

--- a/data/features.xlsx
+++ b/data/features.xlsx
@@ -320,9 +320,6 @@
     <t>runtime_log</t>
   </si>
   <si>
-    <t>Log runtime of movie (in minutes)</t>
-  </si>
-  <si>
     <t>thtr_days_log</t>
   </si>
   <si>
@@ -362,9 +359,6 @@
     <t>Daily box office revenue from BoxOfficeMojo.com</t>
   </si>
   <si>
-    <t>Total number of allocated IMDB votes per day for the cast of a film</t>
-  </si>
-  <si>
     <t>Highly correlated with cast_esperience_log</t>
   </si>
   <si>
@@ -449,7 +443,13 @@
     <t>Log of cast_scores</t>
   </si>
   <si>
-    <t>Total number of allocated audience and IMDB scores per day for the cast of a film</t>
+    <t>Total number of allocated, previously earned IMDB votes for the cast of a film</t>
+  </si>
+  <si>
+    <t>Total number of allocated, previously earned composite score points for the cast of a film</t>
+  </si>
+  <si>
+    <t>Log runtime of movie (in log minutes)</t>
   </si>
 </sst>
 </file>
@@ -780,7 +780,7 @@
   <dimension ref="A1:M50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -800,13 +800,13 @@
         <v>39</v>
       </c>
       <c r="C1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E1" t="s">
         <v>127</v>
-      </c>
-      <c r="D1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E1" t="s">
-        <v>129</v>
       </c>
       <c r="F1" t="s">
         <v>38</v>
@@ -815,7 +815,7 @@
         <v>35</v>
       </c>
       <c r="H1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I1" t="s">
         <v>42</v>
@@ -830,7 +830,7 @@
         <v>32</v>
       </c>
       <c r="M1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
@@ -853,7 +853,7 @@
         <v>36</v>
       </c>
       <c r="H2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I2" t="s">
         <v>43</v>
@@ -868,7 +868,7 @@
         <v>53</v>
       </c>
       <c r="M2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
@@ -894,7 +894,7 @@
         <v>36</v>
       </c>
       <c r="H3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I3" t="s">
         <v>43</v>
@@ -909,7 +909,7 @@
         <v>54</v>
       </c>
       <c r="M3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -936,7 +936,7 @@
         <v>36</v>
       </c>
       <c r="H4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I4" t="s">
         <v>43</v>
@@ -975,7 +975,7 @@
         <v>37</v>
       </c>
       <c r="H5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I5" t="s">
         <v>43</v>
@@ -990,7 +990,7 @@
         <v>56</v>
       </c>
       <c r="M5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -1017,7 +1017,7 @@
         <v>37</v>
       </c>
       <c r="H6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I6" t="s">
         <v>43</v>
@@ -1029,7 +1029,7 @@
         <v>96</v>
       </c>
       <c r="L6" t="s">
-        <v>97</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -1056,7 +1056,7 @@
         <v>36</v>
       </c>
       <c r="H7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I7" t="s">
         <v>43</v>
@@ -1091,7 +1091,7 @@
         <v>36</v>
       </c>
       <c r="H8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I8" t="s">
         <v>43</v>
@@ -1106,7 +1106,7 @@
         <v>58</v>
       </c>
       <c r="M8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
@@ -1129,7 +1129,7 @@
         <v>36</v>
       </c>
       <c r="H9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I9" t="s">
         <v>43</v>
@@ -1144,7 +1144,7 @@
         <v>59</v>
       </c>
       <c r="M9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
@@ -1171,7 +1171,7 @@
         <v>36</v>
       </c>
       <c r="H10" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I10" t="s">
         <v>44</v>
@@ -1183,10 +1183,10 @@
         <v>5</v>
       </c>
       <c r="L10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
@@ -1213,7 +1213,7 @@
         <v>36</v>
       </c>
       <c r="H11" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I11" t="s">
         <v>44</v>
@@ -1228,7 +1228,7 @@
         <v>60</v>
       </c>
       <c r="M11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
@@ -1251,7 +1251,7 @@
         <v>36</v>
       </c>
       <c r="H12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I12" t="s">
         <v>44</v>
@@ -1266,7 +1266,7 @@
         <v>61</v>
       </c>
       <c r="M12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
@@ -1289,7 +1289,7 @@
         <v>36</v>
       </c>
       <c r="H13" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I13" t="s">
         <v>44</v>
@@ -1304,7 +1304,7 @@
         <v>62</v>
       </c>
       <c r="M13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
@@ -1327,7 +1327,7 @@
         <v>36</v>
       </c>
       <c r="H14" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I14" t="s">
         <v>44</v>
@@ -1342,7 +1342,7 @@
         <v>63</v>
       </c>
       <c r="M14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
@@ -1365,7 +1365,7 @@
         <v>36</v>
       </c>
       <c r="H15" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I15" t="s">
         <v>44</v>
@@ -1380,7 +1380,7 @@
         <v>64</v>
       </c>
       <c r="M15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
@@ -1403,7 +1403,7 @@
         <v>36</v>
       </c>
       <c r="H16" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I16" t="s">
         <v>44</v>
@@ -1418,7 +1418,7 @@
         <v>65</v>
       </c>
       <c r="M16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
@@ -1441,7 +1441,7 @@
         <v>36</v>
       </c>
       <c r="H17" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I17" t="s">
         <v>45</v>
@@ -1450,13 +1450,13 @@
         <v>1</v>
       </c>
       <c r="K17" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L17" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="M17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
@@ -1479,7 +1479,7 @@
         <v>36</v>
       </c>
       <c r="H18" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I18" t="s">
         <v>45</v>
@@ -1494,10 +1494,10 @@
         <v>66</v>
       </c>
       <c r="M18" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="e">
         <f>#REF!+1</f>
         <v>#REF!</v>
@@ -1512,7 +1512,7 @@
         <v>33</v>
       </c>
       <c r="E19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F19" t="s">
         <v>40</v>
@@ -1521,7 +1521,7 @@
         <v>36</v>
       </c>
       <c r="H19" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I19" t="s">
         <v>45</v>
@@ -1556,7 +1556,7 @@
         <v>36</v>
       </c>
       <c r="H20" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I20" t="s">
         <v>45</v>
@@ -1571,7 +1571,7 @@
         <v>68</v>
       </c>
       <c r="M20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
@@ -1594,7 +1594,7 @@
         <v>37</v>
       </c>
       <c r="H21" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I21" t="s">
         <v>45</v>
@@ -1606,7 +1606,7 @@
         <v>92</v>
       </c>
       <c r="L21" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="22" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
@@ -1629,7 +1629,7 @@
         <v>37</v>
       </c>
       <c r="H22" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I22" t="s">
         <v>45</v>
@@ -1638,13 +1638,13 @@
         <v>6</v>
       </c>
       <c r="K22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M22" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
@@ -1667,7 +1667,7 @@
         <v>36</v>
       </c>
       <c r="H23" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I23" t="s">
         <v>45</v>
@@ -1682,7 +1682,7 @@
         <v>69</v>
       </c>
       <c r="M23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
@@ -1705,7 +1705,7 @@
         <v>36</v>
       </c>
       <c r="H24" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I24" t="s">
         <v>45</v>
@@ -1720,7 +1720,7 @@
         <v>70</v>
       </c>
       <c r="M24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
@@ -1743,7 +1743,7 @@
         <v>36</v>
       </c>
       <c r="H25" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I25" t="s">
         <v>45</v>
@@ -1758,7 +1758,7 @@
         <v>71</v>
       </c>
       <c r="M25" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
@@ -1785,7 +1785,7 @@
         <v>37</v>
       </c>
       <c r="H26" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I26" t="s">
         <v>51</v>
@@ -1800,7 +1800,7 @@
         <v>85</v>
       </c>
       <c r="M26" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -1827,7 +1827,7 @@
         <v>37</v>
       </c>
       <c r="H27" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I27" t="s">
         <v>51</v>
@@ -1839,7 +1839,7 @@
         <v>93</v>
       </c>
       <c r="L27" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="28" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
@@ -1866,7 +1866,7 @@
         <v>37</v>
       </c>
       <c r="H28" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I28" t="s">
         <v>51</v>
@@ -1881,10 +1881,10 @@
         <v>89</v>
       </c>
       <c r="M28" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <f>A27+1</f>
         <v>2</v>
@@ -1908,7 +1908,7 @@
         <v>37</v>
       </c>
       <c r="H29" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I29" t="s">
         <v>51</v>
@@ -1947,7 +1947,7 @@
         <v>37</v>
       </c>
       <c r="H30" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I30" t="s">
         <v>50</v>
@@ -1962,10 +1962,10 @@
         <v>73</v>
       </c>
       <c r="M30" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <f>A30+1</f>
         <v>3</v>
@@ -1989,7 +1989,7 @@
         <v>37</v>
       </c>
       <c r="H31" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I31" t="s">
         <v>50</v>
@@ -2028,7 +2028,7 @@
         <v>37</v>
       </c>
       <c r="H32" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I32" t="s">
         <v>50</v>
@@ -2063,7 +2063,7 @@
         <v>36</v>
       </c>
       <c r="H33" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I33" t="s">
         <v>50</v>
@@ -2078,7 +2078,7 @@
         <v>74</v>
       </c>
       <c r="M33" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="34" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
@@ -2101,7 +2101,7 @@
         <v>36</v>
       </c>
       <c r="H34" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I34" t="s">
         <v>50</v>
@@ -2116,10 +2116,10 @@
         <v>76</v>
       </c>
       <c r="M34" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <f t="shared" ref="A35:A44" si="0">A34+1</f>
         <v>1</v>
@@ -2134,7 +2134,7 @@
         <v>33</v>
       </c>
       <c r="E35" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F35" t="s">
         <v>40</v>
@@ -2143,7 +2143,7 @@
         <v>37</v>
       </c>
       <c r="H35" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I35" t="s">
         <v>50</v>
@@ -2182,7 +2182,7 @@
         <v>37</v>
       </c>
       <c r="H36" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I36" t="s">
         <v>50</v>
@@ -2197,10 +2197,10 @@
         <v>77</v>
       </c>
       <c r="M36" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -2215,7 +2215,7 @@
         <v>33</v>
       </c>
       <c r="E37" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F37" t="s">
         <v>40</v>
@@ -2224,7 +2224,7 @@
         <v>36</v>
       </c>
       <c r="H37" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I37" t="s">
         <v>50</v>
@@ -2239,7 +2239,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2254,7 +2254,7 @@
         <v>33</v>
       </c>
       <c r="E38" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F38" t="s">
         <v>40</v>
@@ -2263,7 +2263,7 @@
         <v>36</v>
       </c>
       <c r="H38" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I38" t="s">
         <v>50</v>
@@ -2278,7 +2278,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2293,7 +2293,7 @@
         <v>33</v>
       </c>
       <c r="E39" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F39" t="s">
         <v>40</v>
@@ -2302,7 +2302,7 @@
         <v>36</v>
       </c>
       <c r="H39" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I39" t="s">
         <v>50</v>
@@ -2317,7 +2317,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2332,7 +2332,7 @@
         <v>33</v>
       </c>
       <c r="E40" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F40" t="s">
         <v>40</v>
@@ -2341,7 +2341,7 @@
         <v>36</v>
       </c>
       <c r="H40" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I40" t="s">
         <v>50</v>
@@ -2356,7 +2356,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2371,7 +2371,7 @@
         <v>33</v>
       </c>
       <c r="E41" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F41" t="s">
         <v>40</v>
@@ -2380,7 +2380,7 @@
         <v>36</v>
       </c>
       <c r="H41" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I41" t="s">
         <v>50</v>
@@ -2419,7 +2419,7 @@
         <v>36</v>
       </c>
       <c r="H42" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I42" t="s">
         <v>50</v>
@@ -2434,10 +2434,10 @@
         <v>83</v>
       </c>
       <c r="M42" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2452,7 +2452,7 @@
         <v>33</v>
       </c>
       <c r="E43" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F43" t="s">
         <v>41</v>
@@ -2461,7 +2461,7 @@
         <v>37</v>
       </c>
       <c r="H43" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I43" t="s">
         <v>50</v>
@@ -2473,13 +2473,13 @@
         <v>49</v>
       </c>
       <c r="L43" t="s">
+        <v>138</v>
+      </c>
+      <c r="M43" t="s">
         <v>111</v>
       </c>
-      <c r="M43" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2494,7 +2494,7 @@
         <v>33</v>
       </c>
       <c r="E44" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F44" t="s">
         <v>41</v>
@@ -2503,7 +2503,7 @@
         <v>37</v>
       </c>
       <c r="H44" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I44" t="s">
         <v>50</v>
@@ -2515,7 +2515,7 @@
         <v>90</v>
       </c>
       <c r="L44" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="45" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
@@ -2542,7 +2542,7 @@
         <v>37</v>
       </c>
       <c r="H45" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I45" t="s">
         <v>50</v>
@@ -2551,16 +2551,16 @@
         <v>3</v>
       </c>
       <c r="K45" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L45" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="M45" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46">
         <f>A44+1</f>
         <v>11</v>
@@ -2584,7 +2584,7 @@
         <v>37</v>
       </c>
       <c r="H46" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I46" t="s">
         <v>50</v>
@@ -2593,13 +2593,13 @@
         <v>4</v>
       </c>
       <c r="K46" t="s">
+        <v>105</v>
+      </c>
+      <c r="L46" t="s">
         <v>106</v>
       </c>
-      <c r="L46" t="s">
-        <v>107</v>
-      </c>
       <c r="M46" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="47" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
@@ -2626,7 +2626,7 @@
         <v>37</v>
       </c>
       <c r="H47" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I47" t="s">
         <v>52</v>
@@ -2635,13 +2635,13 @@
         <v>1</v>
       </c>
       <c r="K47" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L47" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M47" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="48" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
@@ -2668,7 +2668,7 @@
         <v>37</v>
       </c>
       <c r="H48" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I48" t="s">
         <v>52</v>
@@ -2677,13 +2677,13 @@
         <v>2</v>
       </c>
       <c r="K48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L48" t="s">
         <v>87</v>
       </c>
       <c r="M48" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
@@ -2710,7 +2710,7 @@
         <v>37</v>
       </c>
       <c r="H49" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I49" t="s">
         <v>50</v>
@@ -2719,13 +2719,13 @@
         <v>14</v>
       </c>
       <c r="K49" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="L49" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M49" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="50" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
@@ -2752,7 +2752,7 @@
         <v>37</v>
       </c>
       <c r="H50" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I50" t="s">
         <v>50</v>
@@ -2761,10 +2761,10 @@
         <v>15</v>
       </c>
       <c r="K50" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L50" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/data/features.xlsx
+++ b/data/features.xlsx
@@ -14,8 +14,11 @@
   <sheets>
     <sheet name="features" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">features!$A$1:$M$50</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">features!$A$1:$N$70</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="180">
   <si>
     <t>title</t>
   </si>
@@ -185,9 +188,6 @@
     <t>4. Experience</t>
   </si>
   <si>
-    <t>7. Box Office</t>
-  </si>
-  <si>
     <t>Title of movie</t>
   </si>
   <si>
@@ -290,9 +290,6 @@
     <t>imdb_num_votes_log</t>
   </si>
   <si>
-    <t>Log of Box office revenue from BoxOfficeMojo.com</t>
-  </si>
-  <si>
     <t>#</t>
   </si>
   <si>
@@ -335,9 +332,6 @@
     <t>The studio that produced the film</t>
   </si>
   <si>
-    <t>Not in data set</t>
-  </si>
-  <si>
     <t>Log of thtr_days</t>
   </si>
   <si>
@@ -350,15 +344,6 @@
     <t>Log of votes_per_day</t>
   </si>
   <si>
-    <t>daily_box_office</t>
-  </si>
-  <si>
-    <t>daily_box_office_log</t>
-  </si>
-  <si>
-    <t>Daily box office revenue from BoxOfficeMojo.com</t>
-  </si>
-  <si>
     <t>Highly correlated with cast_esperience_log</t>
   </si>
   <si>
@@ -428,9 +413,6 @@
     <t>Explanatory</t>
   </si>
   <si>
-    <t>Response</t>
-  </si>
-  <si>
     <t>cast_scores</t>
   </si>
   <si>
@@ -450,6 +432,144 @@
   </si>
   <si>
     <t>Log runtime of movie (in log minutes)</t>
+  </si>
+  <si>
+    <t>director_votes</t>
+  </si>
+  <si>
+    <t>Total number of votes for films directed by the director</t>
+  </si>
+  <si>
+    <t>director_votes_log</t>
+  </si>
+  <si>
+    <t>Log of director votes</t>
+  </si>
+  <si>
+    <t>director_scores</t>
+  </si>
+  <si>
+    <t>Total number of scores for films directed by the director</t>
+  </si>
+  <si>
+    <t>director_scores_log</t>
+  </si>
+  <si>
+    <t>Log of director scores</t>
+  </si>
+  <si>
+    <t>6. Interaction</t>
+  </si>
+  <si>
+    <t>cast_dir_exp</t>
+  </si>
+  <si>
+    <t>cast_dir_exp_log</t>
+  </si>
+  <si>
+    <t>Log of cast_dir_exp</t>
+  </si>
+  <si>
+    <t>cast_dir_votes</t>
+  </si>
+  <si>
+    <t>Log of cast_dir_votes</t>
+  </si>
+  <si>
+    <t>cast_dir_votes_log</t>
+  </si>
+  <si>
+    <t>Cast * director experience</t>
+  </si>
+  <si>
+    <t>cast_dir_scores</t>
+  </si>
+  <si>
+    <t>Cast * director score</t>
+  </si>
+  <si>
+    <t>cast_dir_scores_log</t>
+  </si>
+  <si>
+    <t>Log of cast_dir_scores</t>
+  </si>
+  <si>
+    <t>Cast * director votes</t>
+  </si>
+  <si>
+    <t>cast_exp_dir_scores</t>
+  </si>
+  <si>
+    <t>Cast experience * director scores</t>
+  </si>
+  <si>
+    <t>cast_exp_dir_scores_log</t>
+  </si>
+  <si>
+    <t>Log of cast_exp_dir_scores</t>
+  </si>
+  <si>
+    <t>cast_exp_dir_votes</t>
+  </si>
+  <si>
+    <t>Cast experience * director votes</t>
+  </si>
+  <si>
+    <t>cast_exp_dir_votes_log</t>
+  </si>
+  <si>
+    <t>Log of cast_exp_dir_votes</t>
+  </si>
+  <si>
+    <t>cast_scores_dir_exp</t>
+  </si>
+  <si>
+    <t>Cast scores * director experience</t>
+  </si>
+  <si>
+    <t>cast_scores_dir_exp_log</t>
+  </si>
+  <si>
+    <t>Log of cast_scores_dir_exp</t>
+  </si>
+  <si>
+    <t>cast_scores_dir_votes</t>
+  </si>
+  <si>
+    <t>Cast scores * director votes</t>
+  </si>
+  <si>
+    <t>cast_scores_dir_votes_log</t>
+  </si>
+  <si>
+    <t>Log of cast_scores_dir_votes</t>
+  </si>
+  <si>
+    <t>cast_votes_dir_exp</t>
+  </si>
+  <si>
+    <t>Cast votes * director experience</t>
+  </si>
+  <si>
+    <t>cast_votes_dir_exp_log</t>
+  </si>
+  <si>
+    <t>Log of cast_votes_dir_exp</t>
+  </si>
+  <si>
+    <t>cast_votes_dir_scores</t>
+  </si>
+  <si>
+    <t>Cast votes * director scores</t>
+  </si>
+  <si>
+    <t>cast_votes_dir_scores_log</t>
+  </si>
+  <si>
+    <t>Log of cast_votes_dir_scores</t>
+  </si>
+  <si>
+    <t>Correlation</t>
   </si>
 </sst>
 </file>
@@ -511,6 +631,268 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet 1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>Variable</v>
+          </cell>
+          <cell r="B1" t="str">
+            <v>Correlation</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>cast_dir_scores</v>
+          </cell>
+          <cell r="B2">
+            <v>0.39600000000000002</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>cast_scores</v>
+          </cell>
+          <cell r="B3">
+            <v>0.39100000000000001</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>cast_dir_scores_log</v>
+          </cell>
+          <cell r="B4">
+            <v>0.378</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>cast_scores_dir_exp_log</v>
+          </cell>
+          <cell r="B5">
+            <v>0.36499999999999999</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>cast_votes_dir_exp_log</v>
+          </cell>
+          <cell r="B6">
+            <v>0.35599999999999998</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>cast_votes_dir_scores</v>
+          </cell>
+          <cell r="B7">
+            <v>0.35499999999999998</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>cast_scores_log</v>
+          </cell>
+          <cell r="B8">
+            <v>0.35199999999999998</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>cast_votes_dir_scores_log</v>
+          </cell>
+          <cell r="B9">
+            <v>0.35</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>cast_votes_log</v>
+          </cell>
+          <cell r="B10">
+            <v>0.34799999999999998</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>cast_votes</v>
+          </cell>
+          <cell r="B11">
+            <v>0.34499999999999997</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>cast_exp_dir_scores_log</v>
+          </cell>
+          <cell r="B12">
+            <v>0.34100000000000003</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>cast_exp_dir_scores</v>
+          </cell>
+          <cell r="B13">
+            <v>0.32600000000000001</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>cast_scores_dir_exp</v>
+          </cell>
+          <cell r="B14">
+            <v>0.32500000000000001</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v>cast_exp_dir_votes</v>
+          </cell>
+          <cell r="B15">
+            <v>0.309</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16" t="str">
+            <v>cast_votes_dir_exp</v>
+          </cell>
+          <cell r="B16">
+            <v>0.30099999999999999</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17" t="str">
+            <v>cast_scores_dir_votes</v>
+          </cell>
+          <cell r="B17">
+            <v>0.3</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18" t="str">
+            <v>director_votes</v>
+          </cell>
+          <cell r="B18">
+            <v>0.29799999999999999</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19" t="str">
+            <v>director_scores_log</v>
+          </cell>
+          <cell r="B19">
+            <v>0.28499999999999998</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20" t="str">
+            <v>cast_dir_exp_log</v>
+          </cell>
+          <cell r="B20">
+            <v>0.27200000000000002</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21" t="str">
+            <v>cast_dir_votes_log</v>
+          </cell>
+          <cell r="B21">
+            <v>0.27200000000000002</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22" t="str">
+            <v>director_scores</v>
+          </cell>
+          <cell r="B22">
+            <v>0.26400000000000001</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23" t="str">
+            <v>director_votes_log</v>
+          </cell>
+          <cell r="B23">
+            <v>0.25700000000000001</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24" t="str">
+            <v>cast_exp_dir_votes_log</v>
+          </cell>
+          <cell r="B24">
+            <v>0.254</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25" t="str">
+            <v>cast_scores_dir_votes_log</v>
+          </cell>
+          <cell r="B25">
+            <v>0.249</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26" t="str">
+            <v>cast_experience_log</v>
+          </cell>
+          <cell r="B26">
+            <v>0.23599999999999999</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27" t="str">
+            <v>cast_dir_votes</v>
+          </cell>
+          <cell r="B27">
+            <v>0.23499999999999999</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28" t="str">
+            <v>cast_experience</v>
+          </cell>
+          <cell r="B28">
+            <v>0.23400000000000001</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29" t="str">
+            <v>cast_dir_exp</v>
+          </cell>
+          <cell r="B29">
+            <v>0.224</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30" t="str">
+            <v>director_experience_log</v>
+          </cell>
+          <cell r="B30">
+            <v>0.188</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31" t="str">
+            <v>director_experience</v>
+          </cell>
+          <cell r="B31">
+            <v>0.16500000000000001</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -777,36 +1159,38 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:M50"/>
+  <dimension ref="A1:N70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="6" max="6" width="9.140625" customWidth="1"/>
     <col min="7" max="9" width="10.85546875" customWidth="1"/>
-    <col min="11" max="11" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" customWidth="1"/>
+    <col min="11" max="11" width="38" customWidth="1"/>
     <col min="12" max="12" width="69.140625" customWidth="1"/>
-    <col min="13" max="13" width="45.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.140625" customWidth="1"/>
+    <col min="14" max="14" width="45.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B1" t="s">
         <v>39</v>
       </c>
       <c r="C1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="E1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F1" t="s">
         <v>38</v>
@@ -815,7 +1199,7 @@
         <v>35</v>
       </c>
       <c r="H1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="I1" t="s">
         <v>42</v>
@@ -830,10 +1214,13 @@
         <v>32</v>
       </c>
       <c r="M1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+      <c r="N1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>34</v>
       </c>
@@ -853,7 +1240,7 @@
         <v>36</v>
       </c>
       <c r="H2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="I2" t="s">
         <v>43</v>
@@ -865,13 +1252,17 @@
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>53</v>
-      </c>
-      <c r="M2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="M2" t="e">
+        <f>VLOOKUP(K2,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -894,7 +1285,7 @@
         <v>36</v>
       </c>
       <c r="H3" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="I3" t="s">
         <v>43</v>
@@ -906,13 +1297,17 @@
         <v>1</v>
       </c>
       <c r="L3" t="s">
-        <v>54</v>
-      </c>
-      <c r="M3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="M3" t="e">
+        <f>VLOOKUP(K3,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <f>A3+1</f>
         <v>2</v>
@@ -936,7 +1331,7 @@
         <v>36</v>
       </c>
       <c r="H4" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="I4" t="s">
         <v>43</v>
@@ -948,10 +1343,14 @@
         <v>2</v>
       </c>
       <c r="L4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="M4" t="e">
+        <f>VLOOKUP(K4,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <f>A3+1</f>
         <v>2</v>
@@ -975,7 +1374,7 @@
         <v>37</v>
       </c>
       <c r="H5" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="I5" t="s">
         <v>43</v>
@@ -987,17 +1386,17 @@
         <v>3</v>
       </c>
       <c r="L5" t="s">
-        <v>56</v>
-      </c>
-      <c r="M5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <f>A4+1</f>
-        <v>3</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="M5" t="e">
+        <f>VLOOKUP(K5,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>33</v>
       </c>
@@ -1017,25 +1416,29 @@
         <v>37</v>
       </c>
       <c r="H6" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="I6" t="s">
-        <v>43</v>
+        <v>142</v>
       </c>
       <c r="J6">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="K6" t="s">
-        <v>96</v>
+        <v>150</v>
       </c>
       <c r="L6" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+      <c r="M6">
+        <f>VLOOKUP(K6,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
+        <v>0.39600000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <f>A6+1</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B7" t="s">
         <v>33</v>
@@ -1056,7 +1459,7 @@
         <v>36</v>
       </c>
       <c r="H7" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="I7" t="s">
         <v>43</v>
@@ -1068,10 +1471,14 @@
         <v>4</v>
       </c>
       <c r="L7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="M7" t="e">
+        <f>VLOOKUP(K7,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>34</v>
       </c>
@@ -1091,7 +1498,7 @@
         <v>36</v>
       </c>
       <c r="H8" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="I8" t="s">
         <v>43</v>
@@ -1103,13 +1510,17 @@
         <v>29</v>
       </c>
       <c r="L8" t="s">
-        <v>58</v>
-      </c>
-      <c r="M8" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="M8" t="e">
+        <f>VLOOKUP(K8,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>34</v>
       </c>
@@ -1129,7 +1540,7 @@
         <v>36</v>
       </c>
       <c r="H9" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="I9" t="s">
         <v>43</v>
@@ -1141,13 +1552,17 @@
         <v>30</v>
       </c>
       <c r="L9" t="s">
-        <v>59</v>
-      </c>
-      <c r="M9" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="M9" t="e">
+        <f>VLOOKUP(K9,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <f>A9+1</f>
         <v>1</v>
@@ -1171,7 +1586,7 @@
         <v>36</v>
       </c>
       <c r="H10" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="I10" t="s">
         <v>44</v>
@@ -1183,13 +1598,17 @@
         <v>5</v>
       </c>
       <c r="L10" t="s">
-        <v>101</v>
-      </c>
-      <c r="M10" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+      <c r="M10" t="e">
+        <f>VLOOKUP(K10,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <f>A10+1</f>
         <v>2</v>
@@ -1213,7 +1632,7 @@
         <v>36</v>
       </c>
       <c r="H11" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="I11" t="s">
         <v>44</v>
@@ -1225,13 +1644,17 @@
         <v>23</v>
       </c>
       <c r="L11" t="s">
-        <v>60</v>
-      </c>
-      <c r="M11" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="M11" t="e">
+        <f>VLOOKUP(K11,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>34</v>
       </c>
@@ -1251,7 +1674,7 @@
         <v>36</v>
       </c>
       <c r="H12" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="I12" t="s">
         <v>44</v>
@@ -1263,13 +1686,17 @@
         <v>24</v>
       </c>
       <c r="L12" t="s">
-        <v>61</v>
-      </c>
-      <c r="M12" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="M12" t="e">
+        <f>VLOOKUP(K12,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>34</v>
       </c>
@@ -1289,7 +1716,7 @@
         <v>36</v>
       </c>
       <c r="H13" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="I13" t="s">
         <v>44</v>
@@ -1301,13 +1728,17 @@
         <v>25</v>
       </c>
       <c r="L13" t="s">
-        <v>62</v>
-      </c>
-      <c r="M13" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="M13" t="e">
+        <f>VLOOKUP(K13,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N13" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>34</v>
       </c>
@@ -1327,7 +1758,7 @@
         <v>36</v>
       </c>
       <c r="H14" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="I14" t="s">
         <v>44</v>
@@ -1339,13 +1770,17 @@
         <v>26</v>
       </c>
       <c r="L14" t="s">
-        <v>63</v>
-      </c>
-      <c r="M14" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+      <c r="M14" t="e">
+        <f>VLOOKUP(K14,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>34</v>
       </c>
@@ -1365,7 +1800,7 @@
         <v>36</v>
       </c>
       <c r="H15" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="I15" t="s">
         <v>44</v>
@@ -1377,13 +1812,17 @@
         <v>27</v>
       </c>
       <c r="L15" t="s">
-        <v>64</v>
-      </c>
-      <c r="M15" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="M15" t="e">
+        <f>VLOOKUP(K15,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N15" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>34</v>
       </c>
@@ -1403,7 +1842,7 @@
         <v>36</v>
       </c>
       <c r="H16" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="I16" t="s">
         <v>44</v>
@@ -1415,13 +1854,17 @@
         <v>28</v>
       </c>
       <c r="L16" t="s">
-        <v>65</v>
-      </c>
-      <c r="M16" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+      <c r="M16" t="e">
+        <f>VLOOKUP(K16,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N16" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>34</v>
       </c>
@@ -1441,7 +1884,7 @@
         <v>36</v>
       </c>
       <c r="H17" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="I17" t="s">
         <v>45</v>
@@ -1450,16 +1893,20 @@
         <v>1</v>
       </c>
       <c r="K17" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="L17" t="s">
-        <v>129</v>
-      </c>
-      <c r="M17" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+      <c r="M17" t="e">
+        <f>VLOOKUP(K17,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N17" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>34</v>
       </c>
@@ -1479,7 +1926,7 @@
         <v>36</v>
       </c>
       <c r="H18" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="I18" t="s">
         <v>45</v>
@@ -1491,13 +1938,17 @@
         <v>6</v>
       </c>
       <c r="L18" t="s">
-        <v>66</v>
-      </c>
-      <c r="M18" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="M18" t="e">
+        <f>VLOOKUP(K18,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N18" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="e">
         <f>#REF!+1</f>
         <v>#REF!</v>
@@ -1521,7 +1972,7 @@
         <v>36</v>
       </c>
       <c r="H19" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="I19" t="s">
         <v>45</v>
@@ -1533,10 +1984,14 @@
         <v>7</v>
       </c>
       <c r="L19" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+      <c r="M19" t="e">
+        <f>VLOOKUP(K19,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>34</v>
       </c>
@@ -1556,7 +2011,7 @@
         <v>36</v>
       </c>
       <c r="H20" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="I20" t="s">
         <v>45</v>
@@ -1568,13 +2023,17 @@
         <v>8</v>
       </c>
       <c r="L20" t="s">
-        <v>68</v>
-      </c>
-      <c r="M20" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="M20" t="e">
+        <f>VLOOKUP(K20,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N20" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>33</v>
       </c>
@@ -1594,7 +2053,7 @@
         <v>37</v>
       </c>
       <c r="H21" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="I21" t="s">
         <v>45</v>
@@ -1603,13 +2062,17 @@
         <v>5</v>
       </c>
       <c r="K21" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L21" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="M21" t="e">
+        <f>VLOOKUP(K21,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>33</v>
       </c>
@@ -1629,7 +2092,7 @@
         <v>37</v>
       </c>
       <c r="H22" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="I22" t="s">
         <v>45</v>
@@ -1638,16 +2101,20 @@
         <v>6</v>
       </c>
       <c r="K22" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L22" t="s">
-        <v>103</v>
-      </c>
-      <c r="M22" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="M22" t="e">
+        <f>VLOOKUP(K22,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N22" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>34</v>
       </c>
@@ -1667,7 +2134,7 @@
         <v>36</v>
       </c>
       <c r="H23" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="I23" t="s">
         <v>45</v>
@@ -1679,13 +2146,17 @@
         <v>9</v>
       </c>
       <c r="L23" t="s">
-        <v>69</v>
-      </c>
-      <c r="M23" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="M23" t="e">
+        <f>VLOOKUP(K23,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N23" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>34</v>
       </c>
@@ -1705,7 +2176,7 @@
         <v>36</v>
       </c>
       <c r="H24" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="I24" t="s">
         <v>45</v>
@@ -1717,13 +2188,17 @@
         <v>10</v>
       </c>
       <c r="L24" t="s">
-        <v>70</v>
-      </c>
-      <c r="M24" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="M24" t="e">
+        <f>VLOOKUP(K24,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N24" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>34</v>
       </c>
@@ -1743,7 +2218,7 @@
         <v>36</v>
       </c>
       <c r="H25" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="I25" t="s">
         <v>45</v>
@@ -1755,15 +2230,19 @@
         <v>11</v>
       </c>
       <c r="L25" t="s">
-        <v>71</v>
-      </c>
-      <c r="M25" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="M25" t="e">
+        <f>VLOOKUP(K25,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N25" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26">
-        <f>A24+1</f>
+        <f>A25+1</f>
         <v>1</v>
       </c>
       <c r="B26" t="s">
@@ -1776,7 +2255,7 @@
         <v>33</v>
       </c>
       <c r="E26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F26" t="s">
         <v>41</v>
@@ -1785,29 +2264,29 @@
         <v>37</v>
       </c>
       <c r="H26" t="s">
+        <v>126</v>
+      </c>
+      <c r="I26" t="s">
+        <v>50</v>
+      </c>
+      <c r="J26">
+        <v>14</v>
+      </c>
+      <c r="K26" t="s">
+        <v>127</v>
+      </c>
+      <c r="L26" t="s">
         <v>132</v>
       </c>
-      <c r="I26" t="s">
-        <v>51</v>
-      </c>
-      <c r="J26">
-        <v>1</v>
-      </c>
-      <c r="K26" t="s">
-        <v>48</v>
-      </c>
-      <c r="L26" t="s">
-        <v>85</v>
-      </c>
-      <c r="M26" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <f>A25+1</f>
-        <v>1</v>
-      </c>
+      <c r="M26">
+        <f>VLOOKUP(K26,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
+        <v>0.39100000000000001</v>
+      </c>
+      <c r="N26" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>33</v>
       </c>
@@ -1818,7 +2297,7 @@
         <v>33</v>
       </c>
       <c r="E27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F27" t="s">
         <v>41</v>
@@ -1827,26 +2306,26 @@
         <v>37</v>
       </c>
       <c r="H27" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="I27" t="s">
-        <v>51</v>
+        <v>142</v>
       </c>
       <c r="J27">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="K27" t="s">
-        <v>93</v>
+        <v>152</v>
       </c>
       <c r="L27" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <f>A25+1</f>
-        <v>1</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="M27">
+        <f>VLOOKUP(K27,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
+        <v>0.378</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>33</v>
       </c>
@@ -1857,7 +2336,7 @@
         <v>33</v>
       </c>
       <c r="E28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F28" t="s">
         <v>41</v>
@@ -1866,29 +2345,26 @@
         <v>37</v>
       </c>
       <c r="H28" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="I28" t="s">
-        <v>51</v>
+        <v>142</v>
       </c>
       <c r="J28">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="K28" t="s">
-        <v>47</v>
+        <v>165</v>
       </c>
       <c r="L28" t="s">
-        <v>89</v>
-      </c>
-      <c r="M28" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <f>A27+1</f>
-        <v>2</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="M28">
+        <f>VLOOKUP(K28,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
+        <v>0.36499999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>33</v>
       </c>
@@ -1899,7 +2375,7 @@
         <v>33</v>
       </c>
       <c r="E29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F29" t="s">
         <v>41</v>
@@ -1908,25 +2384,29 @@
         <v>37</v>
       </c>
       <c r="H29" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="I29" t="s">
-        <v>51</v>
+        <v>142</v>
       </c>
       <c r="J29">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="K29" t="s">
-        <v>94</v>
+        <v>173</v>
       </c>
       <c r="L29" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+      <c r="M29">
+        <f>VLOOKUP(K29,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
+        <v>0.35599999999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <f>A27+1</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B30" t="s">
         <v>33</v>
@@ -1947,7 +2427,7 @@
         <v>37</v>
       </c>
       <c r="H30" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="I30" t="s">
         <v>50</v>
@@ -1959,17 +2439,17 @@
         <v>13</v>
       </c>
       <c r="L30" t="s">
-        <v>73</v>
-      </c>
-      <c r="M30" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <f>A30+1</f>
-        <v>3</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="M30" t="e">
+        <f>VLOOKUP(K30,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N30" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>33</v>
       </c>
@@ -1989,25 +2469,29 @@
         <v>37</v>
       </c>
       <c r="H31" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="I31" t="s">
-        <v>50</v>
+        <v>142</v>
       </c>
       <c r="J31">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="K31" t="s">
-        <v>86</v>
+        <v>175</v>
       </c>
       <c r="L31" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+      <c r="M31">
+        <f>VLOOKUP(K31,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
+        <v>0.35499999999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <f>A31+1</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B32" t="s">
         <v>33</v>
@@ -2028,7 +2512,7 @@
         <v>37</v>
       </c>
       <c r="H32" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="I32" t="s">
         <v>50</v>
@@ -2040,12 +2524,20 @@
         <v>12</v>
       </c>
       <c r="L32" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="M32" t="e">
+        <f>VLOOKUP(K32,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f>A32+1</f>
+        <v>2</v>
+      </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C33" t="s">
         <v>33</v>
@@ -2054,34 +2546,35 @@
         <v>33</v>
       </c>
       <c r="E33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F33" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G33" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H33" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="I33" t="s">
         <v>50</v>
       </c>
       <c r="J33">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="K33" t="s">
-        <v>14</v>
+        <v>129</v>
       </c>
       <c r="L33" t="s">
-        <v>74</v>
-      </c>
-      <c r="M33" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+      <c r="M33">
+        <f>VLOOKUP(K33,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
+        <v>0.35199999999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>34</v>
       </c>
@@ -2101,29 +2594,29 @@
         <v>36</v>
       </c>
       <c r="H34" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="I34" t="s">
         <v>50</v>
       </c>
       <c r="J34">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K34" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L34" t="s">
-        <v>76</v>
-      </c>
-      <c r="M34" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <f t="shared" ref="A35:A44" si="0">A34+1</f>
-        <v>1</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="M34" t="e">
+        <f>VLOOKUP(K34,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N34" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>33</v>
       </c>
@@ -2137,434 +2630,471 @@
         <v>34</v>
       </c>
       <c r="F35" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G35" t="s">
         <v>37</v>
       </c>
       <c r="H35" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="I35" t="s">
+        <v>142</v>
+      </c>
+      <c r="J35">
+        <v>35</v>
+      </c>
+      <c r="K35" t="s">
+        <v>177</v>
+      </c>
+      <c r="L35" t="s">
+        <v>178</v>
+      </c>
+      <c r="M35">
+        <f>VLOOKUP(K35,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" t="s">
+        <v>33</v>
+      </c>
+      <c r="D36" t="s">
+        <v>33</v>
+      </c>
+      <c r="E36" t="s">
+        <v>34</v>
+      </c>
+      <c r="F36" t="s">
+        <v>40</v>
+      </c>
+      <c r="G36" t="s">
+        <v>36</v>
+      </c>
+      <c r="H36" t="s">
+        <v>126</v>
+      </c>
+      <c r="I36" t="s">
         <v>50</v>
       </c>
-      <c r="J35">
+      <c r="J36">
+        <v>5</v>
+      </c>
+      <c r="K36" t="s">
+        <v>16</v>
+      </c>
+      <c r="L36" t="s">
+        <v>75</v>
+      </c>
+      <c r="M36" t="e">
+        <f>VLOOKUP(K36,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N36" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <f t="shared" ref="A37:A46" si="0">A36+1</f>
+        <v>1</v>
+      </c>
+      <c r="B37" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" t="s">
+        <v>33</v>
+      </c>
+      <c r="D37" t="s">
+        <v>33</v>
+      </c>
+      <c r="E37" t="s">
+        <v>34</v>
+      </c>
+      <c r="F37" t="s">
+        <v>40</v>
+      </c>
+      <c r="G37" t="s">
+        <v>37</v>
+      </c>
+      <c r="H37" t="s">
+        <v>126</v>
+      </c>
+      <c r="I37" t="s">
+        <v>50</v>
+      </c>
+      <c r="J37">
         <v>6</v>
       </c>
-      <c r="K35" t="s">
+      <c r="K37" t="s">
         <v>15</v>
       </c>
-      <c r="L35" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A36">
+      <c r="L37" t="s">
+        <v>74</v>
+      </c>
+      <c r="M37" t="e">
+        <f>VLOOKUP(K37,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A38">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B36" t="s">
-        <v>33</v>
-      </c>
-      <c r="C36" t="s">
-        <v>33</v>
-      </c>
-      <c r="D36" t="s">
-        <v>33</v>
-      </c>
-      <c r="E36" t="s">
-        <v>34</v>
-      </c>
-      <c r="F36" t="s">
+      <c r="B38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38" t="s">
+        <v>33</v>
+      </c>
+      <c r="D38" t="s">
+        <v>33</v>
+      </c>
+      <c r="E38" t="s">
+        <v>34</v>
+      </c>
+      <c r="F38" t="s">
         <v>40</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G38" t="s">
         <v>37</v>
       </c>
-      <c r="H36" t="s">
-        <v>132</v>
-      </c>
-      <c r="I36" t="s">
+      <c r="H38" t="s">
+        <v>126</v>
+      </c>
+      <c r="I38" t="s">
         <v>50</v>
       </c>
-      <c r="J36">
+      <c r="J38">
         <v>7</v>
       </c>
-      <c r="K36" t="s">
+      <c r="K38" t="s">
         <v>17</v>
       </c>
-      <c r="L36" t="s">
-        <v>77</v>
-      </c>
-      <c r="M36" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A37">
+      <c r="L38" t="s">
+        <v>76</v>
+      </c>
+      <c r="M38" t="e">
+        <f>VLOOKUP(K38,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N38" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A39">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B37" t="s">
-        <v>33</v>
-      </c>
-      <c r="C37" t="s">
-        <v>33</v>
-      </c>
-      <c r="D37" t="s">
-        <v>33</v>
-      </c>
-      <c r="E37" t="s">
-        <v>34</v>
-      </c>
-      <c r="F37" t="s">
+      <c r="B39" t="s">
+        <v>33</v>
+      </c>
+      <c r="C39" t="s">
+        <v>33</v>
+      </c>
+      <c r="D39" t="s">
+        <v>33</v>
+      </c>
+      <c r="E39" t="s">
+        <v>34</v>
+      </c>
+      <c r="F39" t="s">
         <v>40</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G39" t="s">
         <v>36</v>
       </c>
-      <c r="H37" t="s">
-        <v>132</v>
-      </c>
-      <c r="I37" t="s">
+      <c r="H39" t="s">
+        <v>126</v>
+      </c>
+      <c r="I39" t="s">
         <v>50</v>
       </c>
-      <c r="J37">
+      <c r="J39">
         <v>8</v>
       </c>
-      <c r="K37" t="s">
+      <c r="K39" t="s">
         <v>18</v>
       </c>
-      <c r="L37" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A38">
+      <c r="L39" t="s">
+        <v>77</v>
+      </c>
+      <c r="M39" t="e">
+        <f>VLOOKUP(K39,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A40">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B38" t="s">
-        <v>33</v>
-      </c>
-      <c r="C38" t="s">
-        <v>33</v>
-      </c>
-      <c r="D38" t="s">
-        <v>33</v>
-      </c>
-      <c r="E38" t="s">
-        <v>34</v>
-      </c>
-      <c r="F38" t="s">
+      <c r="B40" t="s">
+        <v>33</v>
+      </c>
+      <c r="C40" t="s">
+        <v>33</v>
+      </c>
+      <c r="D40" t="s">
+        <v>33</v>
+      </c>
+      <c r="E40" t="s">
+        <v>34</v>
+      </c>
+      <c r="F40" t="s">
         <v>40</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G40" t="s">
         <v>36</v>
       </c>
-      <c r="H38" t="s">
-        <v>132</v>
-      </c>
-      <c r="I38" t="s">
+      <c r="H40" t="s">
+        <v>126</v>
+      </c>
+      <c r="I40" t="s">
         <v>50</v>
       </c>
-      <c r="J38">
+      <c r="J40">
         <v>9</v>
       </c>
-      <c r="K38" t="s">
+      <c r="K40" t="s">
         <v>19</v>
       </c>
-      <c r="L38" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A39">
+      <c r="L40" t="s">
+        <v>78</v>
+      </c>
+      <c r="M40" t="e">
+        <f>VLOOKUP(K40,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B39" t="s">
-        <v>33</v>
-      </c>
-      <c r="C39" t="s">
-        <v>33</v>
-      </c>
-      <c r="D39" t="s">
-        <v>33</v>
-      </c>
-      <c r="E39" t="s">
-        <v>34</v>
-      </c>
-      <c r="F39" t="s">
+      <c r="B41" t="s">
+        <v>33</v>
+      </c>
+      <c r="C41" t="s">
+        <v>33</v>
+      </c>
+      <c r="D41" t="s">
+        <v>33</v>
+      </c>
+      <c r="E41" t="s">
+        <v>34</v>
+      </c>
+      <c r="F41" t="s">
         <v>40</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G41" t="s">
         <v>36</v>
       </c>
-      <c r="H39" t="s">
-        <v>132</v>
-      </c>
-      <c r="I39" t="s">
+      <c r="H41" t="s">
+        <v>126</v>
+      </c>
+      <c r="I41" t="s">
         <v>50</v>
       </c>
-      <c r="J39">
+      <c r="J41">
         <v>10</v>
       </c>
-      <c r="K39" t="s">
+      <c r="K41" t="s">
         <v>20</v>
       </c>
-      <c r="L39" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A40">
+      <c r="L41" t="s">
+        <v>79</v>
+      </c>
+      <c r="M41" t="e">
+        <f>VLOOKUP(K41,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A42">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B40" t="s">
-        <v>33</v>
-      </c>
-      <c r="C40" t="s">
-        <v>33</v>
-      </c>
-      <c r="D40" t="s">
-        <v>33</v>
-      </c>
-      <c r="E40" t="s">
-        <v>34</v>
-      </c>
-      <c r="F40" t="s">
+      <c r="B42" t="s">
+        <v>33</v>
+      </c>
+      <c r="C42" t="s">
+        <v>33</v>
+      </c>
+      <c r="D42" t="s">
+        <v>33</v>
+      </c>
+      <c r="E42" t="s">
+        <v>34</v>
+      </c>
+      <c r="F42" t="s">
         <v>40</v>
       </c>
-      <c r="G40" t="s">
+      <c r="G42" t="s">
         <v>36</v>
       </c>
-      <c r="H40" t="s">
-        <v>132</v>
-      </c>
-      <c r="I40" t="s">
+      <c r="H42" t="s">
+        <v>126</v>
+      </c>
+      <c r="I42" t="s">
         <v>50</v>
       </c>
-      <c r="J40">
+      <c r="J42">
         <v>11</v>
       </c>
-      <c r="K40" t="s">
-        <v>91</v>
-      </c>
-      <c r="L40" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A41">
+      <c r="K42" t="s">
+        <v>89</v>
+      </c>
+      <c r="L42" t="s">
+        <v>80</v>
+      </c>
+      <c r="M42" t="e">
+        <f>VLOOKUP(K42,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A43">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B41" t="s">
-        <v>33</v>
-      </c>
-      <c r="C41" t="s">
-        <v>33</v>
-      </c>
-      <c r="D41" t="s">
-        <v>33</v>
-      </c>
-      <c r="E41" t="s">
-        <v>34</v>
-      </c>
-      <c r="F41" t="s">
+      <c r="B43" t="s">
+        <v>33</v>
+      </c>
+      <c r="C43" t="s">
+        <v>33</v>
+      </c>
+      <c r="D43" t="s">
+        <v>33</v>
+      </c>
+      <c r="E43" t="s">
+        <v>34</v>
+      </c>
+      <c r="F43" t="s">
         <v>40</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G43" t="s">
         <v>36</v>
       </c>
-      <c r="H41" t="s">
-        <v>132</v>
-      </c>
-      <c r="I41" t="s">
+      <c r="H43" t="s">
+        <v>126</v>
+      </c>
+      <c r="I43" t="s">
         <v>50</v>
       </c>
-      <c r="J41">
+      <c r="J43">
         <v>12</v>
       </c>
-      <c r="K41" t="s">
+      <c r="K43" t="s">
         <v>21</v>
       </c>
-      <c r="L41" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A42">
+      <c r="L43" t="s">
+        <v>81</v>
+      </c>
+      <c r="M43" t="e">
+        <f>VLOOKUP(K43,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A44">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B42" t="s">
-        <v>34</v>
-      </c>
-      <c r="C42" t="s">
-        <v>33</v>
-      </c>
-      <c r="D42" t="s">
-        <v>33</v>
-      </c>
-      <c r="E42" t="s">
-        <v>34</v>
-      </c>
-      <c r="F42" t="s">
+      <c r="B44" t="s">
+        <v>34</v>
+      </c>
+      <c r="C44" t="s">
+        <v>33</v>
+      </c>
+      <c r="D44" t="s">
+        <v>33</v>
+      </c>
+      <c r="E44" t="s">
+        <v>34</v>
+      </c>
+      <c r="F44" t="s">
         <v>40</v>
       </c>
-      <c r="G42" t="s">
+      <c r="G44" t="s">
         <v>36</v>
       </c>
-      <c r="H42" t="s">
-        <v>132</v>
-      </c>
-      <c r="I42" t="s">
+      <c r="H44" t="s">
+        <v>126</v>
+      </c>
+      <c r="I44" t="s">
         <v>50</v>
       </c>
-      <c r="J42">
+      <c r="J44">
         <v>13</v>
       </c>
-      <c r="K42" t="s">
+      <c r="K44" t="s">
         <v>22</v>
       </c>
-      <c r="L42" t="s">
-        <v>83</v>
-      </c>
-      <c r="M42" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43">
+      <c r="L44" t="s">
+        <v>82</v>
+      </c>
+      <c r="M44" t="e">
+        <f>VLOOKUP(K44,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N44" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B43" t="s">
-        <v>33</v>
-      </c>
-      <c r="C43" t="s">
-        <v>33</v>
-      </c>
-      <c r="D43" t="s">
-        <v>33</v>
-      </c>
-      <c r="E43" t="s">
-        <v>33</v>
-      </c>
-      <c r="F43" t="s">
+      <c r="B45" t="s">
+        <v>33</v>
+      </c>
+      <c r="C45" t="s">
+        <v>33</v>
+      </c>
+      <c r="D45" t="s">
+        <v>33</v>
+      </c>
+      <c r="E45" t="s">
+        <v>34</v>
+      </c>
+      <c r="F45" t="s">
         <v>41</v>
       </c>
-      <c r="G43" t="s">
+      <c r="G45" t="s">
         <v>37</v>
       </c>
-      <c r="H43" t="s">
-        <v>132</v>
-      </c>
-      <c r="I43" t="s">
+      <c r="H45" t="s">
+        <v>126</v>
+      </c>
+      <c r="I45" t="s">
         <v>50</v>
       </c>
-      <c r="J43">
-        <v>14</v>
-      </c>
-      <c r="K43" t="s">
-        <v>49</v>
-      </c>
-      <c r="L43" t="s">
-        <v>138</v>
-      </c>
-      <c r="M43" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A44">
+      <c r="J45">
+        <v>15</v>
+      </c>
+      <c r="K45" t="s">
+        <v>88</v>
+      </c>
+      <c r="L45" t="s">
+        <v>115</v>
+      </c>
+      <c r="M45">
+        <f>VLOOKUP(K45,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
+        <v>0.34799999999999998</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B44" t="s">
-        <v>33</v>
-      </c>
-      <c r="C44" t="s">
-        <v>33</v>
-      </c>
-      <c r="D44" t="s">
-        <v>33</v>
-      </c>
-      <c r="E44" t="s">
-        <v>34</v>
-      </c>
-      <c r="F44" t="s">
-        <v>41</v>
-      </c>
-      <c r="G44" t="s">
-        <v>37</v>
-      </c>
-      <c r="H44" t="s">
-        <v>132</v>
-      </c>
-      <c r="I44" t="s">
-        <v>50</v>
-      </c>
-      <c r="J44">
-        <v>15</v>
-      </c>
-      <c r="K44" t="s">
-        <v>90</v>
-      </c>
-      <c r="L44" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <f>A43+1</f>
-        <v>10</v>
-      </c>
-      <c r="B45" t="s">
-        <v>33</v>
-      </c>
-      <c r="C45" t="s">
-        <v>33</v>
-      </c>
-      <c r="D45" t="s">
-        <v>34</v>
-      </c>
-      <c r="E45" t="s">
-        <v>34</v>
-      </c>
-      <c r="F45" t="s">
-        <v>41</v>
-      </c>
-      <c r="G45" t="s">
-        <v>37</v>
-      </c>
-      <c r="H45" t="s">
-        <v>132</v>
-      </c>
-      <c r="I45" t="s">
-        <v>50</v>
-      </c>
-      <c r="J45">
-        <v>3</v>
-      </c>
-      <c r="K45" t="s">
-        <v>104</v>
-      </c>
-      <c r="L45" t="s">
-        <v>123</v>
-      </c>
-      <c r="M45" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <f>A44+1</f>
-        <v>11</v>
-      </c>
       <c r="B46" t="s">
         <v>33</v>
       </c>
@@ -2572,7 +3102,7 @@
         <v>33</v>
       </c>
       <c r="D46" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E46" t="s">
         <v>34</v>
@@ -2584,40 +3114,40 @@
         <v>37</v>
       </c>
       <c r="H46" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="I46" t="s">
         <v>50</v>
       </c>
       <c r="J46">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="K46" t="s">
+        <v>49</v>
+      </c>
+      <c r="L46" t="s">
+        <v>131</v>
+      </c>
+      <c r="M46">
+        <f>VLOOKUP(K46,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="N46" t="s">
         <v>105</v>
       </c>
-      <c r="L46" t="s">
-        <v>106</v>
-      </c>
-      <c r="M46" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A47" t="e">
-        <f>#REF!+1</f>
-        <v>#REF!</v>
-      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>33</v>
       </c>
       <c r="C47" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D47" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E47" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F47" t="s">
         <v>41</v>
@@ -2626,29 +3156,26 @@
         <v>37</v>
       </c>
       <c r="H47" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="I47" t="s">
-        <v>52</v>
+        <v>142</v>
       </c>
       <c r="J47">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="K47" t="s">
-        <v>107</v>
+        <v>157</v>
       </c>
       <c r="L47" t="s">
-        <v>109</v>
-      </c>
-      <c r="M47" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A48" t="e">
-        <f>A47+1</f>
-        <v>#REF!</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="M47">
+        <f>VLOOKUP(K47,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
+        <v>0.34100000000000003</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>33</v>
       </c>
@@ -2668,29 +3195,26 @@
         <v>37</v>
       </c>
       <c r="H48" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="I48" t="s">
-        <v>52</v>
+        <v>142</v>
       </c>
       <c r="J48">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="K48" t="s">
-        <v>108</v>
+        <v>155</v>
       </c>
       <c r="L48" t="s">
-        <v>87</v>
-      </c>
-      <c r="M48" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A49" t="e">
-        <f t="shared" ref="A49:A50" si="1">A48+1</f>
-        <v>#REF!</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="M48">
+        <f>VLOOKUP(K48,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
+        <v>0.32600000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>33</v>
       </c>
@@ -2701,7 +3225,7 @@
         <v>33</v>
       </c>
       <c r="E49" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F49" t="s">
         <v>41</v>
@@ -2710,29 +3234,26 @@
         <v>37</v>
       </c>
       <c r="H49" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="I49" t="s">
-        <v>50</v>
+        <v>142</v>
       </c>
       <c r="J49">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="K49" t="s">
-        <v>134</v>
+        <v>163</v>
       </c>
       <c r="L49" t="s">
-        <v>139</v>
-      </c>
-      <c r="M49" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A50" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="M49">
+        <f>VLOOKUP(K49,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
+        <v>0.32500000000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>33</v>
       </c>
@@ -2752,32 +3273,888 @@
         <v>37</v>
       </c>
       <c r="H50" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="I50" t="s">
+        <v>142</v>
+      </c>
+      <c r="J50">
+        <v>26</v>
+      </c>
+      <c r="K50" t="s">
+        <v>159</v>
+      </c>
+      <c r="L50" t="s">
+        <v>160</v>
+      </c>
+      <c r="M50">
+        <f>VLOOKUP(K50,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
+        <v>0.309</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>33</v>
+      </c>
+      <c r="C51" t="s">
+        <v>33</v>
+      </c>
+      <c r="D51" t="s">
+        <v>33</v>
+      </c>
+      <c r="E51" t="s">
+        <v>34</v>
+      </c>
+      <c r="F51" t="s">
+        <v>41</v>
+      </c>
+      <c r="G51" t="s">
+        <v>37</v>
+      </c>
+      <c r="H51" t="s">
+        <v>126</v>
+      </c>
+      <c r="I51" t="s">
+        <v>142</v>
+      </c>
+      <c r="J51">
+        <v>32</v>
+      </c>
+      <c r="K51" t="s">
+        <v>171</v>
+      </c>
+      <c r="L51" t="s">
+        <v>172</v>
+      </c>
+      <c r="M51">
+        <f>VLOOKUP(K51,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
+        <v>0.30099999999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>33</v>
+      </c>
+      <c r="C52" t="s">
+        <v>33</v>
+      </c>
+      <c r="D52" t="s">
+        <v>33</v>
+      </c>
+      <c r="E52" t="s">
+        <v>34</v>
+      </c>
+      <c r="F52" t="s">
+        <v>41</v>
+      </c>
+      <c r="G52" t="s">
+        <v>37</v>
+      </c>
+      <c r="H52" t="s">
+        <v>126</v>
+      </c>
+      <c r="I52" t="s">
+        <v>142</v>
+      </c>
+      <c r="J52">
+        <v>30</v>
+      </c>
+      <c r="K52" t="s">
+        <v>167</v>
+      </c>
+      <c r="L52" t="s">
+        <v>168</v>
+      </c>
+      <c r="M52">
+        <f>VLOOKUP(K52,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>33</v>
+      </c>
+      <c r="C53" t="s">
+        <v>33</v>
+      </c>
+      <c r="D53" t="s">
+        <v>33</v>
+      </c>
+      <c r="E53" t="s">
+        <v>34</v>
+      </c>
+      <c r="F53" t="s">
+        <v>41</v>
+      </c>
+      <c r="G53" t="s">
+        <v>37</v>
+      </c>
+      <c r="H53" t="s">
+        <v>126</v>
+      </c>
+      <c r="I53" t="s">
         <v>50</v>
       </c>
-      <c r="J50">
-        <v>15</v>
-      </c>
-      <c r="K50" t="s">
+      <c r="J53">
+        <v>16</v>
+      </c>
+      <c r="K53" t="s">
+        <v>134</v>
+      </c>
+      <c r="L53" t="s">
+        <v>135</v>
+      </c>
+      <c r="M53">
+        <f>VLOOKUP(K53,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
+        <v>0.29799999999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>33</v>
+      </c>
+      <c r="C54" t="s">
+        <v>33</v>
+      </c>
+      <c r="D54" t="s">
+        <v>33</v>
+      </c>
+      <c r="E54" t="s">
+        <v>34</v>
+      </c>
+      <c r="F54" t="s">
+        <v>41</v>
+      </c>
+      <c r="G54" t="s">
+        <v>37</v>
+      </c>
+      <c r="H54" t="s">
+        <v>126</v>
+      </c>
+      <c r="I54" t="s">
+        <v>50</v>
+      </c>
+      <c r="J54">
+        <v>17</v>
+      </c>
+      <c r="K54" t="s">
+        <v>140</v>
+      </c>
+      <c r="L54" t="s">
+        <v>141</v>
+      </c>
+      <c r="M54">
+        <f>VLOOKUP(K54,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
+        <v>0.28499999999999998</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>33</v>
+      </c>
+      <c r="C55" t="s">
+        <v>33</v>
+      </c>
+      <c r="D55" t="s">
+        <v>33</v>
+      </c>
+      <c r="E55" t="s">
+        <v>33</v>
+      </c>
+      <c r="F55" t="s">
+        <v>41</v>
+      </c>
+      <c r="G55" t="s">
+        <v>37</v>
+      </c>
+      <c r="H55" t="s">
+        <v>126</v>
+      </c>
+      <c r="I55" t="s">
+        <v>142</v>
+      </c>
+      <c r="J55">
+        <v>19</v>
+      </c>
+      <c r="K55" t="s">
+        <v>144</v>
+      </c>
+      <c r="L55" t="s">
+        <v>145</v>
+      </c>
+      <c r="M55">
+        <f>VLOOKUP(K55,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
+        <v>0.27200000000000002</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>33</v>
+      </c>
+      <c r="C56" t="s">
+        <v>33</v>
+      </c>
+      <c r="D56" t="s">
+        <v>33</v>
+      </c>
+      <c r="E56" t="s">
+        <v>33</v>
+      </c>
+      <c r="F56" t="s">
+        <v>41</v>
+      </c>
+      <c r="G56" t="s">
+        <v>37</v>
+      </c>
+      <c r="H56" t="s">
+        <v>126</v>
+      </c>
+      <c r="I56" t="s">
+        <v>142</v>
+      </c>
+      <c r="J56">
+        <v>23</v>
+      </c>
+      <c r="K56" t="s">
+        <v>148</v>
+      </c>
+      <c r="L56" t="s">
+        <v>147</v>
+      </c>
+      <c r="M56">
+        <f>VLOOKUP(K56,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
+        <v>0.27200000000000002</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>33</v>
+      </c>
+      <c r="C57" t="s">
+        <v>33</v>
+      </c>
+      <c r="D57" t="s">
+        <v>33</v>
+      </c>
+      <c r="E57" t="s">
+        <v>33</v>
+      </c>
+      <c r="F57" t="s">
+        <v>41</v>
+      </c>
+      <c r="G57" t="s">
+        <v>37</v>
+      </c>
+      <c r="H57" t="s">
+        <v>126</v>
+      </c>
+      <c r="I57" t="s">
+        <v>50</v>
+      </c>
+      <c r="J57">
+        <v>16</v>
+      </c>
+      <c r="K57" t="s">
+        <v>138</v>
+      </c>
+      <c r="L57" t="s">
+        <v>139</v>
+      </c>
+      <c r="M57">
+        <f>VLOOKUP(K57,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
+        <v>0.26400000000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>33</v>
+      </c>
+      <c r="C58" t="s">
+        <v>33</v>
+      </c>
+      <c r="D58" t="s">
+        <v>33</v>
+      </c>
+      <c r="E58" t="s">
+        <v>34</v>
+      </c>
+      <c r="F58" t="s">
+        <v>41</v>
+      </c>
+      <c r="G58" t="s">
+        <v>37</v>
+      </c>
+      <c r="H58" t="s">
+        <v>126</v>
+      </c>
+      <c r="I58" t="s">
+        <v>50</v>
+      </c>
+      <c r="J58">
+        <v>17</v>
+      </c>
+      <c r="K58" t="s">
         <v>136</v>
       </c>
-      <c r="L50" t="s">
+      <c r="L58" t="s">
         <v>137</v>
       </c>
+      <c r="M58">
+        <f>VLOOKUP(K58,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
+        <v>0.25700000000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>33</v>
+      </c>
+      <c r="C59" t="s">
+        <v>33</v>
+      </c>
+      <c r="D59" t="s">
+        <v>33</v>
+      </c>
+      <c r="E59" t="s">
+        <v>34</v>
+      </c>
+      <c r="F59" t="s">
+        <v>41</v>
+      </c>
+      <c r="G59" t="s">
+        <v>37</v>
+      </c>
+      <c r="H59" t="s">
+        <v>126</v>
+      </c>
+      <c r="I59" t="s">
+        <v>142</v>
+      </c>
+      <c r="J59">
+        <v>27</v>
+      </c>
+      <c r="K59" t="s">
+        <v>161</v>
+      </c>
+      <c r="L59" t="s">
+        <v>162</v>
+      </c>
+      <c r="M59">
+        <f>VLOOKUP(K59,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
+        <v>0.254</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>33</v>
+      </c>
+      <c r="C60" t="s">
+        <v>33</v>
+      </c>
+      <c r="D60" t="s">
+        <v>33</v>
+      </c>
+      <c r="E60" t="s">
+        <v>34</v>
+      </c>
+      <c r="F60" t="s">
+        <v>41</v>
+      </c>
+      <c r="G60" t="s">
+        <v>37</v>
+      </c>
+      <c r="H60" t="s">
+        <v>126</v>
+      </c>
+      <c r="I60" t="s">
+        <v>142</v>
+      </c>
+      <c r="J60">
+        <v>31</v>
+      </c>
+      <c r="K60" t="s">
+        <v>169</v>
+      </c>
+      <c r="L60" t="s">
+        <v>170</v>
+      </c>
+      <c r="M60">
+        <f>VLOOKUP(K60,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
+        <v>0.249</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <f>A59+1</f>
+        <v>1</v>
+      </c>
+      <c r="B61" t="s">
+        <v>33</v>
+      </c>
+      <c r="C61" t="s">
+        <v>33</v>
+      </c>
+      <c r="D61" t="s">
+        <v>33</v>
+      </c>
+      <c r="E61" t="s">
+        <v>33</v>
+      </c>
+      <c r="F61" t="s">
+        <v>41</v>
+      </c>
+      <c r="G61" t="s">
+        <v>37</v>
+      </c>
+      <c r="H61" t="s">
+        <v>126</v>
+      </c>
+      <c r="I61" t="s">
+        <v>51</v>
+      </c>
+      <c r="J61">
+        <v>4</v>
+      </c>
+      <c r="K61" t="s">
+        <v>92</v>
+      </c>
+      <c r="L61" t="s">
+        <v>93</v>
+      </c>
+      <c r="M61">
+        <f>VLOOKUP(K61,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
+        <v>0.23599999999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>33</v>
+      </c>
+      <c r="C62" t="s">
+        <v>33</v>
+      </c>
+      <c r="D62" t="s">
+        <v>33</v>
+      </c>
+      <c r="E62" t="s">
+        <v>34</v>
+      </c>
+      <c r="F62" t="s">
+        <v>41</v>
+      </c>
+      <c r="G62" t="s">
+        <v>37</v>
+      </c>
+      <c r="H62" t="s">
+        <v>126</v>
+      </c>
+      <c r="I62" t="s">
+        <v>142</v>
+      </c>
+      <c r="J62">
+        <v>22</v>
+      </c>
+      <c r="K62" t="s">
+        <v>146</v>
+      </c>
+      <c r="L62" t="s">
+        <v>154</v>
+      </c>
+      <c r="M62">
+        <f>VLOOKUP(K62,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
+        <v>0.23499999999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <f>A60+1</f>
+        <v>1</v>
+      </c>
+      <c r="B63" t="s">
+        <v>33</v>
+      </c>
+      <c r="C63" t="s">
+        <v>33</v>
+      </c>
+      <c r="D63" t="s">
+        <v>33</v>
+      </c>
+      <c r="E63" t="s">
+        <v>34</v>
+      </c>
+      <c r="F63" t="s">
+        <v>41</v>
+      </c>
+      <c r="G63" t="s">
+        <v>37</v>
+      </c>
+      <c r="H63" t="s">
+        <v>126</v>
+      </c>
+      <c r="I63" t="s">
+        <v>51</v>
+      </c>
+      <c r="J63">
+        <v>3</v>
+      </c>
+      <c r="K63" t="s">
+        <v>47</v>
+      </c>
+      <c r="L63" t="s">
+        <v>87</v>
+      </c>
+      <c r="M63">
+        <f>VLOOKUP(K63,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="N63" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>33</v>
+      </c>
+      <c r="C64" t="s">
+        <v>33</v>
+      </c>
+      <c r="D64" t="s">
+        <v>33</v>
+      </c>
+      <c r="E64" t="s">
+        <v>34</v>
+      </c>
+      <c r="F64" t="s">
+        <v>41</v>
+      </c>
+      <c r="G64" t="s">
+        <v>37</v>
+      </c>
+      <c r="H64" t="s">
+        <v>126</v>
+      </c>
+      <c r="I64" t="s">
+        <v>142</v>
+      </c>
+      <c r="J64">
+        <v>18</v>
+      </c>
+      <c r="K64" t="s">
+        <v>143</v>
+      </c>
+      <c r="L64" t="s">
+        <v>149</v>
+      </c>
+      <c r="M64">
+        <f>VLOOKUP(K64,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
+        <v>0.224</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <f>A63+1</f>
+        <v>2</v>
+      </c>
+      <c r="B65" t="s">
+        <v>33</v>
+      </c>
+      <c r="C65" t="s">
+        <v>33</v>
+      </c>
+      <c r="D65" t="s">
+        <v>33</v>
+      </c>
+      <c r="E65" t="s">
+        <v>34</v>
+      </c>
+      <c r="F65" t="s">
+        <v>41</v>
+      </c>
+      <c r="G65" t="s">
+        <v>37</v>
+      </c>
+      <c r="H65" t="s">
+        <v>126</v>
+      </c>
+      <c r="I65" t="s">
+        <v>51</v>
+      </c>
+      <c r="J65">
+        <v>2</v>
+      </c>
+      <c r="K65" t="s">
+        <v>91</v>
+      </c>
+      <c r="L65" t="s">
+        <v>118</v>
+      </c>
+      <c r="M65">
+        <f>VLOOKUP(K65,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
+        <v>0.188</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <f>A64+1</f>
+        <v>1</v>
+      </c>
+      <c r="B66" t="s">
+        <v>33</v>
+      </c>
+      <c r="C66" t="s">
+        <v>33</v>
+      </c>
+      <c r="D66" t="s">
+        <v>33</v>
+      </c>
+      <c r="E66" t="s">
+        <v>34</v>
+      </c>
+      <c r="F66" t="s">
+        <v>41</v>
+      </c>
+      <c r="G66" t="s">
+        <v>37</v>
+      </c>
+      <c r="H66" t="s">
+        <v>126</v>
+      </c>
+      <c r="I66" t="s">
+        <v>51</v>
+      </c>
+      <c r="J66">
+        <v>1</v>
+      </c>
+      <c r="K66" t="s">
+        <v>48</v>
+      </c>
+      <c r="L66" t="s">
+        <v>84</v>
+      </c>
+      <c r="M66">
+        <f>VLOOKUP(K66,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="N66" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <f>A66+1</f>
+        <v>2</v>
+      </c>
+      <c r="B67" t="s">
+        <v>33</v>
+      </c>
+      <c r="C67" t="s">
+        <v>33</v>
+      </c>
+      <c r="D67" t="s">
+        <v>33</v>
+      </c>
+      <c r="E67" t="s">
+        <v>33</v>
+      </c>
+      <c r="F67" t="s">
+        <v>41</v>
+      </c>
+      <c r="G67" t="s">
+        <v>37</v>
+      </c>
+      <c r="H67" t="s">
+        <v>126</v>
+      </c>
+      <c r="I67" t="s">
+        <v>50</v>
+      </c>
+      <c r="J67">
+        <v>2</v>
+      </c>
+      <c r="K67" t="s">
+        <v>85</v>
+      </c>
+      <c r="L67" t="s">
+        <v>83</v>
+      </c>
+      <c r="M67" t="e">
+        <f>VLOOKUP(K67,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <f>A66+1</f>
+        <v>2</v>
+      </c>
+      <c r="B68" t="s">
+        <v>33</v>
+      </c>
+      <c r="C68" t="s">
+        <v>33</v>
+      </c>
+      <c r="D68" t="s">
+        <v>33</v>
+      </c>
+      <c r="E68" t="s">
+        <v>33</v>
+      </c>
+      <c r="F68" t="s">
+        <v>41</v>
+      </c>
+      <c r="G68" t="s">
+        <v>37</v>
+      </c>
+      <c r="H68" t="s">
+        <v>126</v>
+      </c>
+      <c r="I68" t="s">
+        <v>43</v>
+      </c>
+      <c r="J68">
+        <v>5</v>
+      </c>
+      <c r="K68" t="s">
+        <v>94</v>
+      </c>
+      <c r="L68" t="s">
+        <v>133</v>
+      </c>
+      <c r="M68" t="e">
+        <f>VLOOKUP(K68,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <f>A67+1</f>
+        <v>3</v>
+      </c>
+      <c r="B69" t="s">
+        <v>33</v>
+      </c>
+      <c r="C69" t="s">
+        <v>33</v>
+      </c>
+      <c r="D69" t="s">
+        <v>34</v>
+      </c>
+      <c r="E69" t="s">
+        <v>34</v>
+      </c>
+      <c r="F69" t="s">
+        <v>41</v>
+      </c>
+      <c r="G69" t="s">
+        <v>37</v>
+      </c>
+      <c r="H69" t="s">
+        <v>126</v>
+      </c>
+      <c r="I69" t="s">
+        <v>50</v>
+      </c>
+      <c r="J69">
+        <v>3</v>
+      </c>
+      <c r="K69" t="s">
+        <v>101</v>
+      </c>
+      <c r="L69" t="s">
+        <v>117</v>
+      </c>
+      <c r="M69" t="e">
+        <f>VLOOKUP(K69,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N69" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <f>A68+1</f>
+        <v>3</v>
+      </c>
+      <c r="B70" t="s">
+        <v>33</v>
+      </c>
+      <c r="C70" t="s">
+        <v>33</v>
+      </c>
+      <c r="D70" t="s">
+        <v>34</v>
+      </c>
+      <c r="E70" t="s">
+        <v>34</v>
+      </c>
+      <c r="F70" t="s">
+        <v>41</v>
+      </c>
+      <c r="G70" t="s">
+        <v>37</v>
+      </c>
+      <c r="H70" t="s">
+        <v>126</v>
+      </c>
+      <c r="I70" t="s">
+        <v>50</v>
+      </c>
+      <c r="J70">
+        <v>4</v>
+      </c>
+      <c r="K70" t="s">
+        <v>102</v>
+      </c>
+      <c r="L70" t="s">
+        <v>103</v>
+      </c>
+      <c r="M70" t="e">
+        <f>VLOOKUP(K70,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N70" t="s">
+        <v>109</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M50">
-    <filterColumn colId="4">
+  <autoFilter ref="A1:N70">
+    <filterColumn colId="12">
       <filters>
-        <filter val="yes"/>
+        <filter val="0.165"/>
+        <filter val="0.188"/>
+        <filter val="0.224"/>
+        <filter val="0.234"/>
+        <filter val="0.235"/>
+        <filter val="0.236"/>
+        <filter val="0.249"/>
+        <filter val="0.254"/>
+        <filter val="0.257"/>
+        <filter val="0.264"/>
+        <filter val="0.272"/>
+        <filter val="0.285"/>
+        <filter val="0.298"/>
+        <filter val="0.3"/>
+        <filter val="0.301"/>
+        <filter val="0.309"/>
+        <filter val="0.325"/>
+        <filter val="0.326"/>
+        <filter val="0.341"/>
+        <filter val="0.345"/>
+        <filter val="0.348"/>
+        <filter val="0.35"/>
+        <filter val="0.352"/>
+        <filter val="0.355"/>
+        <filter val="0.356"/>
+        <filter val="0.365"/>
+        <filter val="0.378"/>
+        <filter val="0.391"/>
+        <filter val="0.396"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <sortState ref="A2:M52">
-    <sortCondition ref="B2:B52"/>
-    <sortCondition ref="K2:K52"/>
+    <sortCondition ref="I2:I52"/>
+    <sortCondition ref="J2:J52"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/data/features.xlsx
+++ b/data/features.xlsx
@@ -18,7 +18,7 @@
     <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">features!$A$1:$N$70</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">features!$A$1:$O$70</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="184">
   <si>
     <t>title</t>
   </si>
@@ -428,9 +428,6 @@
     <t>Total number of allocated, previously earned IMDB votes for the cast of a film</t>
   </si>
   <si>
-    <t>Total number of allocated, previously earned composite score points for the cast of a film</t>
-  </si>
-  <si>
     <t>Log runtime of movie (in log minutes)</t>
   </si>
   <si>
@@ -570,6 +567,21 @@
   </si>
   <si>
     <t>Correlation</t>
+  </si>
+  <si>
+    <t>final</t>
+  </si>
+  <si>
+    <t>Total number of allocated composite score points for the cast of a film</t>
+  </si>
+  <si>
+    <t>Response</t>
+  </si>
+  <si>
+    <t>box_office_log</t>
+  </si>
+  <si>
+    <t>Log of box office revenue</t>
   </si>
 </sst>
 </file>
@@ -640,7 +652,7 @@
       <sheetName val="Sheet 1"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
+      <sheetData sheetId="0" refreshError="1">
         <row r="1">
           <cell r="A1" t="str">
             <v>Variable</v>
@@ -1158,25 +1170,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:N70"/>
+  <dimension ref="A1:O71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="9.140625" customWidth="1"/>
-    <col min="7" max="9" width="10.85546875" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" customWidth="1"/>
-    <col min="11" max="11" width="38" customWidth="1"/>
-    <col min="12" max="12" width="69.140625" customWidth="1"/>
-    <col min="13" max="13" width="17.140625" customWidth="1"/>
-    <col min="14" max="14" width="45.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
+    <col min="8" max="10" width="10.85546875" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" customWidth="1"/>
+    <col min="12" max="12" width="38" customWidth="1"/>
+    <col min="13" max="13" width="69.140625" customWidth="1"/>
+    <col min="14" max="14" width="17.140625" customWidth="1"/>
+    <col min="15" max="15" width="45.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>86</v>
       </c>
@@ -1193,34 +1204,37 @@
         <v>121</v>
       </c>
       <c r="F1" t="s">
+        <v>179</v>
+      </c>
+      <c r="G1" t="s">
         <v>38</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>35</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>125</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>42</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>46</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>31</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>32</v>
       </c>
-      <c r="M1" t="s">
-        <v>179</v>
-      </c>
       <c r="N1" t="s">
+        <v>178</v>
+      </c>
+      <c r="O1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>34</v>
       </c>
@@ -1234,35 +1248,38 @@
         <v>34</v>
       </c>
       <c r="F2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" t="s">
         <v>40</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>36</v>
       </c>
-      <c r="H2" t="s">
-        <v>126</v>
-      </c>
       <c r="I2" t="s">
+        <v>126</v>
+      </c>
+      <c r="J2" t="s">
         <v>43</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>1</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>0</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>52</v>
       </c>
-      <c r="M2" t="e">
-        <f>VLOOKUP(K2,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
+      <c r="N2" t="e">
+        <f>VLOOKUP(L2,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1279,35 +1296,38 @@
         <v>34</v>
       </c>
       <c r="F3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" t="s">
         <v>40</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>36</v>
       </c>
-      <c r="H3" t="s">
-        <v>126</v>
-      </c>
       <c r="I3" t="s">
+        <v>126</v>
+      </c>
+      <c r="J3" t="s">
         <v>43</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>2</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>1</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>53</v>
       </c>
-      <c r="M3" t="e">
-        <f>VLOOKUP(K3,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
+      <c r="N3" t="e">
+        <f>VLOOKUP(L3,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="4" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <f>A3+1</f>
         <v>2</v>
@@ -1325,32 +1345,35 @@
         <v>33</v>
       </c>
       <c r="F4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" t="s">
         <v>40</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>36</v>
       </c>
-      <c r="H4" t="s">
-        <v>126</v>
-      </c>
       <c r="I4" t="s">
+        <v>126</v>
+      </c>
+      <c r="J4" t="s">
         <v>43</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>3</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>2</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>54</v>
       </c>
-      <c r="M4" t="e">
-        <f>VLOOKUP(K4,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
+      <c r="N4" t="e">
+        <f>VLOOKUP(L4,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="5" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <f>A3+1</f>
         <v>2</v>
@@ -1368,35 +1391,38 @@
         <v>34</v>
       </c>
       <c r="F5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" t="s">
         <v>40</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>37</v>
       </c>
-      <c r="H5" t="s">
-        <v>126</v>
-      </c>
       <c r="I5" t="s">
+        <v>126</v>
+      </c>
+      <c r="J5" t="s">
         <v>43</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>4</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>3</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>55</v>
       </c>
-      <c r="M5" t="e">
-        <f>VLOOKUP(K5,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
+      <c r="N5" t="e">
+        <f>VLOOKUP(L5,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>33</v>
       </c>
@@ -1410,32 +1436,35 @@
         <v>33</v>
       </c>
       <c r="F6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" t="s">
         <v>41</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>37</v>
       </c>
-      <c r="H6" t="s">
-        <v>126</v>
-      </c>
       <c r="I6" t="s">
-        <v>142</v>
-      </c>
-      <c r="J6">
+        <v>126</v>
+      </c>
+      <c r="J6" t="s">
+        <v>141</v>
+      </c>
+      <c r="K6">
         <v>20</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
+        <v>149</v>
+      </c>
+      <c r="M6" t="s">
         <v>150</v>
       </c>
-      <c r="L6" t="s">
-        <v>151</v>
-      </c>
-      <c r="M6">
-        <f>VLOOKUP(K6,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
+      <c r="N6">
+        <f>VLOOKUP(L6,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
         <v>0.39600000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
         <f>A6+1</f>
         <v>1</v>
@@ -1453,32 +1482,35 @@
         <v>33</v>
       </c>
       <c r="F7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" t="s">
         <v>40</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>36</v>
       </c>
-      <c r="H7" t="s">
-        <v>126</v>
-      </c>
       <c r="I7" t="s">
+        <v>126</v>
+      </c>
+      <c r="J7" t="s">
         <v>43</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>6</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>4</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>56</v>
       </c>
-      <c r="M7" t="e">
-        <f>VLOOKUP(K7,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
+      <c r="N7" t="e">
+        <f>VLOOKUP(L7,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="8" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>34</v>
       </c>
@@ -1492,35 +1524,38 @@
         <v>34</v>
       </c>
       <c r="F8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" t="s">
         <v>40</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>36</v>
       </c>
-      <c r="H8" t="s">
-        <v>126</v>
-      </c>
       <c r="I8" t="s">
+        <v>126</v>
+      </c>
+      <c r="J8" t="s">
         <v>43</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>7</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>29</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>57</v>
       </c>
-      <c r="M8" t="e">
-        <f>VLOOKUP(K8,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
+      <c r="N8" t="e">
+        <f>VLOOKUP(L8,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="9" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>34</v>
       </c>
@@ -1534,35 +1569,38 @@
         <v>34</v>
       </c>
       <c r="F9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" t="s">
         <v>40</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>36</v>
       </c>
-      <c r="H9" t="s">
-        <v>126</v>
-      </c>
       <c r="I9" t="s">
+        <v>126</v>
+      </c>
+      <c r="J9" t="s">
         <v>43</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>8</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>30</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>58</v>
       </c>
-      <c r="M9" t="e">
-        <f>VLOOKUP(K9,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
+      <c r="N9" t="e">
+        <f>VLOOKUP(L9,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="10" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
         <f>A9+1</f>
         <v>1</v>
@@ -1580,35 +1618,38 @@
         <v>34</v>
       </c>
       <c r="F10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" t="s">
         <v>40</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>36</v>
       </c>
-      <c r="H10" t="s">
-        <v>126</v>
-      </c>
       <c r="I10" t="s">
+        <v>126</v>
+      </c>
+      <c r="J10" t="s">
         <v>44</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>1</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>5</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>99</v>
       </c>
-      <c r="M10" t="e">
-        <f>VLOOKUP(K10,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
+      <c r="N10" t="e">
+        <f>VLOOKUP(L10,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="11" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
         <f>A10+1</f>
         <v>2</v>
@@ -1626,35 +1667,38 @@
         <v>34</v>
       </c>
       <c r="F11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" t="s">
         <v>40</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>36</v>
       </c>
-      <c r="H11" t="s">
-        <v>126</v>
-      </c>
       <c r="I11" t="s">
+        <v>126</v>
+      </c>
+      <c r="J11" t="s">
         <v>44</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>2</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>23</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>59</v>
       </c>
-      <c r="M11" t="e">
-        <f>VLOOKUP(K11,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
+      <c r="N11" t="e">
+        <f>VLOOKUP(L11,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="12" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>34</v>
       </c>
@@ -1668,35 +1712,38 @@
         <v>34</v>
       </c>
       <c r="F12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" t="s">
         <v>40</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>36</v>
       </c>
-      <c r="H12" t="s">
-        <v>126</v>
-      </c>
       <c r="I12" t="s">
+        <v>126</v>
+      </c>
+      <c r="J12" t="s">
         <v>44</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>3</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>24</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>60</v>
       </c>
-      <c r="M12" t="e">
-        <f>VLOOKUP(K12,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
+      <c r="N12" t="e">
+        <f>VLOOKUP(L12,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="13" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>34</v>
       </c>
@@ -1710,35 +1757,38 @@
         <v>34</v>
       </c>
       <c r="F13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" t="s">
         <v>40</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>36</v>
       </c>
-      <c r="H13" t="s">
-        <v>126</v>
-      </c>
       <c r="I13" t="s">
+        <v>126</v>
+      </c>
+      <c r="J13" t="s">
         <v>44</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>4</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>25</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>61</v>
       </c>
-      <c r="M13" t="e">
-        <f>VLOOKUP(K13,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
+      <c r="N13" t="e">
+        <f>VLOOKUP(L13,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>34</v>
       </c>
@@ -1752,35 +1802,38 @@
         <v>34</v>
       </c>
       <c r="F14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" t="s">
         <v>40</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>36</v>
       </c>
-      <c r="H14" t="s">
-        <v>126</v>
-      </c>
       <c r="I14" t="s">
+        <v>126</v>
+      </c>
+      <c r="J14" t="s">
         <v>44</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>5</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>26</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="s">
         <v>62</v>
       </c>
-      <c r="M14" t="e">
-        <f>VLOOKUP(K14,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
+      <c r="N14" t="e">
+        <f>VLOOKUP(L14,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>34</v>
       </c>
@@ -1794,35 +1847,38 @@
         <v>34</v>
       </c>
       <c r="F15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" t="s">
         <v>40</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>36</v>
       </c>
-      <c r="H15" t="s">
-        <v>126</v>
-      </c>
       <c r="I15" t="s">
+        <v>126</v>
+      </c>
+      <c r="J15" t="s">
         <v>44</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>6</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>27</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="s">
         <v>63</v>
       </c>
-      <c r="M15" t="e">
-        <f>VLOOKUP(K15,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
+      <c r="N15" t="e">
+        <f>VLOOKUP(L15,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="N15" t="s">
+      <c r="O15" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="16" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>34</v>
       </c>
@@ -1836,35 +1892,38 @@
         <v>34</v>
       </c>
       <c r="F16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" t="s">
         <v>40</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>36</v>
       </c>
-      <c r="H16" t="s">
-        <v>126</v>
-      </c>
       <c r="I16" t="s">
+        <v>126</v>
+      </c>
+      <c r="J16" t="s">
         <v>44</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>7</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>28</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="s">
         <v>64</v>
       </c>
-      <c r="M16" t="e">
-        <f>VLOOKUP(K16,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
+      <c r="N16" t="e">
+        <f>VLOOKUP(L16,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="N16" t="s">
+      <c r="O16" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>34</v>
       </c>
@@ -1878,35 +1937,38 @@
         <v>34</v>
       </c>
       <c r="F17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" t="s">
         <v>40</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>36</v>
       </c>
-      <c r="H17" t="s">
-        <v>126</v>
-      </c>
       <c r="I17" t="s">
+        <v>126</v>
+      </c>
+      <c r="J17" t="s">
         <v>45</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>1</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>122</v>
       </c>
-      <c r="L17" t="s">
+      <c r="M17" t="s">
         <v>123</v>
       </c>
-      <c r="M17" t="e">
-        <f>VLOOKUP(K17,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
+      <c r="N17" t="e">
+        <f>VLOOKUP(L17,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="N17" t="s">
+      <c r="O17" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="18" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>34</v>
       </c>
@@ -1920,35 +1982,38 @@
         <v>34</v>
       </c>
       <c r="F18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" t="s">
         <v>40</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>36</v>
       </c>
-      <c r="H18" t="s">
-        <v>126</v>
-      </c>
       <c r="I18" t="s">
+        <v>126</v>
+      </c>
+      <c r="J18" t="s">
         <v>45</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>1</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
         <v>6</v>
       </c>
-      <c r="L18" t="s">
+      <c r="M18" t="s">
         <v>65</v>
       </c>
-      <c r="M18" t="e">
-        <f>VLOOKUP(K18,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
+      <c r="N18" t="e">
+        <f>VLOOKUP(L18,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="N18" t="s">
+      <c r="O18" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="19" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="e">
         <f>#REF!+1</f>
         <v>#REF!</v>
@@ -1966,32 +2031,35 @@
         <v>34</v>
       </c>
       <c r="F19" t="s">
+        <v>33</v>
+      </c>
+      <c r="G19" t="s">
         <v>40</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>36</v>
       </c>
-      <c r="H19" t="s">
-        <v>126</v>
-      </c>
       <c r="I19" t="s">
+        <v>126</v>
+      </c>
+      <c r="J19" t="s">
         <v>45</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>3</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>7</v>
       </c>
-      <c r="L19" t="s">
+      <c r="M19" t="s">
         <v>66</v>
       </c>
-      <c r="M19" t="e">
-        <f>VLOOKUP(K19,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
+      <c r="N19" t="e">
+        <f>VLOOKUP(L19,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="20" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>34</v>
       </c>
@@ -2005,35 +2073,38 @@
         <v>34</v>
       </c>
       <c r="F20" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" t="s">
         <v>40</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>36</v>
       </c>
-      <c r="H20" t="s">
-        <v>126</v>
-      </c>
       <c r="I20" t="s">
+        <v>126</v>
+      </c>
+      <c r="J20" t="s">
         <v>45</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>4</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
         <v>8</v>
       </c>
-      <c r="L20" t="s">
+      <c r="M20" t="s">
         <v>67</v>
       </c>
-      <c r="M20" t="e">
-        <f>VLOOKUP(K20,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
+      <c r="N20" t="e">
+        <f>VLOOKUP(L20,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="N20" t="s">
+      <c r="O20" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="21" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>33</v>
       </c>
@@ -2047,32 +2118,35 @@
         <v>34</v>
       </c>
       <c r="F21" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" t="s">
         <v>41</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>37</v>
       </c>
-      <c r="H21" t="s">
-        <v>126</v>
-      </c>
       <c r="I21" t="s">
+        <v>126</v>
+      </c>
+      <c r="J21" t="s">
         <v>45</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>5</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>90</v>
       </c>
-      <c r="L21" t="s">
+      <c r="M21" t="s">
         <v>116</v>
       </c>
-      <c r="M21" t="e">
-        <f>VLOOKUP(K21,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
+      <c r="N21" t="e">
+        <f>VLOOKUP(L21,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="22" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>33</v>
       </c>
@@ -2086,35 +2160,38 @@
         <v>34</v>
       </c>
       <c r="F22" t="s">
+        <v>34</v>
+      </c>
+      <c r="G22" t="s">
         <v>41</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>37</v>
       </c>
-      <c r="H22" t="s">
-        <v>126</v>
-      </c>
       <c r="I22" t="s">
+        <v>126</v>
+      </c>
+      <c r="J22" t="s">
         <v>45</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>6</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>95</v>
       </c>
-      <c r="L22" t="s">
+      <c r="M22" t="s">
         <v>100</v>
       </c>
-      <c r="M22" t="e">
-        <f>VLOOKUP(K22,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
+      <c r="N22" t="e">
+        <f>VLOOKUP(L22,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="N22" t="s">
+      <c r="O22" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="23" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>34</v>
       </c>
@@ -2128,35 +2205,38 @@
         <v>34</v>
       </c>
       <c r="F23" t="s">
+        <v>34</v>
+      </c>
+      <c r="G23" t="s">
         <v>40</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>36</v>
       </c>
-      <c r="H23" t="s">
-        <v>126</v>
-      </c>
       <c r="I23" t="s">
+        <v>126</v>
+      </c>
+      <c r="J23" t="s">
         <v>45</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>7</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
         <v>9</v>
       </c>
-      <c r="L23" t="s">
+      <c r="M23" t="s">
         <v>68</v>
       </c>
-      <c r="M23" t="e">
-        <f>VLOOKUP(K23,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
+      <c r="N23" t="e">
+        <f>VLOOKUP(L23,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="N23" t="s">
+      <c r="O23" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="24" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>34</v>
       </c>
@@ -2170,35 +2250,38 @@
         <v>34</v>
       </c>
       <c r="F24" t="s">
+        <v>34</v>
+      </c>
+      <c r="G24" t="s">
         <v>40</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>36</v>
       </c>
-      <c r="H24" t="s">
-        <v>126</v>
-      </c>
       <c r="I24" t="s">
+        <v>126</v>
+      </c>
+      <c r="J24" t="s">
         <v>45</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>8</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
         <v>10</v>
       </c>
-      <c r="L24" t="s">
+      <c r="M24" t="s">
         <v>69</v>
       </c>
-      <c r="M24" t="e">
-        <f>VLOOKUP(K24,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
+      <c r="N24" t="e">
+        <f>VLOOKUP(L24,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="N24" t="s">
+      <c r="O24" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="25" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>34</v>
       </c>
@@ -2212,35 +2295,38 @@
         <v>34</v>
       </c>
       <c r="F25" t="s">
+        <v>34</v>
+      </c>
+      <c r="G25" t="s">
         <v>40</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>36</v>
       </c>
-      <c r="H25" t="s">
-        <v>126</v>
-      </c>
       <c r="I25" t="s">
+        <v>126</v>
+      </c>
+      <c r="J25" t="s">
         <v>45</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>9</v>
       </c>
-      <c r="K25" t="s">
+      <c r="L25" t="s">
         <v>11</v>
       </c>
-      <c r="L25" t="s">
+      <c r="M25" t="s">
         <v>70</v>
       </c>
-      <c r="M25" t="e">
-        <f>VLOOKUP(K25,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
+      <c r="N25" t="e">
+        <f>VLOOKUP(L25,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="N25" t="s">
+      <c r="O25" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26">
         <f>A25+1</f>
         <v>1</v>
@@ -2258,35 +2344,38 @@
         <v>33</v>
       </c>
       <c r="F26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G26" t="s">
         <v>41</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>37</v>
       </c>
-      <c r="H26" t="s">
-        <v>126</v>
-      </c>
       <c r="I26" t="s">
+        <v>126</v>
+      </c>
+      <c r="J26" t="s">
         <v>50</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>14</v>
       </c>
-      <c r="K26" t="s">
+      <c r="L26" t="s">
         <v>127</v>
       </c>
-      <c r="L26" t="s">
-        <v>132</v>
-      </c>
-      <c r="M26">
-        <f>VLOOKUP(K26,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
+      <c r="M26" t="s">
+        <v>180</v>
+      </c>
+      <c r="N26">
+        <f>VLOOKUP(L26,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
         <v>0.39100000000000001</v>
       </c>
-      <c r="N26" t="s">
+      <c r="O26" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>33</v>
       </c>
@@ -2300,32 +2389,35 @@
         <v>34</v>
       </c>
       <c r="F27" t="s">
+        <v>34</v>
+      </c>
+      <c r="G27" t="s">
         <v>41</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>37</v>
       </c>
-      <c r="H27" t="s">
-        <v>126</v>
-      </c>
       <c r="I27" t="s">
-        <v>142</v>
-      </c>
-      <c r="J27">
+        <v>126</v>
+      </c>
+      <c r="J27" t="s">
+        <v>141</v>
+      </c>
+      <c r="K27">
         <v>21</v>
       </c>
-      <c r="K27" t="s">
+      <c r="L27" t="s">
+        <v>151</v>
+      </c>
+      <c r="M27" t="s">
         <v>152</v>
       </c>
-      <c r="L27" t="s">
-        <v>153</v>
-      </c>
-      <c r="M27">
-        <f>VLOOKUP(K27,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
+      <c r="N27">
+        <f>VLOOKUP(L27,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
         <v>0.378</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>33</v>
       </c>
@@ -2339,32 +2431,35 @@
         <v>33</v>
       </c>
       <c r="F28" t="s">
+        <v>34</v>
+      </c>
+      <c r="G28" t="s">
         <v>41</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>37</v>
       </c>
-      <c r="H28" t="s">
-        <v>126</v>
-      </c>
       <c r="I28" t="s">
-        <v>142</v>
-      </c>
-      <c r="J28">
+        <v>126</v>
+      </c>
+      <c r="J28" t="s">
+        <v>141</v>
+      </c>
+      <c r="K28">
         <v>29</v>
       </c>
-      <c r="K28" t="s">
+      <c r="L28" t="s">
+        <v>164</v>
+      </c>
+      <c r="M28" t="s">
         <v>165</v>
       </c>
-      <c r="L28" t="s">
-        <v>166</v>
-      </c>
-      <c r="M28">
-        <f>VLOOKUP(K28,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
+      <c r="N28">
+        <f>VLOOKUP(L28,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
         <v>0.36499999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>33</v>
       </c>
@@ -2378,32 +2473,35 @@
         <v>33</v>
       </c>
       <c r="F29" t="s">
+        <v>34</v>
+      </c>
+      <c r="G29" t="s">
         <v>41</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>37</v>
       </c>
-      <c r="H29" t="s">
-        <v>126</v>
-      </c>
       <c r="I29" t="s">
-        <v>142</v>
-      </c>
-      <c r="J29">
-        <v>33</v>
-      </c>
-      <c r="K29" t="s">
+        <v>126</v>
+      </c>
+      <c r="J29" t="s">
+        <v>141</v>
+      </c>
+      <c r="K29">
+        <v>33</v>
+      </c>
+      <c r="L29" t="s">
+        <v>172</v>
+      </c>
+      <c r="M29" t="s">
         <v>173</v>
       </c>
-      <c r="L29" t="s">
-        <v>174</v>
-      </c>
-      <c r="M29">
-        <f>VLOOKUP(K29,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
+      <c r="N29">
+        <f>VLOOKUP(L29,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
         <v>0.35599999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30">
         <f>A27+1</f>
         <v>1</v>
@@ -2421,35 +2519,38 @@
         <v>34</v>
       </c>
       <c r="F30" t="s">
+        <v>33</v>
+      </c>
+      <c r="G30" t="s">
         <v>40</v>
       </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
         <v>37</v>
       </c>
-      <c r="H30" t="s">
-        <v>126</v>
-      </c>
       <c r="I30" t="s">
+        <v>126</v>
+      </c>
+      <c r="J30" t="s">
         <v>50</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>1</v>
       </c>
-      <c r="K30" t="s">
+      <c r="L30" t="s">
         <v>13</v>
       </c>
-      <c r="L30" t="s">
+      <c r="M30" t="s">
         <v>72</v>
       </c>
-      <c r="M30" t="e">
-        <f>VLOOKUP(K30,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
+      <c r="N30" t="e">
+        <f>VLOOKUP(L30,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="N30" t="s">
+      <c r="O30" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>33</v>
       </c>
@@ -2463,32 +2564,35 @@
         <v>34</v>
       </c>
       <c r="F31" t="s">
+        <v>34</v>
+      </c>
+      <c r="G31" t="s">
         <v>41</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>37</v>
       </c>
-      <c r="H31" t="s">
-        <v>126</v>
-      </c>
       <c r="I31" t="s">
-        <v>142</v>
-      </c>
-      <c r="J31">
-        <v>34</v>
-      </c>
-      <c r="K31" t="s">
+        <v>126</v>
+      </c>
+      <c r="J31" t="s">
+        <v>141</v>
+      </c>
+      <c r="K31">
+        <v>34</v>
+      </c>
+      <c r="L31" t="s">
+        <v>174</v>
+      </c>
+      <c r="M31" t="s">
         <v>175</v>
       </c>
-      <c r="L31" t="s">
-        <v>176</v>
-      </c>
-      <c r="M31">
-        <f>VLOOKUP(K31,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
+      <c r="N31">
+        <f>VLOOKUP(L31,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
         <v>0.35499999999999998</v>
       </c>
     </row>
-    <row r="32" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32">
         <f>A31+1</f>
         <v>1</v>
@@ -2506,32 +2610,35 @@
         <v>34</v>
       </c>
       <c r="F32" t="s">
+        <v>33</v>
+      </c>
+      <c r="G32" t="s">
         <v>40</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>37</v>
       </c>
-      <c r="H32" t="s">
-        <v>126</v>
-      </c>
       <c r="I32" t="s">
+        <v>126</v>
+      </c>
+      <c r="J32" t="s">
         <v>50</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>3</v>
       </c>
-      <c r="K32" t="s">
+      <c r="L32" t="s">
         <v>12</v>
       </c>
-      <c r="L32" t="s">
+      <c r="M32" t="s">
         <v>71</v>
       </c>
-      <c r="M32" t="e">
-        <f>VLOOKUP(K32,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
+      <c r="N32" t="e">
+        <f>VLOOKUP(L32,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33">
         <f>A32+1</f>
         <v>2</v>
@@ -2549,32 +2656,35 @@
         <v>33</v>
       </c>
       <c r="F33" t="s">
+        <v>34</v>
+      </c>
+      <c r="G33" t="s">
         <v>41</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>37</v>
       </c>
-      <c r="H33" t="s">
-        <v>126</v>
-      </c>
       <c r="I33" t="s">
+        <v>126</v>
+      </c>
+      <c r="J33" t="s">
         <v>50</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>15</v>
       </c>
-      <c r="K33" t="s">
+      <c r="L33" t="s">
         <v>129</v>
       </c>
-      <c r="L33" t="s">
+      <c r="M33" t="s">
         <v>130</v>
       </c>
-      <c r="M33">
-        <f>VLOOKUP(K33,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
+      <c r="N33">
+        <f>VLOOKUP(L33,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
         <v>0.35199999999999998</v>
       </c>
     </row>
-    <row r="34" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>34</v>
       </c>
@@ -2588,35 +2698,38 @@
         <v>34</v>
       </c>
       <c r="F34" t="s">
+        <v>34</v>
+      </c>
+      <c r="G34" t="s">
         <v>40</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>36</v>
       </c>
-      <c r="H34" t="s">
-        <v>126</v>
-      </c>
       <c r="I34" t="s">
+        <v>126</v>
+      </c>
+      <c r="J34" t="s">
         <v>50</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>4</v>
       </c>
-      <c r="K34" t="s">
+      <c r="L34" t="s">
         <v>14</v>
       </c>
-      <c r="L34" t="s">
+      <c r="M34" t="s">
         <v>73</v>
       </c>
-      <c r="M34" t="e">
-        <f>VLOOKUP(K34,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
+      <c r="N34" t="e">
+        <f>VLOOKUP(L34,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="N34" t="s">
+      <c r="O34" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>33</v>
       </c>
@@ -2630,32 +2743,35 @@
         <v>34</v>
       </c>
       <c r="F35" t="s">
+        <v>34</v>
+      </c>
+      <c r="G35" t="s">
         <v>41</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>37</v>
       </c>
-      <c r="H35" t="s">
-        <v>126</v>
-      </c>
       <c r="I35" t="s">
-        <v>142</v>
-      </c>
-      <c r="J35">
+        <v>126</v>
+      </c>
+      <c r="J35" t="s">
+        <v>141</v>
+      </c>
+      <c r="K35">
         <v>35</v>
       </c>
-      <c r="K35" t="s">
+      <c r="L35" t="s">
+        <v>176</v>
+      </c>
+      <c r="M35" t="s">
         <v>177</v>
       </c>
-      <c r="L35" t="s">
-        <v>178</v>
-      </c>
-      <c r="M35">
-        <f>VLOOKUP(K35,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
+      <c r="N35">
+        <f>VLOOKUP(L35,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
         <v>0.35</v>
       </c>
     </row>
-    <row r="36" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>34</v>
       </c>
@@ -2669,35 +2785,38 @@
         <v>34</v>
       </c>
       <c r="F36" t="s">
+        <v>34</v>
+      </c>
+      <c r="G36" t="s">
         <v>40</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>36</v>
       </c>
-      <c r="H36" t="s">
-        <v>126</v>
-      </c>
       <c r="I36" t="s">
+        <v>126</v>
+      </c>
+      <c r="J36" t="s">
         <v>50</v>
       </c>
-      <c r="J36">
+      <c r="K36">
         <v>5</v>
       </c>
-      <c r="K36" t="s">
+      <c r="L36" t="s">
         <v>16</v>
       </c>
-      <c r="L36" t="s">
+      <c r="M36" t="s">
         <v>75</v>
       </c>
-      <c r="M36" t="e">
-        <f>VLOOKUP(K36,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
+      <c r="N36" t="e">
+        <f>VLOOKUP(L36,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="N36" t="s">
+      <c r="O36" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="37" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37">
         <f t="shared" ref="A37:A46" si="0">A36+1</f>
         <v>1</v>
@@ -2715,32 +2834,35 @@
         <v>34</v>
       </c>
       <c r="F37" t="s">
+        <v>33</v>
+      </c>
+      <c r="G37" t="s">
         <v>40</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>37</v>
       </c>
-      <c r="H37" t="s">
-        <v>126</v>
-      </c>
       <c r="I37" t="s">
+        <v>126</v>
+      </c>
+      <c r="J37" t="s">
         <v>50</v>
       </c>
-      <c r="J37">
+      <c r="K37">
         <v>6</v>
       </c>
-      <c r="K37" t="s">
+      <c r="L37" t="s">
         <v>15</v>
       </c>
-      <c r="L37" t="s">
+      <c r="M37" t="s">
         <v>74</v>
       </c>
-      <c r="M37" t="e">
-        <f>VLOOKUP(K37,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
+      <c r="N37" t="e">
+        <f>VLOOKUP(L37,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="38" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -2758,35 +2880,38 @@
         <v>34</v>
       </c>
       <c r="F38" t="s">
+        <v>33</v>
+      </c>
+      <c r="G38" t="s">
         <v>40</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
         <v>37</v>
       </c>
-      <c r="H38" t="s">
-        <v>126</v>
-      </c>
       <c r="I38" t="s">
+        <v>126</v>
+      </c>
+      <c r="J38" t="s">
         <v>50</v>
       </c>
-      <c r="J38">
+      <c r="K38">
         <v>7</v>
       </c>
-      <c r="K38" t="s">
+      <c r="L38" t="s">
         <v>17</v>
       </c>
-      <c r="L38" t="s">
+      <c r="M38" t="s">
         <v>76</v>
       </c>
-      <c r="M38" t="e">
-        <f>VLOOKUP(K38,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
+      <c r="N38" t="e">
+        <f>VLOOKUP(L38,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="N38" t="s">
+      <c r="O38" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="39" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -2804,32 +2929,35 @@
         <v>34</v>
       </c>
       <c r="F39" t="s">
+        <v>33</v>
+      </c>
+      <c r="G39" t="s">
         <v>40</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
         <v>36</v>
       </c>
-      <c r="H39" t="s">
-        <v>126</v>
-      </c>
       <c r="I39" t="s">
+        <v>126</v>
+      </c>
+      <c r="J39" t="s">
         <v>50</v>
       </c>
-      <c r="J39">
+      <c r="K39">
         <v>8</v>
       </c>
-      <c r="K39" t="s">
+      <c r="L39" t="s">
         <v>18</v>
       </c>
-      <c r="L39" t="s">
+      <c r="M39" t="s">
         <v>77</v>
       </c>
-      <c r="M39" t="e">
-        <f>VLOOKUP(K39,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
+      <c r="N39" t="e">
+        <f>VLOOKUP(L39,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="40" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2847,32 +2975,35 @@
         <v>34</v>
       </c>
       <c r="F40" t="s">
+        <v>33</v>
+      </c>
+      <c r="G40" t="s">
         <v>40</v>
       </c>
-      <c r="G40" t="s">
+      <c r="H40" t="s">
         <v>36</v>
       </c>
-      <c r="H40" t="s">
-        <v>126</v>
-      </c>
       <c r="I40" t="s">
+        <v>126</v>
+      </c>
+      <c r="J40" t="s">
         <v>50</v>
       </c>
-      <c r="J40">
+      <c r="K40">
         <v>9</v>
       </c>
-      <c r="K40" t="s">
+      <c r="L40" t="s">
         <v>19</v>
       </c>
-      <c r="L40" t="s">
+      <c r="M40" t="s">
         <v>78</v>
       </c>
-      <c r="M40" t="e">
-        <f>VLOOKUP(K40,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
+      <c r="N40" t="e">
+        <f>VLOOKUP(L40,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="41" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2890,32 +3021,35 @@
         <v>34</v>
       </c>
       <c r="F41" t="s">
+        <v>33</v>
+      </c>
+      <c r="G41" t="s">
         <v>40</v>
       </c>
-      <c r="G41" t="s">
+      <c r="H41" t="s">
         <v>36</v>
       </c>
-      <c r="H41" t="s">
-        <v>126</v>
-      </c>
       <c r="I41" t="s">
+        <v>126</v>
+      </c>
+      <c r="J41" t="s">
         <v>50</v>
       </c>
-      <c r="J41">
+      <c r="K41">
         <v>10</v>
       </c>
-      <c r="K41" t="s">
+      <c r="L41" t="s">
         <v>20</v>
       </c>
-      <c r="L41" t="s">
+      <c r="M41" t="s">
         <v>79</v>
       </c>
-      <c r="M41" t="e">
-        <f>VLOOKUP(K41,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
+      <c r="N41" t="e">
+        <f>VLOOKUP(L41,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="42" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2933,32 +3067,35 @@
         <v>34</v>
       </c>
       <c r="F42" t="s">
+        <v>33</v>
+      </c>
+      <c r="G42" t="s">
         <v>40</v>
       </c>
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>36</v>
       </c>
-      <c r="H42" t="s">
-        <v>126</v>
-      </c>
       <c r="I42" t="s">
+        <v>126</v>
+      </c>
+      <c r="J42" t="s">
         <v>50</v>
       </c>
-      <c r="J42">
+      <c r="K42">
         <v>11</v>
       </c>
-      <c r="K42" t="s">
+      <c r="L42" t="s">
         <v>89</v>
       </c>
-      <c r="L42" t="s">
+      <c r="M42" t="s">
         <v>80</v>
       </c>
-      <c r="M42" t="e">
-        <f>VLOOKUP(K42,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
+      <c r="N42" t="e">
+        <f>VLOOKUP(L42,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="43" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2976,32 +3113,35 @@
         <v>34</v>
       </c>
       <c r="F43" t="s">
+        <v>33</v>
+      </c>
+      <c r="G43" t="s">
         <v>40</v>
       </c>
-      <c r="G43" t="s">
+      <c r="H43" t="s">
         <v>36</v>
       </c>
-      <c r="H43" t="s">
-        <v>126</v>
-      </c>
       <c r="I43" t="s">
+        <v>126</v>
+      </c>
+      <c r="J43" t="s">
         <v>50</v>
       </c>
-      <c r="J43">
+      <c r="K43">
         <v>12</v>
       </c>
-      <c r="K43" t="s">
+      <c r="L43" t="s">
         <v>21</v>
       </c>
-      <c r="L43" t="s">
+      <c r="M43" t="s">
         <v>81</v>
       </c>
-      <c r="M43" t="e">
-        <f>VLOOKUP(K43,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
+      <c r="N43" t="e">
+        <f>VLOOKUP(L43,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="44" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -3019,35 +3159,38 @@
         <v>34</v>
       </c>
       <c r="F44" t="s">
+        <v>34</v>
+      </c>
+      <c r="G44" t="s">
         <v>40</v>
       </c>
-      <c r="G44" t="s">
+      <c r="H44" t="s">
         <v>36</v>
       </c>
-      <c r="H44" t="s">
-        <v>126</v>
-      </c>
       <c r="I44" t="s">
+        <v>126</v>
+      </c>
+      <c r="J44" t="s">
         <v>50</v>
       </c>
-      <c r="J44">
+      <c r="K44">
         <v>13</v>
       </c>
-      <c r="K44" t="s">
+      <c r="L44" t="s">
         <v>22</v>
       </c>
-      <c r="L44" t="s">
+      <c r="M44" t="s">
         <v>82</v>
       </c>
-      <c r="M44" t="e">
-        <f>VLOOKUP(K44,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
+      <c r="N44" t="e">
+        <f>VLOOKUP(L44,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="N44" t="s">
+      <c r="O44" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -3065,32 +3208,35 @@
         <v>34</v>
       </c>
       <c r="F45" t="s">
+        <v>34</v>
+      </c>
+      <c r="G45" t="s">
         <v>41</v>
       </c>
-      <c r="G45" t="s">
+      <c r="H45" t="s">
         <v>37</v>
       </c>
-      <c r="H45" t="s">
-        <v>126</v>
-      </c>
       <c r="I45" t="s">
+        <v>126</v>
+      </c>
+      <c r="J45" t="s">
         <v>50</v>
       </c>
-      <c r="J45">
+      <c r="K45">
         <v>15</v>
       </c>
-      <c r="K45" t="s">
+      <c r="L45" t="s">
         <v>88</v>
       </c>
-      <c r="L45" t="s">
+      <c r="M45" t="s">
         <v>115</v>
       </c>
-      <c r="M45">
-        <f>VLOOKUP(K45,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
+      <c r="N45">
+        <f>VLOOKUP(L45,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
         <v>0.34799999999999998</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -3108,35 +3254,38 @@
         <v>34</v>
       </c>
       <c r="F46" t="s">
+        <v>34</v>
+      </c>
+      <c r="G46" t="s">
         <v>41</v>
       </c>
-      <c r="G46" t="s">
+      <c r="H46" t="s">
         <v>37</v>
       </c>
-      <c r="H46" t="s">
-        <v>126</v>
-      </c>
       <c r="I46" t="s">
+        <v>126</v>
+      </c>
+      <c r="J46" t="s">
         <v>50</v>
       </c>
-      <c r="J46">
+      <c r="K46">
         <v>14</v>
       </c>
-      <c r="K46" t="s">
+      <c r="L46" t="s">
         <v>49</v>
       </c>
-      <c r="L46" t="s">
+      <c r="M46" t="s">
         <v>131</v>
       </c>
-      <c r="M46">
-        <f>VLOOKUP(K46,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
+      <c r="N46">
+        <f>VLOOKUP(L46,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
         <v>0.34499999999999997</v>
       </c>
-      <c r="N46" t="s">
+      <c r="O46" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>33</v>
       </c>
@@ -3150,383 +3299,413 @@
         <v>33</v>
       </c>
       <c r="F47" t="s">
+        <v>34</v>
+      </c>
+      <c r="G47" t="s">
         <v>41</v>
       </c>
-      <c r="G47" t="s">
+      <c r="H47" t="s">
         <v>37</v>
       </c>
-      <c r="H47" t="s">
-        <v>126</v>
-      </c>
       <c r="I47" t="s">
-        <v>142</v>
-      </c>
-      <c r="J47">
+        <v>126</v>
+      </c>
+      <c r="J47" t="s">
+        <v>141</v>
+      </c>
+      <c r="K47">
         <v>25</v>
       </c>
-      <c r="K47" t="s">
+      <c r="L47" t="s">
+        <v>156</v>
+      </c>
+      <c r="M47" t="s">
         <v>157</v>
       </c>
-      <c r="L47" t="s">
+      <c r="N47">
+        <f>VLOOKUP(L47,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
+        <v>0.34100000000000003</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>33</v>
+      </c>
+      <c r="C48" t="s">
+        <v>33</v>
+      </c>
+      <c r="D48" t="s">
+        <v>33</v>
+      </c>
+      <c r="E48" t="s">
+        <v>34</v>
+      </c>
+      <c r="F48" t="s">
+        <v>34</v>
+      </c>
+      <c r="G48" t="s">
+        <v>41</v>
+      </c>
+      <c r="H48" t="s">
+        <v>37</v>
+      </c>
+      <c r="I48" t="s">
+        <v>126</v>
+      </c>
+      <c r="J48" t="s">
+        <v>141</v>
+      </c>
+      <c r="K48">
+        <v>24</v>
+      </c>
+      <c r="L48" t="s">
+        <v>154</v>
+      </c>
+      <c r="M48" t="s">
+        <v>155</v>
+      </c>
+      <c r="N48">
+        <f>VLOOKUP(L48,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
+        <v>0.32600000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>33</v>
+      </c>
+      <c r="C49" t="s">
+        <v>33</v>
+      </c>
+      <c r="D49" t="s">
+        <v>33</v>
+      </c>
+      <c r="E49" t="s">
+        <v>34</v>
+      </c>
+      <c r="F49" t="s">
+        <v>34</v>
+      </c>
+      <c r="G49" t="s">
+        <v>41</v>
+      </c>
+      <c r="H49" t="s">
+        <v>37</v>
+      </c>
+      <c r="I49" t="s">
+        <v>126</v>
+      </c>
+      <c r="J49" t="s">
+        <v>141</v>
+      </c>
+      <c r="K49">
+        <v>28</v>
+      </c>
+      <c r="L49" t="s">
+        <v>162</v>
+      </c>
+      <c r="M49" t="s">
+        <v>163</v>
+      </c>
+      <c r="N49">
+        <f>VLOOKUP(L49,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
+        <v>0.32500000000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>33</v>
+      </c>
+      <c r="C50" t="s">
+        <v>33</v>
+      </c>
+      <c r="D50" t="s">
+        <v>33</v>
+      </c>
+      <c r="E50" t="s">
+        <v>34</v>
+      </c>
+      <c r="F50" t="s">
+        <v>34</v>
+      </c>
+      <c r="G50" t="s">
+        <v>41</v>
+      </c>
+      <c r="H50" t="s">
+        <v>37</v>
+      </c>
+      <c r="I50" t="s">
+        <v>126</v>
+      </c>
+      <c r="J50" t="s">
+        <v>141</v>
+      </c>
+      <c r="K50">
+        <v>26</v>
+      </c>
+      <c r="L50" t="s">
         <v>158</v>
       </c>
-      <c r="M47">
-        <f>VLOOKUP(K47,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
-        <v>0.34100000000000003</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
-        <v>33</v>
-      </c>
-      <c r="C48" t="s">
-        <v>33</v>
-      </c>
-      <c r="D48" t="s">
-        <v>33</v>
-      </c>
-      <c r="E48" t="s">
-        <v>34</v>
-      </c>
-      <c r="F48" t="s">
+      <c r="M50" t="s">
+        <v>159</v>
+      </c>
+      <c r="N50">
+        <f>VLOOKUP(L50,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
+        <v>0.309</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>33</v>
+      </c>
+      <c r="C51" t="s">
+        <v>33</v>
+      </c>
+      <c r="D51" t="s">
+        <v>33</v>
+      </c>
+      <c r="E51" t="s">
+        <v>34</v>
+      </c>
+      <c r="F51" t="s">
+        <v>34</v>
+      </c>
+      <c r="G51" t="s">
         <v>41</v>
       </c>
-      <c r="G48" t="s">
+      <c r="H51" t="s">
         <v>37</v>
       </c>
-      <c r="H48" t="s">
-        <v>126</v>
-      </c>
-      <c r="I48" t="s">
-        <v>142</v>
-      </c>
-      <c r="J48">
-        <v>24</v>
-      </c>
-      <c r="K48" t="s">
-        <v>155</v>
-      </c>
-      <c r="L48" t="s">
-        <v>156</v>
-      </c>
-      <c r="M48">
-        <f>VLOOKUP(K48,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
-        <v>0.32600000000000001</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
-        <v>33</v>
-      </c>
-      <c r="C49" t="s">
-        <v>33</v>
-      </c>
-      <c r="D49" t="s">
-        <v>33</v>
-      </c>
-      <c r="E49" t="s">
-        <v>34</v>
-      </c>
-      <c r="F49" t="s">
+      <c r="I51" t="s">
+        <v>126</v>
+      </c>
+      <c r="J51" t="s">
+        <v>141</v>
+      </c>
+      <c r="K51">
+        <v>32</v>
+      </c>
+      <c r="L51" t="s">
+        <v>170</v>
+      </c>
+      <c r="M51" t="s">
+        <v>171</v>
+      </c>
+      <c r="N51">
+        <f>VLOOKUP(L51,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
+        <v>0.30099999999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>33</v>
+      </c>
+      <c r="C52" t="s">
+        <v>33</v>
+      </c>
+      <c r="D52" t="s">
+        <v>33</v>
+      </c>
+      <c r="E52" t="s">
+        <v>34</v>
+      </c>
+      <c r="F52" t="s">
+        <v>34</v>
+      </c>
+      <c r="G52" t="s">
         <v>41</v>
       </c>
-      <c r="G49" t="s">
+      <c r="H52" t="s">
         <v>37</v>
       </c>
-      <c r="H49" t="s">
-        <v>126</v>
-      </c>
-      <c r="I49" t="s">
-        <v>142</v>
-      </c>
-      <c r="J49">
-        <v>28</v>
-      </c>
-      <c r="K49" t="s">
-        <v>163</v>
-      </c>
-      <c r="L49" t="s">
-        <v>164</v>
-      </c>
-      <c r="M49">
-        <f>VLOOKUP(K49,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
-        <v>0.32500000000000001</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
-        <v>33</v>
-      </c>
-      <c r="C50" t="s">
-        <v>33</v>
-      </c>
-      <c r="D50" t="s">
-        <v>33</v>
-      </c>
-      <c r="E50" t="s">
-        <v>34</v>
-      </c>
-      <c r="F50" t="s">
+      <c r="I52" t="s">
+        <v>126</v>
+      </c>
+      <c r="J52" t="s">
+        <v>141</v>
+      </c>
+      <c r="K52">
+        <v>30</v>
+      </c>
+      <c r="L52" t="s">
+        <v>166</v>
+      </c>
+      <c r="M52" t="s">
+        <v>167</v>
+      </c>
+      <c r="N52">
+        <f>VLOOKUP(L52,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>33</v>
+      </c>
+      <c r="C53" t="s">
+        <v>33</v>
+      </c>
+      <c r="D53" t="s">
+        <v>33</v>
+      </c>
+      <c r="E53" t="s">
+        <v>34</v>
+      </c>
+      <c r="F53" t="s">
+        <v>34</v>
+      </c>
+      <c r="G53" t="s">
         <v>41</v>
       </c>
-      <c r="G50" t="s">
+      <c r="H53" t="s">
         <v>37</v>
       </c>
-      <c r="H50" t="s">
-        <v>126</v>
-      </c>
-      <c r="I50" t="s">
-        <v>142</v>
-      </c>
-      <c r="J50">
-        <v>26</v>
-      </c>
-      <c r="K50" t="s">
-        <v>159</v>
-      </c>
-      <c r="L50" t="s">
-        <v>160</v>
-      </c>
-      <c r="M50">
-        <f>VLOOKUP(K50,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
-        <v>0.309</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
-        <v>33</v>
-      </c>
-      <c r="C51" t="s">
-        <v>33</v>
-      </c>
-      <c r="D51" t="s">
-        <v>33</v>
-      </c>
-      <c r="E51" t="s">
-        <v>34</v>
-      </c>
-      <c r="F51" t="s">
+      <c r="I53" t="s">
+        <v>126</v>
+      </c>
+      <c r="J53" t="s">
+        <v>50</v>
+      </c>
+      <c r="K53">
+        <v>16</v>
+      </c>
+      <c r="L53" t="s">
+        <v>133</v>
+      </c>
+      <c r="M53" t="s">
+        <v>134</v>
+      </c>
+      <c r="N53">
+        <f>VLOOKUP(L53,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
+        <v>0.29799999999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>33</v>
+      </c>
+      <c r="C54" t="s">
+        <v>33</v>
+      </c>
+      <c r="D54" t="s">
+        <v>33</v>
+      </c>
+      <c r="E54" t="s">
+        <v>34</v>
+      </c>
+      <c r="F54" t="s">
+        <v>34</v>
+      </c>
+      <c r="G54" t="s">
         <v>41</v>
       </c>
-      <c r="G51" t="s">
+      <c r="H54" t="s">
         <v>37</v>
       </c>
-      <c r="H51" t="s">
-        <v>126</v>
-      </c>
-      <c r="I51" t="s">
-        <v>142</v>
-      </c>
-      <c r="J51">
-        <v>32</v>
-      </c>
-      <c r="K51" t="s">
-        <v>171</v>
-      </c>
-      <c r="L51" t="s">
-        <v>172</v>
-      </c>
-      <c r="M51">
-        <f>VLOOKUP(K51,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
-        <v>0.30099999999999999</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
-        <v>33</v>
-      </c>
-      <c r="C52" t="s">
-        <v>33</v>
-      </c>
-      <c r="D52" t="s">
-        <v>33</v>
-      </c>
-      <c r="E52" t="s">
-        <v>34</v>
-      </c>
-      <c r="F52" t="s">
+      <c r="I54" t="s">
+        <v>126</v>
+      </c>
+      <c r="J54" t="s">
+        <v>50</v>
+      </c>
+      <c r="K54">
+        <v>17</v>
+      </c>
+      <c r="L54" t="s">
+        <v>139</v>
+      </c>
+      <c r="M54" t="s">
+        <v>140</v>
+      </c>
+      <c r="N54">
+        <f>VLOOKUP(L54,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
+        <v>0.28499999999999998</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>33</v>
+      </c>
+      <c r="C55" t="s">
+        <v>33</v>
+      </c>
+      <c r="D55" t="s">
+        <v>33</v>
+      </c>
+      <c r="E55" t="s">
+        <v>33</v>
+      </c>
+      <c r="F55" t="s">
+        <v>34</v>
+      </c>
+      <c r="G55" t="s">
         <v>41</v>
       </c>
-      <c r="G52" t="s">
+      <c r="H55" t="s">
         <v>37</v>
       </c>
-      <c r="H52" t="s">
-        <v>126</v>
-      </c>
-      <c r="I52" t="s">
-        <v>142</v>
-      </c>
-      <c r="J52">
-        <v>30</v>
-      </c>
-      <c r="K52" t="s">
-        <v>167</v>
-      </c>
-      <c r="L52" t="s">
-        <v>168</v>
-      </c>
-      <c r="M52">
-        <f>VLOOKUP(K52,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
-        <v>33</v>
-      </c>
-      <c r="C53" t="s">
-        <v>33</v>
-      </c>
-      <c r="D53" t="s">
-        <v>33</v>
-      </c>
-      <c r="E53" t="s">
-        <v>34</v>
-      </c>
-      <c r="F53" t="s">
+      <c r="I55" t="s">
+        <v>126</v>
+      </c>
+      <c r="J55" t="s">
+        <v>141</v>
+      </c>
+      <c r="K55">
+        <v>19</v>
+      </c>
+      <c r="L55" t="s">
+        <v>143</v>
+      </c>
+      <c r="M55" t="s">
+        <v>144</v>
+      </c>
+      <c r="N55">
+        <f>VLOOKUP(L55,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
+        <v>0.27200000000000002</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>33</v>
+      </c>
+      <c r="C56" t="s">
+        <v>33</v>
+      </c>
+      <c r="D56" t="s">
+        <v>33</v>
+      </c>
+      <c r="E56" t="s">
+        <v>33</v>
+      </c>
+      <c r="F56" t="s">
+        <v>34</v>
+      </c>
+      <c r="G56" t="s">
         <v>41</v>
       </c>
-      <c r="G53" t="s">
+      <c r="H56" t="s">
         <v>37</v>
       </c>
-      <c r="H53" t="s">
-        <v>126</v>
-      </c>
-      <c r="I53" t="s">
-        <v>50</v>
-      </c>
-      <c r="J53">
-        <v>16</v>
-      </c>
-      <c r="K53" t="s">
-        <v>134</v>
-      </c>
-      <c r="L53" t="s">
-        <v>135</v>
-      </c>
-      <c r="M53">
-        <f>VLOOKUP(K53,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
-        <v>0.29799999999999999</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
-        <v>33</v>
-      </c>
-      <c r="C54" t="s">
-        <v>33</v>
-      </c>
-      <c r="D54" t="s">
-        <v>33</v>
-      </c>
-      <c r="E54" t="s">
-        <v>34</v>
-      </c>
-      <c r="F54" t="s">
-        <v>41</v>
-      </c>
-      <c r="G54" t="s">
-        <v>37</v>
-      </c>
-      <c r="H54" t="s">
-        <v>126</v>
-      </c>
-      <c r="I54" t="s">
-        <v>50</v>
-      </c>
-      <c r="J54">
-        <v>17</v>
-      </c>
-      <c r="K54" t="s">
-        <v>140</v>
-      </c>
-      <c r="L54" t="s">
+      <c r="I56" t="s">
+        <v>126</v>
+      </c>
+      <c r="J56" t="s">
         <v>141</v>
       </c>
-      <c r="M54">
-        <f>VLOOKUP(K54,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
-        <v>0.28499999999999998</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
-        <v>33</v>
-      </c>
-      <c r="C55" t="s">
-        <v>33</v>
-      </c>
-      <c r="D55" t="s">
-        <v>33</v>
-      </c>
-      <c r="E55" t="s">
-        <v>33</v>
-      </c>
-      <c r="F55" t="s">
-        <v>41</v>
-      </c>
-      <c r="G55" t="s">
-        <v>37</v>
-      </c>
-      <c r="H55" t="s">
-        <v>126</v>
-      </c>
-      <c r="I55" t="s">
-        <v>142</v>
-      </c>
-      <c r="J55">
-        <v>19</v>
-      </c>
-      <c r="K55" t="s">
-        <v>144</v>
-      </c>
-      <c r="L55" t="s">
-        <v>145</v>
-      </c>
-      <c r="M55">
-        <f>VLOOKUP(K55,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
-        <v>0.27200000000000002</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
-        <v>33</v>
-      </c>
-      <c r="C56" t="s">
-        <v>33</v>
-      </c>
-      <c r="D56" t="s">
-        <v>33</v>
-      </c>
-      <c r="E56" t="s">
-        <v>33</v>
-      </c>
-      <c r="F56" t="s">
-        <v>41</v>
-      </c>
-      <c r="G56" t="s">
-        <v>37</v>
-      </c>
-      <c r="H56" t="s">
-        <v>126</v>
-      </c>
-      <c r="I56" t="s">
-        <v>142</v>
-      </c>
-      <c r="J56">
+      <c r="K56">
         <v>23</v>
-      </c>
-      <c r="K56" t="s">
-        <v>148</v>
       </c>
       <c r="L56" t="s">
         <v>147</v>
       </c>
-      <c r="M56">
-        <f>VLOOKUP(K56,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
+      <c r="M56" t="s">
+        <v>146</v>
+      </c>
+      <c r="N56">
+        <f>VLOOKUP(L56,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
         <v>0.27200000000000002</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>33</v>
       </c>
@@ -3540,32 +3719,35 @@
         <v>33</v>
       </c>
       <c r="F57" t="s">
+        <v>34</v>
+      </c>
+      <c r="G57" t="s">
         <v>41</v>
       </c>
-      <c r="G57" t="s">
+      <c r="H57" t="s">
         <v>37</v>
       </c>
-      <c r="H57" t="s">
-        <v>126</v>
-      </c>
       <c r="I57" t="s">
+        <v>126</v>
+      </c>
+      <c r="J57" t="s">
         <v>50</v>
       </c>
-      <c r="J57">
+      <c r="K57">
         <v>16</v>
       </c>
-      <c r="K57" t="s">
+      <c r="L57" t="s">
+        <v>137</v>
+      </c>
+      <c r="M57" t="s">
         <v>138</v>
       </c>
-      <c r="L57" t="s">
-        <v>139</v>
-      </c>
-      <c r="M57">
-        <f>VLOOKUP(K57,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
+      <c r="N57">
+        <f>VLOOKUP(L57,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
         <v>0.26400000000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>33</v>
       </c>
@@ -3579,32 +3761,35 @@
         <v>34</v>
       </c>
       <c r="F58" t="s">
+        <v>34</v>
+      </c>
+      <c r="G58" t="s">
         <v>41</v>
       </c>
-      <c r="G58" t="s">
+      <c r="H58" t="s">
         <v>37</v>
       </c>
-      <c r="H58" t="s">
-        <v>126</v>
-      </c>
       <c r="I58" t="s">
+        <v>126</v>
+      </c>
+      <c r="J58" t="s">
         <v>50</v>
       </c>
-      <c r="J58">
+      <c r="K58">
         <v>17</v>
       </c>
-      <c r="K58" t="s">
+      <c r="L58" t="s">
+        <v>135</v>
+      </c>
+      <c r="M58" t="s">
         <v>136</v>
       </c>
-      <c r="L58" t="s">
-        <v>137</v>
-      </c>
-      <c r="M58">
-        <f>VLOOKUP(K58,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
+      <c r="N58">
+        <f>VLOOKUP(L58,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
         <v>0.25700000000000001</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>33</v>
       </c>
@@ -3618,32 +3803,35 @@
         <v>34</v>
       </c>
       <c r="F59" t="s">
+        <v>34</v>
+      </c>
+      <c r="G59" t="s">
         <v>41</v>
       </c>
-      <c r="G59" t="s">
+      <c r="H59" t="s">
         <v>37</v>
       </c>
-      <c r="H59" t="s">
-        <v>126</v>
-      </c>
       <c r="I59" t="s">
-        <v>142</v>
-      </c>
-      <c r="J59">
+        <v>126</v>
+      </c>
+      <c r="J59" t="s">
+        <v>141</v>
+      </c>
+      <c r="K59">
         <v>27</v>
       </c>
-      <c r="K59" t="s">
+      <c r="L59" t="s">
+        <v>160</v>
+      </c>
+      <c r="M59" t="s">
         <v>161</v>
       </c>
-      <c r="L59" t="s">
-        <v>162</v>
-      </c>
-      <c r="M59">
-        <f>VLOOKUP(K59,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
+      <c r="N59">
+        <f>VLOOKUP(L59,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
         <v>0.254</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>33</v>
       </c>
@@ -3657,32 +3845,35 @@
         <v>34</v>
       </c>
       <c r="F60" t="s">
+        <v>34</v>
+      </c>
+      <c r="G60" t="s">
         <v>41</v>
       </c>
-      <c r="G60" t="s">
+      <c r="H60" t="s">
         <v>37</v>
       </c>
-      <c r="H60" t="s">
-        <v>126</v>
-      </c>
       <c r="I60" t="s">
-        <v>142</v>
-      </c>
-      <c r="J60">
+        <v>126</v>
+      </c>
+      <c r="J60" t="s">
+        <v>141</v>
+      </c>
+      <c r="K60">
         <v>31</v>
       </c>
-      <c r="K60" t="s">
+      <c r="L60" t="s">
+        <v>168</v>
+      </c>
+      <c r="M60" t="s">
         <v>169</v>
       </c>
-      <c r="L60" t="s">
-        <v>170</v>
-      </c>
-      <c r="M60">
-        <f>VLOOKUP(K60,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
+      <c r="N60">
+        <f>VLOOKUP(L60,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
         <v>0.249</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61">
         <f>A59+1</f>
         <v>1</v>
@@ -3700,32 +3891,35 @@
         <v>33</v>
       </c>
       <c r="F61" t="s">
+        <v>34</v>
+      </c>
+      <c r="G61" t="s">
         <v>41</v>
       </c>
-      <c r="G61" t="s">
+      <c r="H61" t="s">
         <v>37</v>
       </c>
-      <c r="H61" t="s">
-        <v>126</v>
-      </c>
       <c r="I61" t="s">
+        <v>126</v>
+      </c>
+      <c r="J61" t="s">
         <v>51</v>
       </c>
-      <c r="J61">
+      <c r="K61">
         <v>4</v>
       </c>
-      <c r="K61" t="s">
+      <c r="L61" t="s">
         <v>92</v>
       </c>
-      <c r="L61" t="s">
+      <c r="M61" t="s">
         <v>93</v>
       </c>
-      <c r="M61">
-        <f>VLOOKUP(K61,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
+      <c r="N61">
+        <f>VLOOKUP(L61,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
         <v>0.23599999999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>33</v>
       </c>
@@ -3739,32 +3933,35 @@
         <v>34</v>
       </c>
       <c r="F62" t="s">
+        <v>34</v>
+      </c>
+      <c r="G62" t="s">
         <v>41</v>
       </c>
-      <c r="G62" t="s">
+      <c r="H62" t="s">
         <v>37</v>
       </c>
-      <c r="H62" t="s">
-        <v>126</v>
-      </c>
       <c r="I62" t="s">
-        <v>142</v>
-      </c>
-      <c r="J62">
+        <v>126</v>
+      </c>
+      <c r="J62" t="s">
+        <v>141</v>
+      </c>
+      <c r="K62">
         <v>22</v>
       </c>
-      <c r="K62" t="s">
-        <v>146</v>
-      </c>
       <c r="L62" t="s">
-        <v>154</v>
-      </c>
-      <c r="M62">
-        <f>VLOOKUP(K62,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
+        <v>145</v>
+      </c>
+      <c r="M62" t="s">
+        <v>153</v>
+      </c>
+      <c r="N62">
+        <f>VLOOKUP(L62,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
         <v>0.23499999999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63">
         <f>A60+1</f>
         <v>1</v>
@@ -3782,35 +3979,38 @@
         <v>34</v>
       </c>
       <c r="F63" t="s">
+        <v>34</v>
+      </c>
+      <c r="G63" t="s">
         <v>41</v>
       </c>
-      <c r="G63" t="s">
+      <c r="H63" t="s">
         <v>37</v>
       </c>
-      <c r="H63" t="s">
-        <v>126</v>
-      </c>
       <c r="I63" t="s">
+        <v>126</v>
+      </c>
+      <c r="J63" t="s">
         <v>51</v>
       </c>
-      <c r="J63">
+      <c r="K63">
         <v>3</v>
       </c>
-      <c r="K63" t="s">
+      <c r="L63" t="s">
         <v>47</v>
       </c>
-      <c r="L63" t="s">
+      <c r="M63" t="s">
         <v>87</v>
       </c>
-      <c r="M63">
-        <f>VLOOKUP(K63,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
+      <c r="N63">
+        <f>VLOOKUP(L63,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
         <v>0.23400000000000001</v>
       </c>
-      <c r="N63" t="s">
+      <c r="O63" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>33</v>
       </c>
@@ -3824,32 +4024,35 @@
         <v>34</v>
       </c>
       <c r="F64" t="s">
+        <v>34</v>
+      </c>
+      <c r="G64" t="s">
         <v>41</v>
       </c>
-      <c r="G64" t="s">
+      <c r="H64" t="s">
         <v>37</v>
       </c>
-      <c r="H64" t="s">
-        <v>126</v>
-      </c>
       <c r="I64" t="s">
+        <v>126</v>
+      </c>
+      <c r="J64" t="s">
+        <v>141</v>
+      </c>
+      <c r="K64">
+        <v>18</v>
+      </c>
+      <c r="L64" t="s">
         <v>142</v>
       </c>
-      <c r="J64">
-        <v>18</v>
-      </c>
-      <c r="K64" t="s">
-        <v>143</v>
-      </c>
-      <c r="L64" t="s">
-        <v>149</v>
-      </c>
-      <c r="M64">
-        <f>VLOOKUP(K64,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
+      <c r="M64" t="s">
+        <v>148</v>
+      </c>
+      <c r="N64">
+        <f>VLOOKUP(L64,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
         <v>0.224</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65">
         <f>A63+1</f>
         <v>2</v>
@@ -3867,32 +4070,35 @@
         <v>34</v>
       </c>
       <c r="F65" t="s">
+        <v>34</v>
+      </c>
+      <c r="G65" t="s">
         <v>41</v>
       </c>
-      <c r="G65" t="s">
+      <c r="H65" t="s">
         <v>37</v>
       </c>
-      <c r="H65" t="s">
-        <v>126</v>
-      </c>
       <c r="I65" t="s">
+        <v>126</v>
+      </c>
+      <c r="J65" t="s">
         <v>51</v>
       </c>
-      <c r="J65">
+      <c r="K65">
         <v>2</v>
       </c>
-      <c r="K65" t="s">
+      <c r="L65" t="s">
         <v>91</v>
       </c>
-      <c r="L65" t="s">
+      <c r="M65" t="s">
         <v>118</v>
       </c>
-      <c r="M65">
-        <f>VLOOKUP(K65,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
+      <c r="N65">
+        <f>VLOOKUP(L65,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
         <v>0.188</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66">
         <f>A64+1</f>
         <v>1</v>
@@ -3910,35 +4116,38 @@
         <v>34</v>
       </c>
       <c r="F66" t="s">
+        <v>34</v>
+      </c>
+      <c r="G66" t="s">
         <v>41</v>
       </c>
-      <c r="G66" t="s">
+      <c r="H66" t="s">
         <v>37</v>
       </c>
-      <c r="H66" t="s">
-        <v>126</v>
-      </c>
       <c r="I66" t="s">
+        <v>126</v>
+      </c>
+      <c r="J66" t="s">
         <v>51</v>
       </c>
-      <c r="J66">
+      <c r="K66">
         <v>1</v>
       </c>
-      <c r="K66" t="s">
+      <c r="L66" t="s">
         <v>48</v>
       </c>
-      <c r="L66" t="s">
+      <c r="M66" t="s">
         <v>84</v>
       </c>
-      <c r="M66">
-        <f>VLOOKUP(K66,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
+      <c r="N66">
+        <f>VLOOKUP(L66,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
         <v>0.16500000000000001</v>
       </c>
-      <c r="N66" t="s">
+      <c r="O66" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="67" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67">
         <f>A66+1</f>
         <v>2</v>
@@ -3956,32 +4165,35 @@
         <v>33</v>
       </c>
       <c r="F67" t="s">
+        <v>33</v>
+      </c>
+      <c r="G67" t="s">
         <v>41</v>
       </c>
-      <c r="G67" t="s">
+      <c r="H67" t="s">
         <v>37</v>
       </c>
-      <c r="H67" t="s">
-        <v>126</v>
-      </c>
       <c r="I67" t="s">
+        <v>126</v>
+      </c>
+      <c r="J67" t="s">
         <v>50</v>
       </c>
-      <c r="J67">
+      <c r="K67">
         <v>2</v>
       </c>
-      <c r="K67" t="s">
+      <c r="L67" t="s">
         <v>85</v>
       </c>
-      <c r="L67" t="s">
+      <c r="M67" t="s">
         <v>83</v>
       </c>
-      <c r="M67" t="e">
-        <f>VLOOKUP(K67,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
+      <c r="N67" t="e">
+        <f>VLOOKUP(L67,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="68" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68">
         <f>A66+1</f>
         <v>2</v>
@@ -3999,32 +4211,35 @@
         <v>33</v>
       </c>
       <c r="F68" t="s">
+        <v>33</v>
+      </c>
+      <c r="G68" t="s">
         <v>41</v>
       </c>
-      <c r="G68" t="s">
+      <c r="H68" t="s">
         <v>37</v>
       </c>
-      <c r="H68" t="s">
-        <v>126</v>
-      </c>
       <c r="I68" t="s">
+        <v>126</v>
+      </c>
+      <c r="J68" t="s">
         <v>43</v>
       </c>
-      <c r="J68">
+      <c r="K68">
         <v>5</v>
       </c>
-      <c r="K68" t="s">
+      <c r="L68" t="s">
         <v>94</v>
       </c>
-      <c r="L68" t="s">
-        <v>133</v>
-      </c>
-      <c r="M68" t="e">
-        <f>VLOOKUP(K68,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
+      <c r="M68" t="s">
+        <v>132</v>
+      </c>
+      <c r="N68" t="e">
+        <f>VLOOKUP(L68,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="69" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69">
         <f>A67+1</f>
         <v>3</v>
@@ -4042,35 +4257,38 @@
         <v>34</v>
       </c>
       <c r="F69" t="s">
+        <v>34</v>
+      </c>
+      <c r="G69" t="s">
         <v>41</v>
       </c>
-      <c r="G69" t="s">
+      <c r="H69" t="s">
         <v>37</v>
       </c>
-      <c r="H69" t="s">
-        <v>126</v>
-      </c>
       <c r="I69" t="s">
+        <v>126</v>
+      </c>
+      <c r="J69" t="s">
         <v>50</v>
       </c>
-      <c r="J69">
+      <c r="K69">
         <v>3</v>
       </c>
-      <c r="K69" t="s">
+      <c r="L69" t="s">
         <v>101</v>
       </c>
-      <c r="L69" t="s">
+      <c r="M69" t="s">
         <v>117</v>
       </c>
-      <c r="M69" t="e">
-        <f>VLOOKUP(K69,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
+      <c r="N69" t="e">
+        <f>VLOOKUP(L69,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="N69" t="s">
+      <c r="O69" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="70" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70">
         <f>A68+1</f>
         <v>3</v>
@@ -4088,73 +4306,90 @@
         <v>34</v>
       </c>
       <c r="F70" t="s">
+        <v>34</v>
+      </c>
+      <c r="G70" t="s">
         <v>41</v>
       </c>
-      <c r="G70" t="s">
+      <c r="H70" t="s">
         <v>37</v>
       </c>
-      <c r="H70" t="s">
-        <v>126</v>
-      </c>
       <c r="I70" t="s">
+        <v>126</v>
+      </c>
+      <c r="J70" t="s">
         <v>50</v>
       </c>
-      <c r="J70">
+      <c r="K70">
         <v>4</v>
       </c>
-      <c r="K70" t="s">
+      <c r="L70" t="s">
         <v>102</v>
       </c>
-      <c r="L70" t="s">
+      <c r="M70" t="s">
         <v>103</v>
       </c>
-      <c r="M70" t="e">
-        <f>VLOOKUP(K70,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
+      <c r="N70" t="e">
+        <f>VLOOKUP(L70,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="N70" t="s">
+      <c r="O70" t="s">
         <v>109</v>
       </c>
     </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <f>A69+1</f>
+        <v>4</v>
+      </c>
+      <c r="B71" t="s">
+        <v>33</v>
+      </c>
+      <c r="C71" t="s">
+        <v>33</v>
+      </c>
+      <c r="D71" t="s">
+        <v>34</v>
+      </c>
+      <c r="E71" t="s">
+        <v>34</v>
+      </c>
+      <c r="F71" t="s">
+        <v>33</v>
+      </c>
+      <c r="G71" t="s">
+        <v>41</v>
+      </c>
+      <c r="H71" t="s">
+        <v>37</v>
+      </c>
+      <c r="I71" t="s">
+        <v>181</v>
+      </c>
+      <c r="J71" t="s">
+        <v>50</v>
+      </c>
+      <c r="K71">
+        <v>4</v>
+      </c>
+      <c r="L71" t="s">
+        <v>182</v>
+      </c>
+      <c r="M71" t="s">
+        <v>183</v>
+      </c>
+      <c r="N71" t="e">
+        <f>VLOOKUP(L71,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O71" t="s">
+        <v>109</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:N70">
-    <filterColumn colId="12">
-      <filters>
-        <filter val="0.165"/>
-        <filter val="0.188"/>
-        <filter val="0.224"/>
-        <filter val="0.234"/>
-        <filter val="0.235"/>
-        <filter val="0.236"/>
-        <filter val="0.249"/>
-        <filter val="0.254"/>
-        <filter val="0.257"/>
-        <filter val="0.264"/>
-        <filter val="0.272"/>
-        <filter val="0.285"/>
-        <filter val="0.298"/>
-        <filter val="0.3"/>
-        <filter val="0.301"/>
-        <filter val="0.309"/>
-        <filter val="0.325"/>
-        <filter val="0.326"/>
-        <filter val="0.341"/>
-        <filter val="0.345"/>
-        <filter val="0.348"/>
-        <filter val="0.35"/>
-        <filter val="0.352"/>
-        <filter val="0.355"/>
-        <filter val="0.356"/>
-        <filter val="0.365"/>
-        <filter val="0.378"/>
-        <filter val="0.391"/>
-        <filter val="0.396"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <sortState ref="A2:M52">
-    <sortCondition ref="I2:I52"/>
+  <sortState ref="A2:N52">
     <sortCondition ref="J2:J52"/>
+    <sortCondition ref="K2:K52"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/data/features.xlsx
+++ b/data/features.xlsx
@@ -18,7 +18,7 @@
     <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">features!$A$1:$O$70</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">features!$A$1:$O$71</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -1170,10 +1170,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:O71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="L71" sqref="L71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1327,7 +1328,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <f>A3+1</f>
         <v>2</v>
@@ -1433,7 +1434,7 @@
         <v>33</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F6" t="s">
         <v>34</v>
@@ -1464,7 +1465,7 @@
         <v>0.39600000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <f>A6+1</f>
         <v>1</v>
@@ -2013,7 +2014,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="e">
         <f>#REF!+1</f>
         <v>#REF!</v>
@@ -2028,7 +2029,7 @@
         <v>33</v>
       </c>
       <c r="E19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F19" t="s">
         <v>33</v>
@@ -2326,7 +2327,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <f>A25+1</f>
         <v>1</v>
@@ -2428,7 +2429,7 @@
         <v>33</v>
       </c>
       <c r="E28" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F28" t="s">
         <v>34</v>
@@ -2470,7 +2471,7 @@
         <v>33</v>
       </c>
       <c r="E29" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F29" t="s">
         <v>34</v>
@@ -2653,7 +2654,7 @@
         <v>33</v>
       </c>
       <c r="E33" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F33" t="s">
         <v>34</v>
@@ -3296,7 +3297,7 @@
         <v>33</v>
       </c>
       <c r="E47" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F47" t="s">
         <v>34</v>
@@ -3632,7 +3633,7 @@
         <v>33</v>
       </c>
       <c r="E55" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F55" t="s">
         <v>34</v>
@@ -3674,7 +3675,7 @@
         <v>33</v>
       </c>
       <c r="E56" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F56" t="s">
         <v>34</v>
@@ -3716,7 +3717,7 @@
         <v>33</v>
       </c>
       <c r="E57" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F57" t="s">
         <v>34</v>
@@ -3888,7 +3889,7 @@
         <v>33</v>
       </c>
       <c r="E61" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F61" t="s">
         <v>34</v>
@@ -4162,7 +4163,7 @@
         <v>33</v>
       </c>
       <c r="E67" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F67" t="s">
         <v>33</v>
@@ -4193,7 +4194,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68">
         <f>A66+1</f>
         <v>2</v>
@@ -4387,6 +4388,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:O71">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="no"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState ref="A2:N52">
     <sortCondition ref="J2:J52"/>
     <sortCondition ref="K2:K52"/>

--- a/data/features.xlsx
+++ b/data/features.xlsx
@@ -1173,8 +1173,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:O71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="L71" sqref="L71"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M39" sqref="M39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1328,7 +1328,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <f>A3+1</f>
         <v>2</v>
@@ -1423,7 +1423,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>33</v>
       </c>
@@ -1465,7 +1465,7 @@
         <v>0.39600000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
         <f>A6+1</f>
         <v>1</v>
@@ -2014,7 +2014,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="19" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="e">
         <f>#REF!+1</f>
         <v>#REF!</v>
@@ -2105,7 +2105,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>33</v>
       </c>
@@ -2147,7 +2147,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>33</v>
       </c>
@@ -2376,7 +2376,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>33</v>
       </c>
@@ -2418,7 +2418,7 @@
         <v>0.378</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>33</v>
       </c>
@@ -2460,7 +2460,7 @@
         <v>0.36499999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>33</v>
       </c>
@@ -2551,7 +2551,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>33</v>
       </c>
@@ -2639,7 +2639,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <f>A32+1</f>
         <v>2</v>
@@ -2730,7 +2730,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>33</v>
       </c>
@@ -3191,7 +3191,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -3237,7 +3237,7 @@
         <v>0.34799999999999998</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -3286,7 +3286,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>33</v>
       </c>
@@ -3328,7 +3328,7 @@
         <v>0.34100000000000003</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>33</v>
       </c>
@@ -3370,7 +3370,7 @@
         <v>0.32600000000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>33</v>
       </c>
@@ -3412,7 +3412,7 @@
         <v>0.32500000000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>33</v>
       </c>
@@ -3454,7 +3454,7 @@
         <v>0.309</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>33</v>
       </c>
@@ -3496,7 +3496,7 @@
         <v>0.30099999999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>33</v>
       </c>
@@ -3538,7 +3538,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>33</v>
       </c>
@@ -3580,7 +3580,7 @@
         <v>0.29799999999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>33</v>
       </c>
@@ -3622,7 +3622,7 @@
         <v>0.28499999999999998</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>33</v>
       </c>
@@ -3664,7 +3664,7 @@
         <v>0.27200000000000002</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>33</v>
       </c>
@@ -3706,7 +3706,7 @@
         <v>0.27200000000000002</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>33</v>
       </c>
@@ -3748,7 +3748,7 @@
         <v>0.26400000000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>33</v>
       </c>
@@ -3790,7 +3790,7 @@
         <v>0.25700000000000001</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>33</v>
       </c>
@@ -3832,7 +3832,7 @@
         <v>0.254</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>33</v>
       </c>
@@ -3874,7 +3874,7 @@
         <v>0.249</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61">
         <f>A59+1</f>
         <v>1</v>
@@ -3920,7 +3920,7 @@
         <v>0.23599999999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>33</v>
       </c>
@@ -3962,7 +3962,7 @@
         <v>0.23499999999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63">
         <f>A60+1</f>
         <v>1</v>
@@ -4011,7 +4011,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>33</v>
       </c>
@@ -4053,7 +4053,7 @@
         <v>0.224</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65">
         <f>A63+1</f>
         <v>2</v>
@@ -4099,7 +4099,7 @@
         <v>0.188</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66">
         <f>A64+1</f>
         <v>1</v>
@@ -4148,7 +4148,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67">
         <f>A66+1</f>
         <v>2</v>
@@ -4240,7 +4240,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69">
         <f>A67+1</f>
         <v>3</v>
@@ -4289,7 +4289,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70">
         <f>A68+1</f>
         <v>3</v>
@@ -4338,7 +4338,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71">
         <f>A69+1</f>
         <v>4</v>
@@ -4389,9 +4389,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:O71">
-    <filterColumn colId="4">
+    <filterColumn colId="6">
       <filters>
-        <filter val="no"/>
+        <filter val="IMDB/RT/BO"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/data/features.xlsx
+++ b/data/features.xlsx
@@ -18,7 +18,7 @@
     <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">features!$A$1:$O$71</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">features!$A$1:$O$72</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="186">
   <si>
     <t>title</t>
   </si>
@@ -582,6 +582,12 @@
   </si>
   <si>
     <t>Log of box office revenue</t>
+  </si>
+  <si>
+    <t>box_office</t>
+  </si>
+  <si>
+    <t>Total domestic box office revenue</t>
   </si>
 </sst>
 </file>
@@ -1170,11 +1176,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:O71"/>
+  <dimension ref="A1:O72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M39" sqref="M39"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1240,7 +1245,7 @@
         <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s">
         <v>34</v>
@@ -1261,34 +1266,31 @@
         <v>126</v>
       </c>
       <c r="J2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="N2" t="e">
         <f>VLOOKUP(L2,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="O2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
       <c r="B3" t="s">
         <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
         <v>34</v>
@@ -1309,44 +1311,40 @@
         <v>126</v>
       </c>
       <c r="J3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L3" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="M3" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="N3" t="e">
         <f>VLOOKUP(L3,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="O3" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <f>A3+1</f>
-        <v>2</v>
-      </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
         <v>33</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G4" t="s">
         <v>40</v>
@@ -1358,80 +1356,79 @@
         <v>126</v>
       </c>
       <c r="J4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L4" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="M4" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="N4" t="e">
         <f>VLOOKUP(L4,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
+      <c r="O4" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <f>A3+1</f>
-        <v>2</v>
-      </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
         <v>33</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E5" t="s">
         <v>34</v>
       </c>
       <c r="F5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G5" t="s">
         <v>40</v>
       </c>
       <c r="H5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I5" t="s">
         <v>126</v>
       </c>
       <c r="J5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L5" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="M5" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="N5" t="e">
         <f>VLOOKUP(L5,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="O5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
         <v>33</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E6" t="s">
         <v>34</v>
@@ -1440,38 +1437,37 @@
         <v>34</v>
       </c>
       <c r="G6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I6" t="s">
         <v>126</v>
       </c>
       <c r="J6" t="s">
-        <v>141</v>
+        <v>44</v>
       </c>
       <c r="K6">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="L6" t="s">
-        <v>149</v>
+        <v>28</v>
       </c>
       <c r="M6" t="s">
-        <v>150</v>
-      </c>
-      <c r="N6">
+        <v>64</v>
+      </c>
+      <c r="N6" t="e">
         <f>VLOOKUP(L6,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
-        <v>0.39600000000000002</v>
+        <v>#N/A</v>
+      </c>
+      <c r="O6" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <f>A6+1</f>
-        <v>1</v>
-      </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
         <v>33</v>
@@ -1480,10 +1476,10 @@
         <v>33</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G7" t="s">
         <v>40</v>
@@ -1495,37 +1491,44 @@
         <v>126</v>
       </c>
       <c r="J7" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="K7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L7" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="M7" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="N7" t="e">
         <f>VLOOKUP(L7,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
+      <c r="O7" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f>A7+1</f>
+        <v>1</v>
+      </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E8" t="s">
         <v>34</v>
       </c>
       <c r="F8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G8" t="s">
         <v>40</v>
@@ -1537,40 +1540,41 @@
         <v>126</v>
       </c>
       <c r="J8" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="K8">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="L8" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="M8" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="N8" t="e">
         <f>VLOOKUP(L8,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="O8" t="s">
-        <v>97</v>
-      </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f>A8+1</f>
+        <v>2</v>
+      </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E9" t="s">
         <v>34</v>
       </c>
       <c r="F9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G9" t="s">
         <v>40</v>
@@ -1582,32 +1586,29 @@
         <v>126</v>
       </c>
       <c r="J9" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="K9">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="L9" t="s">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="M9" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="N9" t="e">
         <f>VLOOKUP(L9,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="O9" t="s">
-        <v>97</v>
-      </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
         <f>A9+1</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
         <v>33</v>
@@ -1619,7 +1620,7 @@
         <v>34</v>
       </c>
       <c r="F10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G10" t="s">
         <v>40</v>
@@ -1631,44 +1632,41 @@
         <v>126</v>
       </c>
       <c r="J10" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="L10" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="M10" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="N10" t="e">
         <f>VLOOKUP(L10,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="O10" t="s">
-        <v>124</v>
-      </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
         <f>A10+1</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" t="s">
         <v>33</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E11" t="s">
         <v>34</v>
       </c>
       <c r="F11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G11" t="s">
         <v>40</v>
@@ -1680,40 +1678,41 @@
         <v>126</v>
       </c>
       <c r="J11" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="L11" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="M11" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="N11" t="e">
         <f>VLOOKUP(L11,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="O11" t="s">
-        <v>98</v>
-      </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f>A11+1</f>
+        <v>5</v>
+      </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
         <v>33</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E12" t="s">
         <v>34</v>
       </c>
       <c r="F12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G12" t="s">
         <v>40</v>
@@ -1725,24 +1724,21 @@
         <v>126</v>
       </c>
       <c r="J12" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="L12" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="M12" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="N12" t="e">
         <f>VLOOKUP(L12,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="O12" t="s">
-        <v>98</v>
-      </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
@@ -1752,7 +1748,7 @@
         <v>33</v>
       </c>
       <c r="D13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E13" t="s">
         <v>34</v>
@@ -1770,26 +1766,30 @@
         <v>126</v>
       </c>
       <c r="J13" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="K13">
         <v>4</v>
       </c>
       <c r="L13" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="M13" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="N13" t="e">
         <f>VLOOKUP(L13,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="O13" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f>A13+1</f>
+        <v>1</v>
+      </c>
       <c r="B14" t="s">
         <v>34</v>
       </c>
@@ -1818,13 +1818,13 @@
         <v>44</v>
       </c>
       <c r="K14">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L14" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="N14" t="e">
         <f>VLOOKUP(L14,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
@@ -1839,7 +1839,7 @@
         <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D15" t="s">
         <v>34</v>
@@ -1860,23 +1860,23 @@
         <v>126</v>
       </c>
       <c r="J15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K15">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="L15" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="M15" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="N15" t="e">
         <f>VLOOKUP(L15,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="O15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -1884,7 +1884,7 @@
         <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D16" t="s">
         <v>34</v>
@@ -1905,23 +1905,23 @@
         <v>126</v>
       </c>
       <c r="J16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K16">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L16" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="M16" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="N16" t="e">
         <f>VLOOKUP(L16,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="O16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -1953,13 +1953,13 @@
         <v>45</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L17" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="M17" t="s">
-        <v>123</v>
+        <v>68</v>
       </c>
       <c r="N17" t="e">
         <f>VLOOKUP(L17,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
@@ -1970,20 +1970,24 @@
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f>A17+1</f>
+        <v>1</v>
+      </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G18" t="s">
         <v>40</v>
@@ -1995,44 +1999,37 @@
         <v>126</v>
       </c>
       <c r="J18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M18" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="N18" t="e">
         <f>VLOOKUP(L18,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="O18" t="s">
-        <v>97</v>
-      </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" t="e">
-        <f>#REF!+1</f>
-        <v>#REF!</v>
-      </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G19" t="s">
         <v>40</v>
@@ -2044,37 +2041,44 @@
         <v>126</v>
       </c>
       <c r="J19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="L19" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="M19" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="N19" t="e">
         <f>VLOOKUP(L19,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
+      <c r="O19" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f>A19+1</f>
+        <v>1</v>
+      </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G20" t="s">
         <v>40</v>
@@ -2086,28 +2090,25 @@
         <v>126</v>
       </c>
       <c r="J20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K20">
+        <v>6</v>
+      </c>
+      <c r="L20" t="s">
         <v>4</v>
       </c>
-      <c r="L20" t="s">
-        <v>8</v>
-      </c>
       <c r="M20" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="N20" t="e">
         <f>VLOOKUP(L20,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="O20" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C21" t="s">
         <v>34</v>
@@ -2122,40 +2123,47 @@
         <v>34</v>
       </c>
       <c r="G21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I21" t="s">
         <v>126</v>
       </c>
       <c r="J21" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K21">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="L21" t="s">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="M21" t="s">
-        <v>116</v>
+        <v>58</v>
       </c>
       <c r="N21" t="e">
         <f>VLOOKUP(L21,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O21" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f>A21+1</f>
+        <v>1</v>
+      </c>
       <c r="B22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E22" t="s">
         <v>34</v>
@@ -2164,32 +2172,32 @@
         <v>34</v>
       </c>
       <c r="G22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I22" t="s">
         <v>126</v>
       </c>
       <c r="J22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K22">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L22" t="s">
-        <v>95</v>
+        <v>5</v>
       </c>
       <c r="M22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N22" t="e">
         <f>VLOOKUP(L22,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="O22" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
@@ -2221,13 +2229,13 @@
         <v>45</v>
       </c>
       <c r="K23">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="L23" t="s">
-        <v>9</v>
+        <v>122</v>
       </c>
       <c r="M23" t="s">
-        <v>68</v>
+        <v>123</v>
       </c>
       <c r="N23" t="e">
         <f>VLOOKUP(L23,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
@@ -2266,13 +2274,13 @@
         <v>45</v>
       </c>
       <c r="K24">
+        <v>4</v>
+      </c>
+      <c r="L24" t="s">
         <v>8</v>
       </c>
-      <c r="L24" t="s">
-        <v>10</v>
-      </c>
       <c r="M24" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="N24" t="e">
         <f>VLOOKUP(L24,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
@@ -2283,20 +2291,24 @@
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" t="e">
+        <f>#REF!+1</f>
+        <v>#REF!</v>
+      </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G25" t="s">
         <v>40</v>
@@ -2311,201 +2323,210 @@
         <v>45</v>
       </c>
       <c r="K25">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="L25" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="M25" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="N25" t="e">
         <f>VLOOKUP(L25,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="O25" t="s">
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" t="s">
+        <v>34</v>
+      </c>
+      <c r="F26" t="s">
+        <v>34</v>
+      </c>
+      <c r="G26" t="s">
+        <v>40</v>
+      </c>
+      <c r="H26" t="s">
+        <v>36</v>
+      </c>
+      <c r="I26" t="s">
+        <v>126</v>
+      </c>
+      <c r="J26" t="s">
+        <v>45</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26" t="s">
+        <v>6</v>
+      </c>
+      <c r="M26" t="s">
+        <v>65</v>
+      </c>
+      <c r="N26" t="e">
+        <f>VLOOKUP(L26,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O26" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="26" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <f>A25+1</f>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27" t="s">
+        <v>34</v>
+      </c>
+      <c r="F27" t="s">
+        <v>34</v>
+      </c>
+      <c r="G27" t="s">
+        <v>40</v>
+      </c>
+      <c r="H27" t="s">
+        <v>36</v>
+      </c>
+      <c r="I27" t="s">
+        <v>126</v>
+      </c>
+      <c r="J27" t="s">
+        <v>43</v>
+      </c>
+      <c r="K27">
         <v>1</v>
       </c>
-      <c r="B26" t="s">
-        <v>33</v>
-      </c>
-      <c r="C26" t="s">
-        <v>33</v>
-      </c>
-      <c r="D26" t="s">
-        <v>33</v>
-      </c>
-      <c r="E26" t="s">
-        <v>33</v>
-      </c>
-      <c r="F26" t="s">
-        <v>33</v>
-      </c>
-      <c r="G26" t="s">
-        <v>41</v>
-      </c>
-      <c r="H26" t="s">
-        <v>37</v>
-      </c>
-      <c r="I26" t="s">
-        <v>126</v>
-      </c>
-      <c r="J26" t="s">
+      <c r="L27" t="s">
+        <v>0</v>
+      </c>
+      <c r="M27" t="s">
+        <v>52</v>
+      </c>
+      <c r="N27" t="e">
+        <f>VLOOKUP(L27,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O27" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" t="s">
+        <v>34</v>
+      </c>
+      <c r="E28" t="s">
+        <v>34</v>
+      </c>
+      <c r="F28" t="s">
+        <v>34</v>
+      </c>
+      <c r="G28" t="s">
+        <v>40</v>
+      </c>
+      <c r="H28" t="s">
+        <v>36</v>
+      </c>
+      <c r="I28" t="s">
+        <v>126</v>
+      </c>
+      <c r="J28" t="s">
+        <v>43</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28" t="s">
+        <v>1</v>
+      </c>
+      <c r="M28" t="s">
+        <v>53</v>
+      </c>
+      <c r="N28" t="e">
+        <f>VLOOKUP(L28,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O28" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f>A28+1</f>
+        <v>2</v>
+      </c>
+      <c r="B29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" t="s">
+        <v>33</v>
+      </c>
+      <c r="E29" t="s">
+        <v>34</v>
+      </c>
+      <c r="F29" t="s">
+        <v>34</v>
+      </c>
+      <c r="G29" t="s">
+        <v>40</v>
+      </c>
+      <c r="H29" t="s">
+        <v>36</v>
+      </c>
+      <c r="I29" t="s">
+        <v>126</v>
+      </c>
+      <c r="J29" t="s">
         <v>50</v>
       </c>
-      <c r="K26">
-        <v>14</v>
-      </c>
-      <c r="L26" t="s">
-        <v>127</v>
-      </c>
-      <c r="M26" t="s">
-        <v>180</v>
-      </c>
-      <c r="N26">
-        <f>VLOOKUP(L26,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
-        <v>0.39100000000000001</v>
-      </c>
-      <c r="O26" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27" t="s">
-        <v>33</v>
-      </c>
-      <c r="D27" t="s">
-        <v>33</v>
-      </c>
-      <c r="E27" t="s">
-        <v>34</v>
-      </c>
-      <c r="F27" t="s">
-        <v>34</v>
-      </c>
-      <c r="G27" t="s">
-        <v>41</v>
-      </c>
-      <c r="H27" t="s">
-        <v>37</v>
-      </c>
-      <c r="I27" t="s">
-        <v>126</v>
-      </c>
-      <c r="J27" t="s">
-        <v>141</v>
-      </c>
-      <c r="K27">
-        <v>21</v>
-      </c>
-      <c r="L27" t="s">
-        <v>151</v>
-      </c>
-      <c r="M27" t="s">
-        <v>152</v>
-      </c>
-      <c r="N27">
-        <f>VLOOKUP(L27,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
-        <v>0.378</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>33</v>
-      </c>
-      <c r="C28" t="s">
-        <v>33</v>
-      </c>
-      <c r="D28" t="s">
-        <v>33</v>
-      </c>
-      <c r="E28" t="s">
-        <v>34</v>
-      </c>
-      <c r="F28" t="s">
-        <v>34</v>
-      </c>
-      <c r="G28" t="s">
-        <v>41</v>
-      </c>
-      <c r="H28" t="s">
-        <v>37</v>
-      </c>
-      <c r="I28" t="s">
-        <v>126</v>
-      </c>
-      <c r="J28" t="s">
-        <v>141</v>
-      </c>
-      <c r="K28">
-        <v>29</v>
-      </c>
-      <c r="L28" t="s">
-        <v>164</v>
-      </c>
-      <c r="M28" t="s">
-        <v>165</v>
-      </c>
-      <c r="N28">
-        <f>VLOOKUP(L28,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
-        <v>0.36499999999999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>33</v>
-      </c>
-      <c r="C29" t="s">
-        <v>33</v>
-      </c>
-      <c r="D29" t="s">
-        <v>33</v>
-      </c>
-      <c r="E29" t="s">
-        <v>34</v>
-      </c>
-      <c r="F29" t="s">
-        <v>34</v>
-      </c>
-      <c r="G29" t="s">
-        <v>41</v>
-      </c>
-      <c r="H29" t="s">
-        <v>37</v>
-      </c>
-      <c r="I29" t="s">
-        <v>126</v>
-      </c>
-      <c r="J29" t="s">
-        <v>141</v>
-      </c>
       <c r="K29">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="L29" t="s">
-        <v>172</v>
+        <v>22</v>
       </c>
       <c r="M29" t="s">
-        <v>173</v>
-      </c>
-      <c r="N29">
+        <v>82</v>
+      </c>
+      <c r="N29" t="e">
         <f>VLOOKUP(L29,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
-        <v>0.35599999999999998</v>
+        <v>#N/A</v>
+      </c>
+      <c r="O29" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30">
-        <f>A27+1</f>
-        <v>1</v>
+        <f>A29+1</f>
+        <v>3</v>
       </c>
       <c r="B30" t="s">
         <v>33</v>
@@ -2514,7 +2535,7 @@
         <v>33</v>
       </c>
       <c r="D30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E30" t="s">
         <v>34</v>
@@ -2535,23 +2556,27 @@
         <v>50</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L30" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="M30" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="N30" t="e">
         <f>VLOOKUP(L30,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="O30" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <f>A28+1</f>
+        <v>2</v>
+      </c>
       <c r="B31" t="s">
         <v>33</v>
       </c>
@@ -2559,13 +2584,13 @@
         <v>33</v>
       </c>
       <c r="D31" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E31" t="s">
         <v>34</v>
       </c>
       <c r="F31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G31" t="s">
         <v>41</v>
@@ -2574,29 +2599,32 @@
         <v>37</v>
       </c>
       <c r="I31" t="s">
-        <v>126</v>
+        <v>181</v>
       </c>
       <c r="J31" t="s">
-        <v>141</v>
+        <v>50</v>
       </c>
       <c r="K31">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="L31" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="M31" t="s">
-        <v>175</v>
-      </c>
-      <c r="N31">
+        <v>185</v>
+      </c>
+      <c r="N31" t="e">
         <f>VLOOKUP(L31,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
-        <v>0.35499999999999998</v>
+        <v>#N/A</v>
+      </c>
+      <c r="O31" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32">
-        <f>A31+1</f>
-        <v>1</v>
+        <f>A29+1</f>
+        <v>3</v>
       </c>
       <c r="B32" t="s">
         <v>33</v>
@@ -2605,7 +2633,7 @@
         <v>33</v>
       </c>
       <c r="D32" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E32" t="s">
         <v>34</v>
@@ -2614,36 +2642,35 @@
         <v>33</v>
       </c>
       <c r="G32" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H32" t="s">
         <v>37</v>
       </c>
       <c r="I32" t="s">
-        <v>126</v>
+        <v>181</v>
       </c>
       <c r="J32" t="s">
         <v>50</v>
       </c>
       <c r="K32">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L32" t="s">
-        <v>12</v>
+        <v>182</v>
       </c>
       <c r="M32" t="s">
-        <v>71</v>
+        <v>183</v>
       </c>
       <c r="N32" t="e">
         <f>VLOOKUP(L32,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <f>A32+1</f>
-        <v>2</v>
-      </c>
+      <c r="O32" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>33</v>
       </c>
@@ -2669,25 +2696,25 @@
         <v>126</v>
       </c>
       <c r="J33" t="s">
-        <v>50</v>
+        <v>141</v>
       </c>
       <c r="K33">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="L33" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="M33" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="N33">
         <f>VLOOKUP(L33,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
-        <v>0.35199999999999998</v>
+        <v>0.224</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C34" t="s">
         <v>33</v>
@@ -2702,35 +2729,32 @@
         <v>34</v>
       </c>
       <c r="G34" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H34" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I34" t="s">
         <v>126</v>
       </c>
       <c r="J34" t="s">
-        <v>50</v>
+        <v>141</v>
       </c>
       <c r="K34">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="L34" t="s">
-        <v>14</v>
+        <v>143</v>
       </c>
       <c r="M34" t="s">
-        <v>73</v>
-      </c>
-      <c r="N34" t="e">
+        <v>144</v>
+      </c>
+      <c r="N34">
         <f>VLOOKUP(L34,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O34" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.27200000000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>33</v>
       </c>
@@ -2759,22 +2783,22 @@
         <v>141</v>
       </c>
       <c r="K35">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="L35" t="s">
-        <v>176</v>
+        <v>149</v>
       </c>
       <c r="M35" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
       <c r="N35">
         <f>VLOOKUP(L35,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
-        <v>0.35</v>
+        <v>0.39600000000000002</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C36" t="s">
         <v>33</v>
@@ -2789,39 +2813,32 @@
         <v>34</v>
       </c>
       <c r="G36" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H36" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I36" t="s">
         <v>126</v>
       </c>
       <c r="J36" t="s">
-        <v>50</v>
+        <v>141</v>
       </c>
       <c r="K36">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="L36" t="s">
-        <v>16</v>
+        <v>151</v>
       </c>
       <c r="M36" t="s">
-        <v>75</v>
-      </c>
-      <c r="N36" t="e">
+        <v>152</v>
+      </c>
+      <c r="N36">
         <f>VLOOKUP(L36,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O36" t="s">
-        <v>111</v>
+        <v>0.378</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <f t="shared" ref="A37:A46" si="0">A36+1</f>
-        <v>1</v>
-      </c>
       <c r="B37" t="s">
         <v>33</v>
       </c>
@@ -2835,10 +2852,10 @@
         <v>34</v>
       </c>
       <c r="F37" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G37" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H37" t="s">
         <v>37</v>
@@ -2847,27 +2864,23 @@
         <v>126</v>
       </c>
       <c r="J37" t="s">
-        <v>50</v>
+        <v>141</v>
       </c>
       <c r="K37">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="L37" t="s">
-        <v>15</v>
+        <v>145</v>
       </c>
       <c r="M37" t="s">
-        <v>74</v>
-      </c>
-      <c r="N37" t="e">
+        <v>153</v>
+      </c>
+      <c r="N37">
         <f>VLOOKUP(L37,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>0.23499999999999999</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
       <c r="B38" t="s">
         <v>33</v>
       </c>
@@ -2881,10 +2894,10 @@
         <v>34</v>
       </c>
       <c r="F38" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G38" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H38" t="s">
         <v>37</v>
@@ -2893,30 +2906,23 @@
         <v>126</v>
       </c>
       <c r="J38" t="s">
-        <v>50</v>
+        <v>141</v>
       </c>
       <c r="K38">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="L38" t="s">
-        <v>17</v>
+        <v>147</v>
       </c>
       <c r="M38" t="s">
-        <v>76</v>
-      </c>
-      <c r="N38" t="e">
+        <v>146</v>
+      </c>
+      <c r="N38">
         <f>VLOOKUP(L38,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O38" t="s">
-        <v>109</v>
+        <v>0.27200000000000002</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
       <c r="B39" t="s">
         <v>33</v>
       </c>
@@ -2930,39 +2936,35 @@
         <v>34</v>
       </c>
       <c r="F39" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G39" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H39" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I39" t="s">
         <v>126</v>
       </c>
       <c r="J39" t="s">
-        <v>50</v>
+        <v>141</v>
       </c>
       <c r="K39">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="L39" t="s">
-        <v>18</v>
+        <v>154</v>
       </c>
       <c r="M39" t="s">
-        <v>77</v>
-      </c>
-      <c r="N39" t="e">
+        <v>155</v>
+      </c>
+      <c r="N39">
         <f>VLOOKUP(L39,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>0.32600000000000001</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
       <c r="B40" t="s">
         <v>33</v>
       </c>
@@ -2976,39 +2978,35 @@
         <v>34</v>
       </c>
       <c r="F40" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G40" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H40" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I40" t="s">
         <v>126</v>
       </c>
       <c r="J40" t="s">
-        <v>50</v>
+        <v>141</v>
       </c>
       <c r="K40">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="L40" t="s">
-        <v>19</v>
+        <v>156</v>
       </c>
       <c r="M40" t="s">
-        <v>78</v>
-      </c>
-      <c r="N40" t="e">
+        <v>157</v>
+      </c>
+      <c r="N40">
         <f>VLOOKUP(L40,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>0.34100000000000003</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
       <c r="B41" t="s">
         <v>33</v>
       </c>
@@ -3022,39 +3020,35 @@
         <v>34</v>
       </c>
       <c r="F41" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G41" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H41" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I41" t="s">
         <v>126</v>
       </c>
       <c r="J41" t="s">
-        <v>50</v>
+        <v>141</v>
       </c>
       <c r="K41">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="L41" t="s">
-        <v>20</v>
+        <v>158</v>
       </c>
       <c r="M41" t="s">
-        <v>79</v>
-      </c>
-      <c r="N41" t="e">
+        <v>159</v>
+      </c>
+      <c r="N41">
         <f>VLOOKUP(L41,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>0.309</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
       <c r="B42" t="s">
         <v>33</v>
       </c>
@@ -3068,38 +3062,38 @@
         <v>34</v>
       </c>
       <c r="F42" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G42" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H42" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I42" t="s">
         <v>126</v>
       </c>
       <c r="J42" t="s">
-        <v>50</v>
+        <v>141</v>
       </c>
       <c r="K42">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="L42" t="s">
-        <v>89</v>
+        <v>160</v>
       </c>
       <c r="M42" t="s">
-        <v>80</v>
-      </c>
-      <c r="N42" t="e">
+        <v>161</v>
+      </c>
+      <c r="N42">
         <f>VLOOKUP(L42,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>0.254</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <f>A40+1</f>
+        <v>1</v>
       </c>
       <c r="B43" t="s">
         <v>33</v>
@@ -3117,38 +3111,41 @@
         <v>33</v>
       </c>
       <c r="G43" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H43" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I43" t="s">
         <v>126</v>
       </c>
       <c r="J43" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K43">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="L43" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="M43" t="s">
-        <v>81</v>
-      </c>
-      <c r="N43" t="e">
+        <v>87</v>
+      </c>
+      <c r="N43">
         <f>VLOOKUP(L43,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="O43" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <f>A42+1</f>
+        <v>1</v>
       </c>
       <c r="B44" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C44" t="s">
         <v>33</v>
@@ -3163,38 +3160,35 @@
         <v>34</v>
       </c>
       <c r="G44" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H44" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I44" t="s">
         <v>126</v>
       </c>
       <c r="J44" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K44">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="L44" t="s">
-        <v>22</v>
+        <v>92</v>
       </c>
       <c r="M44" t="s">
-        <v>82</v>
-      </c>
-      <c r="N44" t="e">
+        <v>93</v>
+      </c>
+      <c r="N44">
         <f>VLOOKUP(L44,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O44" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.23599999999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45">
-        <f t="shared" si="0"/>
-        <v>9</v>
+        <f>A44+1</f>
+        <v>2</v>
       </c>
       <c r="B45" t="s">
         <v>33</v>
@@ -3206,10 +3200,10 @@
         <v>33</v>
       </c>
       <c r="E45" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F45" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G45" t="s">
         <v>41</v>
@@ -3224,24 +3218,23 @@
         <v>50</v>
       </c>
       <c r="K45">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L45" t="s">
-        <v>88</v>
+        <v>127</v>
       </c>
       <c r="M45" t="s">
-        <v>115</v>
+        <v>180</v>
       </c>
       <c r="N45">
         <f>VLOOKUP(L45,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
-        <v>0.34799999999999998</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
+        <v>0.39100000000000001</v>
+      </c>
+      <c r="O45" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>33</v>
       </c>
@@ -3267,26 +3260,23 @@
         <v>126</v>
       </c>
       <c r="J46" t="s">
-        <v>50</v>
+        <v>141</v>
       </c>
       <c r="K46">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="L46" t="s">
-        <v>49</v>
+        <v>162</v>
       </c>
       <c r="M46" t="s">
-        <v>131</v>
+        <v>163</v>
       </c>
       <c r="N46">
         <f>VLOOKUP(L46,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
-        <v>0.34499999999999997</v>
-      </c>
-      <c r="O46" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.32500000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>33</v>
       </c>
@@ -3315,20 +3305,20 @@
         <v>141</v>
       </c>
       <c r="K47">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="L47" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="M47" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="N47">
         <f>VLOOKUP(L47,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
-        <v>0.34100000000000003</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.36499999999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>33</v>
       </c>
@@ -3357,20 +3347,20 @@
         <v>141</v>
       </c>
       <c r="K48">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="L48" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="M48" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="N48">
         <f>VLOOKUP(L48,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
-        <v>0.32600000000000001</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>33</v>
       </c>
@@ -3399,20 +3389,24 @@
         <v>141</v>
       </c>
       <c r="K49">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="L49" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="M49" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="N49">
         <f>VLOOKUP(L49,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
-        <v>0.32500000000000001</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.249</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <f>A49+1</f>
+        <v>1</v>
+      </c>
       <c r="B50" t="s">
         <v>33</v>
       </c>
@@ -3438,23 +3432,27 @@
         <v>126</v>
       </c>
       <c r="J50" t="s">
-        <v>141</v>
+        <v>50</v>
       </c>
       <c r="K50">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="L50" t="s">
-        <v>158</v>
+        <v>129</v>
       </c>
       <c r="M50" t="s">
-        <v>159</v>
+        <v>130</v>
       </c>
       <c r="N50">
         <f>VLOOKUP(L50,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
-        <v>0.309</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.35199999999999998</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <f>A50+1</f>
+        <v>2</v>
+      </c>
       <c r="B51" t="s">
         <v>33</v>
       </c>
@@ -3468,7 +3466,7 @@
         <v>34</v>
       </c>
       <c r="F51" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G51" t="s">
         <v>41</v>
@@ -3480,23 +3478,26 @@
         <v>126</v>
       </c>
       <c r="J51" t="s">
-        <v>141</v>
+        <v>50</v>
       </c>
       <c r="K51">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="L51" t="s">
-        <v>170</v>
+        <v>49</v>
       </c>
       <c r="M51" t="s">
-        <v>171</v>
+        <v>131</v>
       </c>
       <c r="N51">
         <f>VLOOKUP(L51,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
-        <v>0.30099999999999999</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="O51" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>33</v>
       </c>
@@ -3525,20 +3526,20 @@
         <v>141</v>
       </c>
       <c r="K52">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L52" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="M52" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="N52">
         <f>VLOOKUP(L52,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.30099999999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>33</v>
       </c>
@@ -3564,23 +3565,23 @@
         <v>126</v>
       </c>
       <c r="J53" t="s">
-        <v>50</v>
+        <v>141</v>
       </c>
       <c r="K53">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="L53" t="s">
-        <v>133</v>
+        <v>172</v>
       </c>
       <c r="M53" t="s">
-        <v>134</v>
+        <v>173</v>
       </c>
       <c r="N53">
         <f>VLOOKUP(L53,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
-        <v>0.29799999999999999</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.35599999999999998</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>33</v>
       </c>
@@ -3606,23 +3607,23 @@
         <v>126</v>
       </c>
       <c r="J54" t="s">
-        <v>50</v>
+        <v>141</v>
       </c>
       <c r="K54">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="L54" t="s">
-        <v>139</v>
+        <v>174</v>
       </c>
       <c r="M54" t="s">
-        <v>140</v>
+        <v>175</v>
       </c>
       <c r="N54">
         <f>VLOOKUP(L54,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
-        <v>0.28499999999999998</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.35499999999999998</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>33</v>
       </c>
@@ -3651,20 +3652,24 @@
         <v>141</v>
       </c>
       <c r="K55">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="L55" t="s">
-        <v>143</v>
+        <v>176</v>
       </c>
       <c r="M55" t="s">
-        <v>144</v>
+        <v>177</v>
       </c>
       <c r="N55">
         <f>VLOOKUP(L55,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
-        <v>0.27200000000000002</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <f>A55+1</f>
+        <v>1</v>
+      </c>
       <c r="B56" t="s">
         <v>33</v>
       </c>
@@ -3690,23 +3695,27 @@
         <v>126</v>
       </c>
       <c r="J56" t="s">
-        <v>141</v>
+        <v>50</v>
       </c>
       <c r="K56">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="L56" t="s">
-        <v>147</v>
+        <v>88</v>
       </c>
       <c r="M56" t="s">
-        <v>146</v>
+        <v>115</v>
       </c>
       <c r="N56">
         <f>VLOOKUP(L56,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
-        <v>0.27200000000000002</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.34799999999999998</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <f>A56+1</f>
+        <v>2</v>
+      </c>
       <c r="B57" t="s">
         <v>33</v>
       </c>
@@ -3720,10 +3729,10 @@
         <v>34</v>
       </c>
       <c r="F57" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G57" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H57" t="s">
         <v>37</v>
@@ -3735,20 +3744,24 @@
         <v>50</v>
       </c>
       <c r="K57">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="L57" t="s">
-        <v>137</v>
+        <v>15</v>
       </c>
       <c r="M57" t="s">
-        <v>138</v>
-      </c>
-      <c r="N57">
+        <v>74</v>
+      </c>
+      <c r="N57" t="e">
         <f>VLOOKUP(L57,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
-        <v>0.26400000000000001</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <f>A56+1</f>
+        <v>2</v>
+      </c>
       <c r="B58" t="s">
         <v>33</v>
       </c>
@@ -3762,7 +3775,7 @@
         <v>34</v>
       </c>
       <c r="F58" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G58" t="s">
         <v>41</v>
@@ -3774,23 +3787,30 @@
         <v>126</v>
       </c>
       <c r="J58" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K58">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="L58" t="s">
-        <v>135</v>
+        <v>48</v>
       </c>
       <c r="M58" t="s">
-        <v>136</v>
+        <v>84</v>
       </c>
       <c r="N58">
         <f>VLOOKUP(L58,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
-        <v>0.25700000000000001</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="O58" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <f>A57+1</f>
+        <v>3</v>
+      </c>
       <c r="B59" t="s">
         <v>33</v>
       </c>
@@ -3816,23 +3836,23 @@
         <v>126</v>
       </c>
       <c r="J59" t="s">
-        <v>141</v>
+        <v>51</v>
       </c>
       <c r="K59">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="L59" t="s">
-        <v>160</v>
+        <v>91</v>
       </c>
       <c r="M59" t="s">
-        <v>161</v>
+        <v>118</v>
       </c>
       <c r="N59">
         <f>VLOOKUP(L59,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
-        <v>0.254</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.188</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>33</v>
       </c>
@@ -3846,7 +3866,7 @@
         <v>34</v>
       </c>
       <c r="F60" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G60" t="s">
         <v>41</v>
@@ -3858,27 +3878,23 @@
         <v>126</v>
       </c>
       <c r="J60" t="s">
-        <v>141</v>
+        <v>50</v>
       </c>
       <c r="K60">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="L60" t="s">
-        <v>168</v>
+        <v>137</v>
       </c>
       <c r="M60" t="s">
-        <v>169</v>
+        <v>138</v>
       </c>
       <c r="N60">
         <f>VLOOKUP(L60,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
-        <v>0.249</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <f>A59+1</f>
-        <v>1</v>
-      </c>
+        <v>0.26400000000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>33</v>
       </c>
@@ -3904,23 +3920,23 @@
         <v>126</v>
       </c>
       <c r="J61" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K61">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="L61" t="s">
-        <v>92</v>
+        <v>139</v>
       </c>
       <c r="M61" t="s">
-        <v>93</v>
+        <v>140</v>
       </c>
       <c r="N61">
         <f>VLOOKUP(L61,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
-        <v>0.23599999999999999</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.28499999999999998</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>33</v>
       </c>
@@ -3934,7 +3950,7 @@
         <v>34</v>
       </c>
       <c r="F62" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G62" t="s">
         <v>41</v>
@@ -3946,27 +3962,23 @@
         <v>126</v>
       </c>
       <c r="J62" t="s">
-        <v>141</v>
+        <v>50</v>
       </c>
       <c r="K62">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="L62" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="M62" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="N62">
         <f>VLOOKUP(L62,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
-        <v>0.23499999999999999</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <f>A60+1</f>
-        <v>1</v>
-      </c>
+        <v>0.29799999999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>33</v>
       </c>
@@ -3992,26 +4004,27 @@
         <v>126</v>
       </c>
       <c r="J63" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K63">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="L63" t="s">
-        <v>47</v>
+        <v>135</v>
       </c>
       <c r="M63" t="s">
-        <v>87</v>
+        <v>136</v>
       </c>
       <c r="N63">
         <f>VLOOKUP(L63,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
-        <v>0.23400000000000001</v>
-      </c>
-      <c r="O63" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.25700000000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <f>A61+1</f>
+        <v>1</v>
+      </c>
       <c r="B64" t="s">
         <v>33</v>
       </c>
@@ -4019,16 +4032,16 @@
         <v>33</v>
       </c>
       <c r="D64" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E64" t="s">
         <v>34</v>
       </c>
       <c r="F64" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G64" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H64" t="s">
         <v>37</v>
@@ -4037,25 +4050,28 @@
         <v>126</v>
       </c>
       <c r="J64" t="s">
-        <v>141</v>
+        <v>50</v>
       </c>
       <c r="K64">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="L64" t="s">
-        <v>142</v>
+        <v>13</v>
       </c>
       <c r="M64" t="s">
-        <v>148</v>
-      </c>
-      <c r="N64">
+        <v>72</v>
+      </c>
+      <c r="N64" t="e">
         <f>VLOOKUP(L64,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
-        <v>0.224</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+        <v>#N/A</v>
+      </c>
+      <c r="O64" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65">
-        <f>A63+1</f>
+        <f>A64+1</f>
         <v>2</v>
       </c>
       <c r="B65" t="s">
@@ -4071,7 +4087,7 @@
         <v>34</v>
       </c>
       <c r="F65" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G65" t="s">
         <v>41</v>
@@ -4083,26 +4099,26 @@
         <v>126</v>
       </c>
       <c r="J65" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K65">
         <v>2</v>
       </c>
       <c r="L65" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="M65" t="s">
-        <v>118</v>
-      </c>
-      <c r="N65">
+        <v>83</v>
+      </c>
+      <c r="N65" t="e">
         <f>VLOOKUP(L65,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
-        <v>0.188</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66">
-        <f>A64+1</f>
-        <v>1</v>
+        <f>A65+1</f>
+        <v>3</v>
       </c>
       <c r="B66" t="s">
         <v>33</v>
@@ -4117,10 +4133,10 @@
         <v>34</v>
       </c>
       <c r="F66" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G66" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H66" t="s">
         <v>37</v>
@@ -4129,29 +4145,26 @@
         <v>126</v>
       </c>
       <c r="J66" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K66">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L66" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="M66" t="s">
-        <v>84</v>
-      </c>
-      <c r="N66">
+        <v>71</v>
+      </c>
+      <c r="N66" t="e">
         <f>VLOOKUP(L66,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
-        <v>0.16500000000000001</v>
-      </c>
-      <c r="O66" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67">
-        <f>A66+1</f>
-        <v>2</v>
+        <f>A65+1</f>
+        <v>3</v>
       </c>
       <c r="B67" t="s">
         <v>33</v>
@@ -4169,7 +4182,7 @@
         <v>33</v>
       </c>
       <c r="G67" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H67" t="s">
         <v>37</v>
@@ -4178,26 +4191,29 @@
         <v>126</v>
       </c>
       <c r="J67" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="K67">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L67" t="s">
-        <v>85</v>
+        <v>3</v>
       </c>
       <c r="M67" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="N67" t="e">
         <f>VLOOKUP(L67,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="68" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O67" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68">
         <f>A66+1</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B68" t="s">
         <v>33</v>
@@ -4240,16 +4256,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="69" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <f>A67+1</f>
-        <v>3</v>
-      </c>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>33</v>
       </c>
       <c r="C69" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D69" t="s">
         <v>34</v>
@@ -4270,35 +4282,28 @@
         <v>126</v>
       </c>
       <c r="J69" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="K69">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L69" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="M69" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N69" t="e">
         <f>VLOOKUP(L69,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="O69" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <f>A68+1</f>
-        <v>3</v>
-      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>33</v>
       </c>
       <c r="C70" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D70" t="s">
         <v>34</v>
@@ -4319,29 +4324,29 @@
         <v>126</v>
       </c>
       <c r="J70" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="K70">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L70" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="M70" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N70" t="e">
         <f>VLOOKUP(L70,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="O70" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71">
         <f>A69+1</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B71" t="s">
         <v>33</v>
@@ -4356,7 +4361,7 @@
         <v>34</v>
       </c>
       <c r="F71" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G71" t="s">
         <v>41</v>
@@ -4365,19 +4370,19 @@
         <v>37</v>
       </c>
       <c r="I71" t="s">
-        <v>181</v>
+        <v>126</v>
       </c>
       <c r="J71" t="s">
         <v>50</v>
       </c>
       <c r="K71">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L71" t="s">
-        <v>182</v>
+        <v>101</v>
       </c>
       <c r="M71" t="s">
-        <v>183</v>
+        <v>117</v>
       </c>
       <c r="N71" t="e">
         <f>VLOOKUP(L71,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
@@ -4387,17 +4392,58 @@
         <v>109</v>
       </c>
     </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <f>A70+1</f>
+        <v>1</v>
+      </c>
+      <c r="B72" t="s">
+        <v>33</v>
+      </c>
+      <c r="C72" t="s">
+        <v>33</v>
+      </c>
+      <c r="D72" t="s">
+        <v>34</v>
+      </c>
+      <c r="E72" t="s">
+        <v>34</v>
+      </c>
+      <c r="F72" t="s">
+        <v>34</v>
+      </c>
+      <c r="G72" t="s">
+        <v>41</v>
+      </c>
+      <c r="H72" t="s">
+        <v>37</v>
+      </c>
+      <c r="I72" t="s">
+        <v>126</v>
+      </c>
+      <c r="J72" t="s">
+        <v>50</v>
+      </c>
+      <c r="K72">
+        <v>4</v>
+      </c>
+      <c r="L72" t="s">
+        <v>102</v>
+      </c>
+      <c r="M72" t="s">
+        <v>103</v>
+      </c>
+      <c r="N72" t="e">
+        <f>VLOOKUP(L72,'[1]Sheet 1'!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O72" t="s">
+        <v>109</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:O71">
-    <filterColumn colId="6">
-      <filters>
-        <filter val="IMDB/RT/BO"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <sortState ref="A2:N52">
-    <sortCondition ref="J2:J52"/>
-    <sortCondition ref="K2:K52"/>
+  <sortState ref="A2:O71">
+    <sortCondition ref="L2:L71"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
